--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401891</v>
+        <v>0.399881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177621</v>
+        <v>0.168441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.232094</v>
+        <v>0.226098</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407259</v>
+        <v>0.40579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.179777</v>
+        <v>0.171641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238093</v>
+        <v>0.232564</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41234</v>
+        <v>0.411358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.182594</v>
+        <v>0.174093</v>
       </c>
       <c r="D4" t="n">
-        <v>0.244118</v>
+        <v>0.238229</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422192</v>
+        <v>0.4167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.184584</v>
+        <v>0.176542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245871</v>
+        <v>0.239851</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.422213</v>
+        <v>0.417827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188217</v>
+        <v>0.180177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.250097</v>
+        <v>0.250536</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.427639</v>
+        <v>0.427506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173458</v>
+        <v>0.165562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248229</v>
+        <v>0.248982</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401579</v>
+        <v>0.404231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.175505</v>
+        <v>0.16801</v>
       </c>
       <c r="D8" t="n">
-        <v>0.251722</v>
+        <v>0.257135</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407709</v>
+        <v>0.407437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177611</v>
+        <v>0.169751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260773</v>
+        <v>0.256322</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.417241</v>
+        <v>0.412994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17955</v>
+        <v>0.172006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.26375</v>
+        <v>0.25962</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.421563</v>
+        <v>0.417324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180794</v>
+        <v>0.173451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268376</v>
+        <v>0.265814</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.426373</v>
+        <v>0.425184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18351</v>
+        <v>0.175562</v>
       </c>
       <c r="D12" t="n">
-        <v>0.272215</v>
+        <v>0.269081</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.432389</v>
+        <v>0.428599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18589</v>
+        <v>0.178006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.277064</v>
+        <v>0.272417</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.440902</v>
+        <v>0.432658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188089</v>
+        <v>0.179945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281479</v>
+        <v>0.278521</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.445643</v>
+        <v>0.438947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.190588</v>
+        <v>0.182556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285997</v>
+        <v>0.283443</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.448755</v>
+        <v>0.446549</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192735</v>
+        <v>0.185086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288609</v>
+        <v>0.288346</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.453953</v>
+        <v>0.451442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.194757</v>
+        <v>0.187269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29581</v>
+        <v>0.293533</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460563</v>
+        <v>0.457857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197449</v>
+        <v>0.190399</v>
       </c>
       <c r="D18" t="n">
-        <v>0.299544</v>
+        <v>0.297147</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464637</v>
+        <v>0.463495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200368</v>
+        <v>0.193492</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30616</v>
+        <v>0.302934</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.47584</v>
+        <v>0.472348</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203698</v>
+        <v>0.195956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310245</v>
+        <v>0.307423</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47946</v>
+        <v>0.477571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183726</v>
+        <v>0.175987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.308946</v>
+        <v>0.304523</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45774</v>
+        <v>0.457074</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185742</v>
+        <v>0.178109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.311999</v>
+        <v>0.309149</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.463538</v>
+        <v>0.462198</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187583</v>
+        <v>0.179973</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315065</v>
+        <v>0.311968</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.466146</v>
+        <v>0.466189</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189659</v>
+        <v>0.1818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318868</v>
+        <v>0.316122</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472991</v>
+        <v>0.471013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191302</v>
+        <v>0.183823</v>
       </c>
       <c r="D25" t="n">
-        <v>0.321268</v>
+        <v>0.319932</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475162</v>
+        <v>0.475597</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193526</v>
+        <v>0.185889</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324003</v>
+        <v>0.322299</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479077</v>
+        <v>0.478872</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195493</v>
+        <v>0.187473</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327132</v>
+        <v>0.325881</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.483677</v>
+        <v>0.483255</v>
       </c>
       <c r="C28" t="n">
-        <v>0.197866</v>
+        <v>0.190351</v>
       </c>
       <c r="D28" t="n">
-        <v>0.330563</v>
+        <v>0.328855</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.488411</v>
+        <v>0.487151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200202</v>
+        <v>0.192933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333035</v>
+        <v>0.331202</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.492775</v>
+        <v>0.491737</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202596</v>
+        <v>0.194689</v>
       </c>
       <c r="D30" t="n">
-        <v>0.335802</v>
+        <v>0.334652</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496772</v>
+        <v>0.496873</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205084</v>
+        <v>0.197618</v>
       </c>
       <c r="D31" t="n">
-        <v>0.339176</v>
+        <v>0.338037</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.500772</v>
+        <v>0.500806</v>
       </c>
       <c r="C32" t="n">
-        <v>0.207299</v>
+        <v>0.199017</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341201</v>
+        <v>0.3406</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.506613</v>
+        <v>0.50622</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20967</v>
+        <v>0.202661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344422</v>
+        <v>0.344012</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5117969999999999</v>
+        <v>0.512248</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212659</v>
+        <v>0.204826</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347288</v>
+        <v>0.346551</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.516298</v>
+        <v>0.515711</v>
       </c>
       <c r="C35" t="n">
-        <v>0.18892</v>
+        <v>0.180271</v>
       </c>
       <c r="D35" t="n">
-        <v>0.341788</v>
+        <v>0.339015</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.488644</v>
+        <v>0.489127</v>
       </c>
       <c r="C36" t="n">
-        <v>0.190493</v>
+        <v>0.182017</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343456</v>
+        <v>0.340969</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.492186</v>
+        <v>0.49247</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192731</v>
+        <v>0.184003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345097</v>
+        <v>0.343059</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.494876</v>
+        <v>0.494494</v>
       </c>
       <c r="C38" t="n">
-        <v>0.194307</v>
+        <v>0.185666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346775</v>
+        <v>0.345355</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.497384</v>
+        <v>0.498321</v>
       </c>
       <c r="C39" t="n">
-        <v>0.196174</v>
+        <v>0.187626</v>
       </c>
       <c r="D39" t="n">
-        <v>0.348614</v>
+        <v>0.346338</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.500989</v>
+        <v>0.501068</v>
       </c>
       <c r="C40" t="n">
-        <v>0.198177</v>
+        <v>0.189224</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350511</v>
+        <v>0.349502</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504072</v>
+        <v>0.5032720000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.19997</v>
+        <v>0.191087</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35233</v>
+        <v>0.351191</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507984</v>
+        <v>0.5073800000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202591</v>
+        <v>0.19437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353811</v>
+        <v>0.353476</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5108510000000001</v>
+        <v>0.511537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.203812</v>
+        <v>0.195277</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355484</v>
+        <v>0.354613</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.513577</v>
+        <v>0.513693</v>
       </c>
       <c r="C44" t="n">
-        <v>0.205912</v>
+        <v>0.198131</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357609</v>
+        <v>0.358046</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.517092</v>
+        <v>0.5182099999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208703</v>
+        <v>0.201236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359533</v>
+        <v>0.35983</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.521265</v>
+        <v>0.522365</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211045</v>
+        <v>0.20388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361747</v>
+        <v>0.361593</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.525656</v>
+        <v>0.526936</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214163</v>
+        <v>0.206567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.364285</v>
+        <v>0.364375</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.530699</v>
+        <v>0.531355</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216963</v>
+        <v>0.208835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366038</v>
+        <v>0.366313</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.534412</v>
+        <v>0.536</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219666</v>
+        <v>0.212144</v>
       </c>
       <c r="D49" t="n">
-        <v>0.367724</v>
+        <v>0.368619</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5389699999999999</v>
+        <v>0.5403</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194679</v>
+        <v>0.186174</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359227</v>
+        <v>0.357866</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.507995</v>
+        <v>0.509199</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196627</v>
+        <v>0.191055</v>
       </c>
       <c r="D51" t="n">
-        <v>0.358556</v>
+        <v>0.358736</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.510373</v>
+        <v>0.511725</v>
       </c>
       <c r="C52" t="n">
-        <v>0.197777</v>
+        <v>0.191079</v>
       </c>
       <c r="D52" t="n">
-        <v>0.360422</v>
+        <v>0.359995</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.512559</v>
+        <v>0.514099</v>
       </c>
       <c r="C53" t="n">
-        <v>0.200328</v>
+        <v>0.194368</v>
       </c>
       <c r="D53" t="n">
-        <v>0.361971</v>
+        <v>0.361838</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.515209</v>
+        <v>0.51625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203596</v>
+        <v>0.195283</v>
       </c>
       <c r="D54" t="n">
-        <v>0.362177</v>
+        <v>0.36269</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.518062</v>
+        <v>0.5192369999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205939</v>
+        <v>0.199958</v>
       </c>
       <c r="D55" t="n">
-        <v>0.364844</v>
+        <v>0.365463</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.52032</v>
+        <v>0.522279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211296</v>
+        <v>0.204426</v>
       </c>
       <c r="D56" t="n">
-        <v>0.365964</v>
+        <v>0.36259</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.524648</v>
+        <v>0.52397</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219009</v>
+        <v>0.20785</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367554</v>
+        <v>0.367745</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.528598</v>
+        <v>0.527116</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218336</v>
+        <v>0.209232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.369153</v>
+        <v>0.369872</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5319700000000001</v>
+        <v>0.530621</v>
       </c>
       <c r="C59" t="n">
-        <v>0.227009</v>
+        <v>0.215736</v>
       </c>
       <c r="D59" t="n">
-        <v>0.368911</v>
+        <v>0.368534</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.534255</v>
+        <v>0.534153</v>
       </c>
       <c r="C60" t="n">
-        <v>0.226508</v>
+        <v>0.221411</v>
       </c>
       <c r="D60" t="n">
-        <v>0.373403</v>
+        <v>0.37665</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5386840000000001</v>
+        <v>0.545697</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233107</v>
+        <v>0.239407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.37564</v>
+        <v>0.381867</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.543616</v>
+        <v>0.555105</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242442</v>
+        <v>0.247651</v>
       </c>
       <c r="D62" t="n">
-        <v>0.377866</v>
+        <v>0.387967</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.549309</v>
+        <v>0.54904</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250233</v>
+        <v>0.244374</v>
       </c>
       <c r="D63" t="n">
-        <v>0.383219</v>
+        <v>0.382258</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5586680000000001</v>
+        <v>0.559653</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295485</v>
+        <v>0.290594</v>
       </c>
       <c r="D64" t="n">
-        <v>0.416662</v>
+        <v>0.411988</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.588566</v>
+        <v>0.587938</v>
       </c>
       <c r="C65" t="n">
-        <v>0.315177</v>
+        <v>0.308596</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4261</v>
+        <v>0.421333</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.601679</v>
+        <v>0.6057399999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324419</v>
+        <v>0.321523</v>
       </c>
       <c r="D66" t="n">
-        <v>0.428433</v>
+        <v>0.42884</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.61391</v>
+        <v>0.619873</v>
       </c>
       <c r="C67" t="n">
-        <v>0.336435</v>
+        <v>0.341382</v>
       </c>
       <c r="D67" t="n">
-        <v>0.437698</v>
+        <v>0.440205</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6301369999999999</v>
+        <v>0.628649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.354226</v>
+        <v>0.358262</v>
       </c>
       <c r="D68" t="n">
-        <v>0.456811</v>
+        <v>0.457866</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.640975</v>
+        <v>0.648212</v>
       </c>
       <c r="C69" t="n">
-        <v>0.376489</v>
+        <v>0.380549</v>
       </c>
       <c r="D69" t="n">
-        <v>0.466827</v>
+        <v>0.480794</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6674</v>
+        <v>0.691118</v>
       </c>
       <c r="C70" t="n">
-        <v>0.388504</v>
+        <v>0.402758</v>
       </c>
       <c r="D70" t="n">
-        <v>0.473034</v>
+        <v>0.500941</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.683779</v>
+        <v>0.698085</v>
       </c>
       <c r="C71" t="n">
-        <v>0.420479</v>
+        <v>0.416513</v>
       </c>
       <c r="D71" t="n">
-        <v>0.506791</v>
+        <v>0.522891</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.719678</v>
+        <v>0.7474499999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.432339</v>
+        <v>0.440308</v>
       </c>
       <c r="D72" t="n">
-        <v>0.524583</v>
+        <v>0.538502</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.745902</v>
+        <v>0.769357</v>
       </c>
       <c r="C73" t="n">
-        <v>0.453104</v>
+        <v>0.469237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.549795</v>
+        <v>0.568746</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.779345</v>
+        <v>0.814163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.471777</v>
+        <v>0.491807</v>
       </c>
       <c r="D74" t="n">
-        <v>0.574573</v>
+        <v>0.592496</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.824064</v>
+        <v>0.847185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.494689</v>
+        <v>0.50376</v>
       </c>
       <c r="D75" t="n">
-        <v>0.608006</v>
+        <v>0.629194</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.865293</v>
+        <v>0.890027</v>
       </c>
       <c r="C76" t="n">
-        <v>0.513937</v>
+        <v>0.526312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.642352</v>
+        <v>0.6523870000000001</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.918925</v>
+        <v>0.9220120000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.534475</v>
+        <v>0.5446530000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.681099</v>
+        <v>0.6879960000000001</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.957457</v>
+        <v>0.961467</v>
       </c>
       <c r="C78" t="n">
-        <v>0.625313</v>
+        <v>0.642711</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8954490000000001</v>
+        <v>0.910253</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22484</v>
+        <v>1.25222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.640141</v>
+        <v>0.65678</v>
       </c>
       <c r="D79" t="n">
-        <v>0.935609</v>
+        <v>0.956607</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27385</v>
+        <v>1.30773</v>
       </c>
       <c r="C80" t="n">
-        <v>0.649756</v>
+        <v>0.669979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.969865</v>
+        <v>0.991335</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32115</v>
+        <v>1.35885</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6627420000000001</v>
+        <v>0.682246</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01622</v>
+        <v>1.03261</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37854</v>
+        <v>1.40738</v>
       </c>
       <c r="C82" t="n">
-        <v>0.674316</v>
+        <v>0.69362</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05062</v>
+        <v>1.07177</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42715</v>
+        <v>1.458</v>
       </c>
       <c r="C83" t="n">
-        <v>0.687702</v>
+        <v>0.706604</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09694</v>
+        <v>1.11082</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.4836</v>
+        <v>1.5051</v>
       </c>
       <c r="C84" t="n">
-        <v>0.70082</v>
+        <v>0.71946</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13206</v>
+        <v>1.14828</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52627</v>
+        <v>1.55593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.710471</v>
+        <v>0.730312</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17023</v>
+        <v>1.19274</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.5756</v>
+        <v>1.6162</v>
       </c>
       <c r="C86" t="n">
-        <v>0.724356</v>
+        <v>0.746248</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21089</v>
+        <v>1.22915</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62337</v>
+        <v>1.66193</v>
       </c>
       <c r="C87" t="n">
-        <v>0.736385</v>
+        <v>0.757073</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24756</v>
+        <v>1.26764</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66809</v>
+        <v>1.71075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.749817</v>
+        <v>0.769607</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28089</v>
+        <v>1.30302</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.71095</v>
+        <v>1.74933</v>
       </c>
       <c r="C89" t="n">
-        <v>0.761675</v>
+        <v>0.782847</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31606</v>
+        <v>1.33879</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75437</v>
+        <v>1.7993</v>
       </c>
       <c r="C90" t="n">
-        <v>0.772868</v>
+        <v>0.797591</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34533</v>
+        <v>1.37736</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79852</v>
+        <v>1.84445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.784859</v>
+        <v>0.810894</v>
       </c>
       <c r="D91" t="n">
-        <v>1.3784</v>
+        <v>1.41139</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.83919</v>
+        <v>1.88548</v>
       </c>
       <c r="C92" t="n">
-        <v>0.794285</v>
+        <v>0.819903</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56536</v>
+        <v>1.59388</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06278</v>
+        <v>2.11218</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8019269999999999</v>
+        <v>0.825067</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5862</v>
+        <v>1.61407</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.09084</v>
+        <v>2.14055</v>
       </c>
       <c r="C94" t="n">
-        <v>0.809579</v>
+        <v>0.83226</v>
       </c>
       <c r="D94" t="n">
-        <v>1.6062</v>
+        <v>1.63921</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.12014</v>
+        <v>2.17323</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819592</v>
+        <v>0.841347</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62352</v>
+        <v>1.66799</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.14948</v>
+        <v>2.20255</v>
       </c>
       <c r="C96" t="n">
-        <v>0.827116</v>
+        <v>0.850989</v>
       </c>
       <c r="D96" t="n">
-        <v>1.64484</v>
+        <v>1.68638</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.17373</v>
+        <v>2.22934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.83674</v>
+        <v>0.8584619999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66592</v>
+        <v>1.69876</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.20054</v>
+        <v>2.25406</v>
       </c>
       <c r="C98" t="n">
-        <v>0.841005</v>
+        <v>0.868216</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68183</v>
+        <v>1.71833</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.22438</v>
+        <v>2.27931</v>
       </c>
       <c r="C99" t="n">
-        <v>0.85446</v>
+        <v>0.8766699999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70104</v>
+        <v>1.74102</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24756</v>
+        <v>2.30831</v>
       </c>
       <c r="C100" t="n">
-        <v>0.861117</v>
+        <v>0.887051</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71713</v>
+        <v>1.75576</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.27545</v>
+        <v>2.3349</v>
       </c>
       <c r="C101" t="n">
-        <v>0.871062</v>
+        <v>0.897033</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73287</v>
+        <v>1.77191</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29623</v>
+        <v>2.35827</v>
       </c>
       <c r="C102" t="n">
-        <v>0.883591</v>
+        <v>0.906288</v>
       </c>
       <c r="D102" t="n">
-        <v>1.7457</v>
+        <v>1.79316</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.324</v>
+        <v>2.38635</v>
       </c>
       <c r="C103" t="n">
-        <v>0.892265</v>
+        <v>0.917645</v>
       </c>
       <c r="D103" t="n">
-        <v>1.76291</v>
+        <v>1.80676</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34492</v>
+        <v>2.40463</v>
       </c>
       <c r="C104" t="n">
-        <v>0.905455</v>
+        <v>0.9305020000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>1.77229</v>
+        <v>1.82311</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36908</v>
+        <v>2.43242</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9134060000000001</v>
+        <v>0.943323</v>
       </c>
       <c r="D105" t="n">
-        <v>1.79111</v>
+        <v>1.846</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38782</v>
+        <v>2.45599</v>
       </c>
       <c r="C106" t="n">
-        <v>0.928538</v>
+        <v>0.954716</v>
       </c>
       <c r="D106" t="n">
-        <v>1.80361</v>
+        <v>1.86031</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.50422</v>
+        <v>2.57255</v>
       </c>
       <c r="C107" t="n">
-        <v>0.878781</v>
+        <v>0.901142</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8981</v>
+        <v>1.95489</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.52398</v>
+        <v>2.58968</v>
       </c>
       <c r="C108" t="n">
-        <v>0.880602</v>
+        <v>0.909768</v>
       </c>
       <c r="D108" t="n">
-        <v>1.91936</v>
+        <v>1.96288</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.5381</v>
+        <v>2.59511</v>
       </c>
       <c r="C109" t="n">
-        <v>0.890209</v>
+        <v>0.914195</v>
       </c>
       <c r="D109" t="n">
-        <v>1.92616</v>
+        <v>1.99338</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.54738</v>
+        <v>2.61658</v>
       </c>
       <c r="C110" t="n">
-        <v>0.896809</v>
+        <v>0.925872</v>
       </c>
       <c r="D110" t="n">
-        <v>1.93679</v>
+        <v>1.98558</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.57014</v>
+        <v>2.63491</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9059</v>
+        <v>0.930562</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94176</v>
+        <v>1.99285</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58239</v>
+        <v>2.64961</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9158269999999999</v>
+        <v>0.941123</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95191</v>
+        <v>2.00176</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.59587</v>
+        <v>2.6595</v>
       </c>
       <c r="C113" t="n">
-        <v>0.921067</v>
+        <v>0.952179</v>
       </c>
       <c r="D113" t="n">
-        <v>1.95908</v>
+        <v>2.01334</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.60742</v>
+        <v>2.67893</v>
       </c>
       <c r="C114" t="n">
-        <v>0.936317</v>
+        <v>0.957072</v>
       </c>
       <c r="D114" t="n">
-        <v>1.965</v>
+        <v>2.02193</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.62394</v>
+        <v>2.6913</v>
       </c>
       <c r="C115" t="n">
-        <v>0.946022</v>
+        <v>0.971863</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97519</v>
+        <v>2.03714</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.63849</v>
+        <v>2.70231</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9567329999999999</v>
+        <v>0.981077</v>
       </c>
       <c r="D116" t="n">
-        <v>1.98505</v>
+        <v>2.0407</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.65371</v>
+        <v>2.71964</v>
       </c>
       <c r="C117" t="n">
-        <v>0.966006</v>
+        <v>0.996908</v>
       </c>
       <c r="D117" t="n">
-        <v>1.98901</v>
+        <v>2.05216</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.66647</v>
+        <v>2.73388</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9730569999999999</v>
+        <v>0.999368</v>
       </c>
       <c r="D118" t="n">
-        <v>1.99579</v>
+        <v>2.06601</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.68356</v>
+        <v>2.75155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.98229</v>
+        <v>1.01352</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00263</v>
+        <v>2.07776</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.557159</v>
+        <v>0.53922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426114</v>
+        <v>0.292489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.362537</v>
+        <v>0.342595</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.571816</v>
+        <v>0.550257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435478</v>
+        <v>0.301159</v>
       </c>
       <c r="D3" t="n">
-        <v>0.362211</v>
+        <v>0.346679</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574811</v>
+        <v>0.555501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.430415</v>
+        <v>0.306214</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36423</v>
+        <v>0.353225</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.580133</v>
+        <v>0.569344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.436759</v>
+        <v>0.31064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372549</v>
+        <v>0.358409</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.591888</v>
+        <v>0.573615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.450477</v>
+        <v>0.317481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.371139</v>
+        <v>0.349806</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.586589</v>
+        <v>0.56432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.454434</v>
+        <v>0.328215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.373515</v>
+        <v>0.366651</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5897289999999999</v>
+        <v>0.587874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.456902</v>
+        <v>0.330974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.384448</v>
+        <v>0.378153</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.606642</v>
+        <v>0.599398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.464444</v>
+        <v>0.333609</v>
       </c>
       <c r="D9" t="n">
-        <v>0.389364</v>
+        <v>0.3789</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.616039</v>
+        <v>0.6057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.469948</v>
+        <v>0.34205</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392392</v>
+        <v>0.386309</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.627982</v>
+        <v>0.616659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.469514</v>
+        <v>0.341343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397043</v>
+        <v>0.389847</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.628404</v>
+        <v>0.618987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.474348</v>
+        <v>0.347088</v>
       </c>
       <c r="D12" t="n">
-        <v>0.404903</v>
+        <v>0.393581</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.639432</v>
+        <v>0.624192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.476325</v>
+        <v>0.348831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4066</v>
+        <v>0.399876</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.64428</v>
+        <v>0.635823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478981</v>
+        <v>0.349537</v>
       </c>
       <c r="D14" t="n">
-        <v>0.416213</v>
+        <v>0.407414</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.655179</v>
+        <v>0.647639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.485244</v>
+        <v>0.359601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417891</v>
+        <v>0.409039</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.655227</v>
+        <v>0.6457850000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.489956</v>
+        <v>0.363116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421137</v>
+        <v>0.418396</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.664215</v>
+        <v>0.662938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.491914</v>
+        <v>0.365711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.431742</v>
+        <v>0.425011</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.674987</v>
+        <v>0.670239</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50168</v>
+        <v>0.373122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.435693</v>
+        <v>0.430303</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.684894</v>
+        <v>0.677731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.500217</v>
+        <v>0.375705</v>
       </c>
       <c r="D19" t="n">
-        <v>0.437155</v>
+        <v>0.435798</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.693603</v>
+        <v>0.692217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.510817</v>
+        <v>0.384181</v>
       </c>
       <c r="D20" t="n">
-        <v>0.443845</v>
+        <v>0.441807</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.702751</v>
+        <v>0.698905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.51364</v>
+        <v>0.385032</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448651</v>
+        <v>0.452082</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.703564</v>
+        <v>0.70251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.519676</v>
+        <v>0.389699</v>
       </c>
       <c r="D22" t="n">
-        <v>0.451737</v>
+        <v>0.453155</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.716866</v>
+        <v>0.715549</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5190090000000001</v>
+        <v>0.390579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458624</v>
+        <v>0.459245</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.720675</v>
+        <v>0.7214120000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.526555</v>
+        <v>0.396187</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462746</v>
+        <v>0.463634</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.737664</v>
+        <v>0.735109</v>
       </c>
       <c r="C25" t="n">
-        <v>0.539196</v>
+        <v>0.406523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.467489</v>
+        <v>0.468633</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7359</v>
+        <v>0.733202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.535256</v>
+        <v>0.404909</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471872</v>
+        <v>0.472757</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.74021</v>
+        <v>0.740001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.544282</v>
+        <v>0.409876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.479115</v>
+        <v>0.477924</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.749449</v>
+        <v>0.746758</v>
       </c>
       <c r="C28" t="n">
-        <v>0.54598</v>
+        <v>0.41251</v>
       </c>
       <c r="D28" t="n">
-        <v>0.480798</v>
+        <v>0.479406</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.755118</v>
+        <v>0.754354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.553347</v>
+        <v>0.418392</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485367</v>
+        <v>0.484878</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.764327</v>
+        <v>0.76235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.557526</v>
+        <v>0.424872</v>
       </c>
       <c r="D30" t="n">
-        <v>0.490133</v>
+        <v>0.489659</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.771019</v>
+        <v>0.768999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.558792</v>
+        <v>0.424397</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49289</v>
+        <v>0.493003</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.77389</v>
+        <v>0.771578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5632200000000001</v>
+        <v>0.429082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497543</v>
+        <v>0.497376</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.782116</v>
+        <v>0.781497</v>
       </c>
       <c r="C33" t="n">
-        <v>0.567806</v>
+        <v>0.435075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498983</v>
+        <v>0.498864</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.789301</v>
+        <v>0.788934</v>
       </c>
       <c r="C34" t="n">
-        <v>0.571358</v>
+        <v>0.436912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.503059</v>
+        <v>0.501854</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.793005</v>
+        <v>0.791425</v>
       </c>
       <c r="C35" t="n">
-        <v>0.549319</v>
+        <v>0.413137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.502783</v>
+        <v>0.5054380000000001</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7896609999999999</v>
+        <v>0.789438</v>
       </c>
       <c r="C36" t="n">
-        <v>0.554857</v>
+        <v>0.417853</v>
       </c>
       <c r="D36" t="n">
-        <v>0.50669</v>
+        <v>0.509298</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.795705</v>
+        <v>0.7952129999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.55838</v>
+        <v>0.416776</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5092449999999999</v>
+        <v>0.509136</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.798221</v>
+        <v>0.79619</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55945</v>
+        <v>0.421041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511671</v>
+        <v>0.513512</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.804056</v>
+        <v>0.802144</v>
       </c>
       <c r="C39" t="n">
-        <v>0.564331</v>
+        <v>0.424947</v>
       </c>
       <c r="D39" t="n">
-        <v>0.514282</v>
+        <v>0.516135</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810826</v>
+        <v>0.80847</v>
       </c>
       <c r="C40" t="n">
-        <v>0.56814</v>
+        <v>0.429242</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518037</v>
+        <v>0.518797</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.81729</v>
+        <v>0.815887</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5684669999999999</v>
+        <v>0.431884</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519382</v>
+        <v>0.520364</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.81785</v>
+        <v>0.81708</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5702390000000001</v>
+        <v>0.434948</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522558</v>
+        <v>0.523732</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.82456</v>
+        <v>0.82251</v>
       </c>
       <c r="C43" t="n">
-        <v>0.57462</v>
+        <v>0.434356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.524989</v>
+        <v>0.524931</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.826494</v>
+        <v>0.825206</v>
       </c>
       <c r="C44" t="n">
-        <v>0.576092</v>
+        <v>0.435838</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5265919999999999</v>
+        <v>0.526282</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.83022</v>
+        <v>0.830441</v>
       </c>
       <c r="C45" t="n">
-        <v>0.578756</v>
+        <v>0.441481</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527122</v>
+        <v>0.528439</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.835771</v>
+        <v>0.8344240000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.579925</v>
+        <v>0.439692</v>
       </c>
       <c r="D46" t="n">
-        <v>0.529089</v>
+        <v>0.530382</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.844118</v>
+        <v>0.842801</v>
       </c>
       <c r="C47" t="n">
-        <v>0.585245</v>
+        <v>0.445285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.532474</v>
+        <v>0.533283</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.847195</v>
+        <v>0.847772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.588375</v>
+        <v>0.449761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.532961</v>
+        <v>0.534172</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.851541</v>
+        <v>0.850527</v>
       </c>
       <c r="C49" t="n">
-        <v>0.590888</v>
+        <v>0.450313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5347190000000001</v>
+        <v>0.53584</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.857703</v>
+        <v>0.856986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.580762</v>
+        <v>0.436872</v>
       </c>
       <c r="D50" t="n">
-        <v>0.535484</v>
+        <v>0.537201</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.838743</v>
+        <v>0.835934</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5837560000000001</v>
+        <v>0.439045</v>
       </c>
       <c r="D51" t="n">
-        <v>0.538119</v>
+        <v>0.537287</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8399720000000001</v>
+        <v>0.83874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.585443</v>
+        <v>0.441792</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540394</v>
+        <v>0.540256</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8452769999999999</v>
+        <v>0.843811</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5906</v>
+        <v>0.445822</v>
       </c>
       <c r="D53" t="n">
-        <v>0.540547</v>
+        <v>0.54143</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.850517</v>
+        <v>0.850511</v>
       </c>
       <c r="C54" t="n">
-        <v>0.592773</v>
+        <v>0.449119</v>
       </c>
       <c r="D54" t="n">
-        <v>0.542833</v>
+        <v>0.543042</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.853809</v>
+        <v>0.851667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.599454</v>
+        <v>0.450934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.543702</v>
+        <v>0.544611</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.855392</v>
+        <v>0.853468</v>
       </c>
       <c r="C56" t="n">
-        <v>0.595256</v>
+        <v>0.450846</v>
       </c>
       <c r="D56" t="n">
-        <v>0.544405</v>
+        <v>0.544735</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.859378</v>
+        <v>0.858225</v>
       </c>
       <c r="C57" t="n">
-        <v>0.604293</v>
+        <v>0.459402</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547144</v>
+        <v>0.546697</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.861375</v>
+        <v>0.861374</v>
       </c>
       <c r="C58" t="n">
-        <v>0.611398</v>
+        <v>0.463984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5486490000000001</v>
+        <v>0.547667</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8660330000000001</v>
+        <v>0.8641760000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.621757</v>
+        <v>0.473708</v>
       </c>
       <c r="D59" t="n">
-        <v>0.549148</v>
+        <v>0.548996</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.872099</v>
+        <v>0.872154</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6213880000000001</v>
+        <v>0.478446</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5527</v>
+        <v>0.5528189999999999</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.875267</v>
+        <v>0.874318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.628701</v>
+        <v>0.482484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.553932</v>
+        <v>0.552719</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882863</v>
+        <v>0.880463</v>
       </c>
       <c r="C62" t="n">
-        <v>0.640477</v>
+        <v>0.489728</v>
       </c>
       <c r="D62" t="n">
-        <v>0.556139</v>
+        <v>0.555356</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.883867</v>
+        <v>0.886321</v>
       </c>
       <c r="C63" t="n">
-        <v>0.642223</v>
+        <v>0.506377</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558204</v>
+        <v>0.560131</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8922060000000001</v>
+        <v>0.895461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.690009</v>
+        <v>0.544229</v>
       </c>
       <c r="D64" t="n">
-        <v>0.589805</v>
+        <v>0.592427</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.927058</v>
+        <v>0.931574</v>
       </c>
       <c r="C65" t="n">
-        <v>0.713645</v>
+        <v>0.556777</v>
       </c>
       <c r="D65" t="n">
-        <v>0.603415</v>
+        <v>0.601733</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.950082</v>
+        <v>0.945119</v>
       </c>
       <c r="C66" t="n">
-        <v>0.727463</v>
+        <v>0.569432</v>
       </c>
       <c r="D66" t="n">
-        <v>0.611592</v>
+        <v>0.610113</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.958573</v>
+        <v>0.951512</v>
       </c>
       <c r="C67" t="n">
-        <v>0.747368</v>
+        <v>0.590921</v>
       </c>
       <c r="D67" t="n">
-        <v>0.61899</v>
+        <v>0.615878</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.976062</v>
+        <v>0.972461</v>
       </c>
       <c r="C68" t="n">
-        <v>0.760053</v>
+        <v>0.614459</v>
       </c>
       <c r="D68" t="n">
-        <v>0.625151</v>
+        <v>0.631215</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.989434</v>
+        <v>0.997403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7839739999999999</v>
+        <v>0.638192</v>
       </c>
       <c r="D69" t="n">
-        <v>0.642054</v>
+        <v>0.643326</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02293</v>
+        <v>1.0294</v>
       </c>
       <c r="C70" t="n">
-        <v>0.819151</v>
+        <v>0.6644640000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.659004</v>
+        <v>0.654412</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04799</v>
+        <v>1.04729</v>
       </c>
       <c r="C71" t="n">
-        <v>0.841098</v>
+        <v>0.703387</v>
       </c>
       <c r="D71" t="n">
-        <v>0.682934</v>
+        <v>0.6674639999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08903</v>
+        <v>1.07291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8870400000000001</v>
+        <v>0.725539</v>
       </c>
       <c r="D72" t="n">
-        <v>0.690199</v>
+        <v>0.693001</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1085</v>
+        <v>1.10393</v>
       </c>
       <c r="C73" t="n">
-        <v>0.911415</v>
+        <v>0.758152</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7273579999999999</v>
+        <v>0.722235</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17368</v>
+        <v>1.14865</v>
       </c>
       <c r="C74" t="n">
-        <v>0.955214</v>
+        <v>0.7964329999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.766736</v>
+        <v>0.765452</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19266</v>
+        <v>1.21711</v>
       </c>
       <c r="C75" t="n">
-        <v>0.980809</v>
+        <v>0.83634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.777651</v>
+        <v>0.793779</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.24888</v>
+        <v>1.27441</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02291</v>
+        <v>0.87787</v>
       </c>
       <c r="D76" t="n">
-        <v>0.810404</v>
+        <v>0.820389</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30223</v>
+        <v>1.31983</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07308</v>
+        <v>0.913717</v>
       </c>
       <c r="D77" t="n">
-        <v>0.854674</v>
+        <v>0.863878</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37998</v>
+        <v>1.3897</v>
       </c>
       <c r="C78" t="n">
-        <v>1.25079</v>
+        <v>1.05963</v>
       </c>
       <c r="D78" t="n">
-        <v>0.994553</v>
+        <v>1.01313</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56956</v>
+        <v>1.59766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.29798</v>
+        <v>1.10295</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04839</v>
+        <v>1.0557</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64681</v>
+        <v>1.65038</v>
       </c>
       <c r="C80" t="n">
-        <v>1.34354</v>
+        <v>1.14381</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09284</v>
+        <v>1.11954</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.72404</v>
+        <v>1.75063</v>
       </c>
       <c r="C81" t="n">
-        <v>1.38592</v>
+        <v>1.18723</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15472</v>
+        <v>1.18186</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81016</v>
+        <v>1.83381</v>
       </c>
       <c r="C82" t="n">
-        <v>1.43401</v>
+        <v>1.22147</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21385</v>
+        <v>1.23563</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.89504</v>
+        <v>1.91191</v>
       </c>
       <c r="C83" t="n">
-        <v>1.4841</v>
+        <v>1.26503</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26725</v>
+        <v>1.29376</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99774</v>
+        <v>2.01581</v>
       </c>
       <c r="C84" t="n">
-        <v>1.52683</v>
+        <v>1.30866</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3205</v>
+        <v>1.35757</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07685</v>
+        <v>2.10177</v>
       </c>
       <c r="C85" t="n">
-        <v>1.57734</v>
+        <v>1.35257</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38675</v>
+        <v>1.42544</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17216</v>
+        <v>2.1986</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62269</v>
+        <v>1.39899</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43559</v>
+        <v>1.48487</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.25524</v>
+        <v>2.28042</v>
       </c>
       <c r="C87" t="n">
-        <v>1.66474</v>
+        <v>1.43711</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49373</v>
+        <v>1.54542</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34532</v>
+        <v>2.37812</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7107</v>
+        <v>1.48083</v>
       </c>
       <c r="D88" t="n">
-        <v>1.55382</v>
+        <v>1.60578</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44024</v>
+        <v>2.47445</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7602</v>
+        <v>1.52601</v>
       </c>
       <c r="D89" t="n">
-        <v>1.60864</v>
+        <v>1.66694</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52847</v>
+        <v>2.55389</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80965</v>
+        <v>1.56307</v>
       </c>
       <c r="D90" t="n">
-        <v>1.66595</v>
+        <v>1.72633</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62239</v>
+        <v>2.64327</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85724</v>
+        <v>1.61317</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71851</v>
+        <v>1.78176</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71428</v>
+        <v>2.73709</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96446</v>
+        <v>1.69157</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83102</v>
+        <v>1.89925</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86472</v>
+        <v>2.89981</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00357</v>
+        <v>1.72831</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88621</v>
+        <v>1.95487</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95022</v>
+        <v>2.97893</v>
       </c>
       <c r="C94" t="n">
-        <v>2.04616</v>
+        <v>1.76575</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92474</v>
+        <v>2.00503</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.01053</v>
+        <v>3.06515</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07514</v>
+        <v>1.79894</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97273</v>
+        <v>2.05195</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.08536</v>
+        <v>3.13291</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11151</v>
+        <v>1.82891</v>
       </c>
       <c r="D96" t="n">
-        <v>2.01415</v>
+        <v>2.10089</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.15738</v>
+        <v>3.19433</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14218</v>
+        <v>1.86337</v>
       </c>
       <c r="D97" t="n">
-        <v>2.05639</v>
+        <v>2.14224</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.23257</v>
+        <v>3.2798</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18216</v>
+        <v>1.8921</v>
       </c>
       <c r="D98" t="n">
-        <v>2.10041</v>
+        <v>2.19627</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.29114</v>
+        <v>3.33443</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22493</v>
+        <v>1.92439</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14076</v>
+        <v>2.23355</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.35951</v>
+        <v>3.39644</v>
       </c>
       <c r="C100" t="n">
-        <v>2.25948</v>
+        <v>1.95816</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17192</v>
+        <v>2.2679</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.41937</v>
+        <v>3.46508</v>
       </c>
       <c r="C101" t="n">
-        <v>2.27957</v>
+        <v>1.99717</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21269</v>
+        <v>2.30996</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.45957</v>
+        <v>3.52533</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32506</v>
+        <v>2.02823</v>
       </c>
       <c r="D102" t="n">
-        <v>2.24001</v>
+        <v>2.34505</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.5173</v>
+        <v>3.5856</v>
       </c>
       <c r="C103" t="n">
-        <v>2.3454</v>
+        <v>2.06446</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27473</v>
+        <v>2.36816</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.58151</v>
+        <v>3.63992</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39246</v>
+        <v>2.09255</v>
       </c>
       <c r="D104" t="n">
-        <v>2.30541</v>
+        <v>2.4021</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.64678</v>
+        <v>3.70184</v>
       </c>
       <c r="C105" t="n">
-        <v>2.41823</v>
+        <v>2.13649</v>
       </c>
       <c r="D105" t="n">
-        <v>2.32724</v>
+        <v>2.43654</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.7002</v>
+        <v>3.76861</v>
       </c>
       <c r="C106" t="n">
-        <v>2.45471</v>
+        <v>2.16785</v>
       </c>
       <c r="D106" t="n">
-        <v>2.35732</v>
+        <v>2.46607</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.71329</v>
+        <v>3.78406</v>
       </c>
       <c r="C107" t="n">
-        <v>2.44865</v>
+        <v>2.14166</v>
       </c>
       <c r="D107" t="n">
-        <v>2.42404</v>
+        <v>2.52779</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.75149</v>
+        <v>3.81266</v>
       </c>
       <c r="C108" t="n">
-        <v>2.46404</v>
+        <v>2.15064</v>
       </c>
       <c r="D108" t="n">
-        <v>2.44194</v>
+        <v>2.55637</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.80423</v>
+        <v>3.86734</v>
       </c>
       <c r="C109" t="n">
-        <v>2.488</v>
+        <v>2.19423</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47543</v>
+        <v>2.58723</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84539</v>
+        <v>3.9005</v>
       </c>
       <c r="C110" t="n">
-        <v>2.52763</v>
+        <v>2.21828</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50195</v>
+        <v>2.60948</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.87776</v>
+        <v>3.96793</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54208</v>
+        <v>2.21959</v>
       </c>
       <c r="D111" t="n">
-        <v>2.53728</v>
+        <v>2.64454</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93158</v>
+        <v>4.0027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57613</v>
+        <v>2.27001</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56114</v>
+        <v>2.66612</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.98726</v>
+        <v>4.02791</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59307</v>
+        <v>2.28705</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58129</v>
+        <v>2.69594</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.02648</v>
+        <v>4.09435</v>
       </c>
       <c r="C114" t="n">
-        <v>2.62313</v>
+        <v>2.30096</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60696</v>
+        <v>2.71444</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06138</v>
+        <v>4.12761</v>
       </c>
       <c r="C115" t="n">
-        <v>2.6434</v>
+        <v>2.34663</v>
       </c>
       <c r="D115" t="n">
-        <v>2.64024</v>
+        <v>2.7414</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.10391</v>
+        <v>4.17429</v>
       </c>
       <c r="C116" t="n">
-        <v>2.67034</v>
+        <v>2.36381</v>
       </c>
       <c r="D116" t="n">
-        <v>2.64681</v>
+        <v>2.74589</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.15835</v>
+        <v>4.20816</v>
       </c>
       <c r="C117" t="n">
-        <v>2.69515</v>
+        <v>2.37245</v>
       </c>
       <c r="D117" t="n">
-        <v>2.66848</v>
+        <v>2.76331</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20255</v>
+        <v>4.26184</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71954</v>
+        <v>2.40721</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69115</v>
+        <v>2.78456</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.24783</v>
+        <v>4.32241</v>
       </c>
       <c r="C119" t="n">
-        <v>2.74745</v>
+        <v>2.43879</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71443</v>
+        <v>2.81205</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.598728</v>
+        <v>0.573794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.454369</v>
+        <v>0.315334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.356062</v>
+        <v>0.336414</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.606753</v>
+        <v>0.578811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458184</v>
+        <v>0.319942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.361741</v>
+        <v>0.341309</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.619555</v>
+        <v>0.593174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466538</v>
+        <v>0.32642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369394</v>
+        <v>0.347008</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.624116</v>
+        <v>0.601421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.475888</v>
+        <v>0.337047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372515</v>
+        <v>0.352655</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.635212</v>
+        <v>0.609673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.475745</v>
+        <v>0.338082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.373993</v>
+        <v>0.354217</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.637982</v>
+        <v>0.615268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.48624</v>
+        <v>0.348774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.380274</v>
+        <v>0.362431</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.649017</v>
+        <v>0.625961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.494274</v>
+        <v>0.358491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382739</v>
+        <v>0.363699</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6586070000000001</v>
+        <v>0.634804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.507032</v>
+        <v>0.364365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388737</v>
+        <v>0.368909</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.674865</v>
+        <v>0.642733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.515028</v>
+        <v>0.374304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.391963</v>
+        <v>0.371999</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.677245</v>
+        <v>0.6520629999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.500519</v>
+        <v>0.362765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.39626</v>
+        <v>0.379772</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.656537</v>
+        <v>0.636206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.502637</v>
+        <v>0.366413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403072</v>
+        <v>0.387237</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6661629999999999</v>
+        <v>0.647586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.508302</v>
+        <v>0.374389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.408385</v>
+        <v>0.39333</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.673346</v>
+        <v>0.653014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5195650000000001</v>
+        <v>0.379789</v>
       </c>
       <c r="D14" t="n">
-        <v>0.409956</v>
+        <v>0.395028</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6928530000000001</v>
+        <v>0.668284</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5295840000000001</v>
+        <v>0.390208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.420132</v>
+        <v>0.403036</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.693646</v>
+        <v>0.6752860000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.538972</v>
+        <v>0.400193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.423556</v>
+        <v>0.40918</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.712551</v>
+        <v>0.693366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.544708</v>
+        <v>0.406865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.428791</v>
+        <v>0.414341</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.720287</v>
+        <v>0.704983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.549918</v>
+        <v>0.407372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.43263</v>
+        <v>0.418601</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.72819</v>
+        <v>0.7165899999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563111</v>
+        <v>0.425197</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436906</v>
+        <v>0.42419</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.743161</v>
+        <v>0.726697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.569899</v>
+        <v>0.43374</v>
       </c>
       <c r="D20" t="n">
-        <v>0.441984</v>
+        <v>0.428235</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.750468</v>
+        <v>0.7363499999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.581139</v>
+        <v>0.446846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4461</v>
+        <v>0.434125</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.760217</v>
+        <v>0.747555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.590012</v>
+        <v>0.452176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.450264</v>
+        <v>0.439008</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.781313</v>
+        <v>0.771085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.607212</v>
+        <v>0.465995</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458765</v>
+        <v>0.447036</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.792822</v>
+        <v>0.782074</v>
       </c>
       <c r="C24" t="n">
-        <v>0.612793</v>
+        <v>0.473623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.460161</v>
+        <v>0.450457</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.804338</v>
+        <v>0.793317</v>
       </c>
       <c r="C25" t="n">
-        <v>0.627193</v>
+        <v>0.490595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.468026</v>
+        <v>0.457522</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.823352</v>
+        <v>0.811415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.565576</v>
+        <v>0.429983</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471359</v>
+        <v>0.464039</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.783404</v>
+        <v>0.7737849999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.570072</v>
+        <v>0.437306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476421</v>
+        <v>0.468092</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.792412</v>
+        <v>0.784292</v>
       </c>
       <c r="C28" t="n">
-        <v>0.576474</v>
+        <v>0.443547</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47911</v>
+        <v>0.471727</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.806539</v>
+        <v>0.7983479999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583323</v>
+        <v>0.448753</v>
       </c>
       <c r="D29" t="n">
-        <v>0.483791</v>
+        <v>0.4758</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.816573</v>
+        <v>0.809036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.592137</v>
+        <v>0.459055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489078</v>
+        <v>0.481133</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.826891</v>
+        <v>0.820223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.600472</v>
+        <v>0.465185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493094</v>
+        <v>0.484796</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.839518</v>
+        <v>0.833394</v>
       </c>
       <c r="C32" t="n">
-        <v>0.610765</v>
+        <v>0.473466</v>
       </c>
       <c r="D32" t="n">
-        <v>0.496272</v>
+        <v>0.488669</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8472769999999999</v>
+        <v>0.843354</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615509</v>
+        <v>0.48239</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499698</v>
+        <v>0.492956</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.862852</v>
+        <v>0.857468</v>
       </c>
       <c r="C34" t="n">
-        <v>0.629644</v>
+        <v>0.491828</v>
       </c>
       <c r="D34" t="n">
-        <v>0.502013</v>
+        <v>0.495411</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.872754</v>
+        <v>0.8684539999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.635338</v>
+        <v>0.50145</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506058</v>
+        <v>0.5002760000000001</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.887829</v>
+        <v>0.884012</v>
       </c>
       <c r="C36" t="n">
-        <v>0.650044</v>
+        <v>0.5143489999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.508727</v>
+        <v>0.503263</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.899278</v>
+        <v>0.8964530000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.660934</v>
+        <v>0.526761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510902</v>
+        <v>0.50447</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.912471</v>
+        <v>0.909675</v>
       </c>
       <c r="C38" t="n">
-        <v>0.672115</v>
+        <v>0.535733</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514539</v>
+        <v>0.507781</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.924624</v>
+        <v>0.923449</v>
       </c>
       <c r="C39" t="n">
-        <v>0.682768</v>
+        <v>0.547153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51756</v>
+        <v>0.513172</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.940015</v>
+        <v>0.936395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.62648</v>
+        <v>0.496682</v>
       </c>
       <c r="D40" t="n">
-        <v>0.519912</v>
+        <v>0.517014</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.877176</v>
+        <v>0.875656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6316040000000001</v>
+        <v>0.500586</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5232329999999999</v>
+        <v>0.518868</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.888961</v>
+        <v>0.888935</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6411520000000001</v>
+        <v>0.509093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.526365</v>
+        <v>0.520868</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.897214</v>
+        <v>0.896983</v>
       </c>
       <c r="C43" t="n">
-        <v>0.647555</v>
+        <v>0.514771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.529026</v>
+        <v>0.5251670000000001</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.902166</v>
+        <v>0.901295</v>
       </c>
       <c r="C44" t="n">
-        <v>0.657063</v>
+        <v>0.523114</v>
       </c>
       <c r="D44" t="n">
-        <v>0.531107</v>
+        <v>0.524921</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9151860000000001</v>
+        <v>0.915013</v>
       </c>
       <c r="C45" t="n">
-        <v>0.663393</v>
+        <v>0.52885</v>
       </c>
       <c r="D45" t="n">
-        <v>0.532985</v>
+        <v>0.5278659999999999</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.921404</v>
+        <v>0.921075</v>
       </c>
       <c r="C46" t="n">
-        <v>0.672403</v>
+        <v>0.539305</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5360780000000001</v>
+        <v>0.530673</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.932767</v>
+        <v>0.932466</v>
       </c>
       <c r="C47" t="n">
-        <v>0.685527</v>
+        <v>0.546756</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536905</v>
+        <v>0.533697</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.943338</v>
+        <v>0.944033</v>
       </c>
       <c r="C48" t="n">
-        <v>0.690757</v>
+        <v>0.556037</v>
       </c>
       <c r="D48" t="n">
-        <v>0.538288</v>
+        <v>0.5347150000000001</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.950534</v>
+        <v>0.950395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.698966</v>
+        <v>0.564024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.542447</v>
+        <v>0.5365799999999999</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.964186</v>
+        <v>0.96443</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7123620000000001</v>
+        <v>0.5733</v>
       </c>
       <c r="D50" t="n">
-        <v>0.544816</v>
+        <v>0.537907</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.971295</v>
+        <v>0.971388</v>
       </c>
       <c r="C51" t="n">
-        <v>0.722924</v>
+        <v>0.585844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.54453</v>
+        <v>0.541338</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.986311</v>
+        <v>0.986148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7354889999999999</v>
+        <v>0.595146</v>
       </c>
       <c r="D52" t="n">
-        <v>0.548457</v>
+        <v>0.5411319999999999</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.995319</v>
+        <v>0.994798</v>
       </c>
       <c r="C53" t="n">
-        <v>0.744554</v>
+        <v>0.602649</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547268</v>
+        <v>0.543435</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00497</v>
+        <v>1.00824</v>
       </c>
       <c r="C54" t="n">
-        <v>0.674557</v>
+        <v>0.537071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.549338</v>
+        <v>0.545248</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9337299999999999</v>
+        <v>0.934049</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68009</v>
+        <v>0.538739</v>
       </c>
       <c r="D55" t="n">
-        <v>0.551405</v>
+        <v>0.5463519999999999</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.941431</v>
+        <v>0.942566</v>
       </c>
       <c r="C56" t="n">
-        <v>0.68801</v>
+        <v>0.548457</v>
       </c>
       <c r="D56" t="n">
-        <v>0.552973</v>
+        <v>0.548885</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.951977</v>
+        <v>0.950247</v>
       </c>
       <c r="C57" t="n">
-        <v>0.697944</v>
+        <v>0.5556489999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.555735</v>
+        <v>0.548808</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.960291</v>
+        <v>0.958248</v>
       </c>
       <c r="C58" t="n">
-        <v>0.70504</v>
+        <v>0.563651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.557203</v>
+        <v>0.549116</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.968758</v>
+        <v>0.967011</v>
       </c>
       <c r="C59" t="n">
-        <v>0.714001</v>
+        <v>0.572969</v>
       </c>
       <c r="D59" t="n">
-        <v>0.560032</v>
+        <v>0.551253</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.97755</v>
+        <v>0.975084</v>
       </c>
       <c r="C60" t="n">
-        <v>0.723085</v>
+        <v>0.583593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.560445</v>
+        <v>0.552943</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.988094</v>
+        <v>0.983876</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7319909999999999</v>
+        <v>0.593213</v>
       </c>
       <c r="D61" t="n">
-        <v>0.565019</v>
+        <v>0.554916</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.998843</v>
+        <v>0.995286</v>
       </c>
       <c r="C62" t="n">
-        <v>0.741536</v>
+        <v>0.601595</v>
       </c>
       <c r="D62" t="n">
-        <v>0.565596</v>
+        <v>0.5578920000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01057</v>
+        <v>1.0053</v>
       </c>
       <c r="C63" t="n">
-        <v>0.756602</v>
+        <v>0.615972</v>
       </c>
       <c r="D63" t="n">
-        <v>0.568777</v>
+        <v>0.558705</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01603</v>
+        <v>1.01289</v>
       </c>
       <c r="C64" t="n">
-        <v>0.770518</v>
+        <v>0.624856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.570278</v>
+        <v>0.560547</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02854</v>
+        <v>1.02583</v>
       </c>
       <c r="C65" t="n">
-        <v>0.78859</v>
+        <v>0.642404</v>
       </c>
       <c r="D65" t="n">
-        <v>0.572061</v>
+        <v>0.562781</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0435</v>
+        <v>1.03798</v>
       </c>
       <c r="C66" t="n">
-        <v>0.800838</v>
+        <v>0.655622</v>
       </c>
       <c r="D66" t="n">
-        <v>0.578584</v>
+        <v>0.5653280000000001</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0596</v>
+        <v>1.05439</v>
       </c>
       <c r="C67" t="n">
-        <v>0.821326</v>
+        <v>0.676518</v>
       </c>
       <c r="D67" t="n">
-        <v>0.57944</v>
+        <v>0.568674</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07172</v>
+        <v>1.06967</v>
       </c>
       <c r="C68" t="n">
-        <v>0.74976</v>
+        <v>0.610973</v>
       </c>
       <c r="D68" t="n">
-        <v>0.590782</v>
+        <v>0.586688</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02709</v>
+        <v>1.02903</v>
       </c>
       <c r="C69" t="n">
-        <v>0.77019</v>
+        <v>0.63395</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6007710000000001</v>
+        <v>0.597248</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04439</v>
+        <v>1.04869</v>
       </c>
       <c r="C70" t="n">
-        <v>0.799562</v>
+        <v>0.66696</v>
       </c>
       <c r="D70" t="n">
-        <v>0.615479</v>
+        <v>0.615101</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07108</v>
+        <v>1.07707</v>
       </c>
       <c r="C71" t="n">
-        <v>0.834209</v>
+        <v>0.699004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.631708</v>
+        <v>0.631263</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10283</v>
+        <v>1.11229</v>
       </c>
       <c r="C72" t="n">
-        <v>0.866853</v>
+        <v>0.73053</v>
       </c>
       <c r="D72" t="n">
-        <v>0.64567</v>
+        <v>0.648701</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13297</v>
+        <v>1.14683</v>
       </c>
       <c r="C73" t="n">
-        <v>0.898627</v>
+        <v>0.762445</v>
       </c>
       <c r="D73" t="n">
-        <v>0.661458</v>
+        <v>0.666903</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17184</v>
+        <v>1.18145</v>
       </c>
       <c r="C74" t="n">
-        <v>0.939933</v>
+        <v>0.797003</v>
       </c>
       <c r="D74" t="n">
-        <v>0.680285</v>
+        <v>0.686626</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22072</v>
+        <v>1.22774</v>
       </c>
       <c r="C75" t="n">
-        <v>0.986215</v>
+        <v>0.8379</v>
       </c>
       <c r="D75" t="n">
-        <v>0.709495</v>
+        <v>0.710023</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26685</v>
+        <v>1.27506</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03169</v>
+        <v>0.880614</v>
       </c>
       <c r="D76" t="n">
-        <v>0.733841</v>
+        <v>0.735643</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31871</v>
+        <v>1.32784</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08048</v>
+        <v>0.9316489999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.762684</v>
+        <v>0.766923</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38157</v>
+        <v>1.39147</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13275</v>
+        <v>0.9826549999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.796055</v>
+        <v>0.802859</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44867</v>
+        <v>1.46567</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18353</v>
+        <v>1.03914</v>
       </c>
       <c r="D79" t="n">
-        <v>0.829076</v>
+        <v>0.841801</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.52042</v>
+        <v>1.54055</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24229</v>
+        <v>1.09358</v>
       </c>
       <c r="D80" t="n">
-        <v>0.868245</v>
+        <v>0.88563</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.60367</v>
+        <v>1.62665</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30653</v>
+        <v>1.15746</v>
       </c>
       <c r="D81" t="n">
-        <v>0.911378</v>
+        <v>0.930951</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.69581</v>
+        <v>1.71934</v>
       </c>
       <c r="C82" t="n">
-        <v>1.37763</v>
+        <v>1.21867</v>
       </c>
       <c r="D82" t="n">
-        <v>0.962651</v>
+        <v>0.984403</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.79572</v>
+        <v>1.82237</v>
       </c>
       <c r="C83" t="n">
-        <v>1.36499</v>
+        <v>1.19245</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07589</v>
+        <v>1.10363</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82046</v>
+        <v>1.84129</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42936</v>
+        <v>1.25208</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13076</v>
+        <v>1.16268</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.92997</v>
+        <v>1.95334</v>
       </c>
       <c r="C85" t="n">
-        <v>1.49524</v>
+        <v>1.31126</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19328</v>
+        <v>1.2289</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02261</v>
+        <v>2.05636</v>
       </c>
       <c r="C86" t="n">
-        <v>1.56364</v>
+        <v>1.38061</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24851</v>
+        <v>1.29148</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13562</v>
+        <v>2.15961</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64111</v>
+        <v>1.43908</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30984</v>
+        <v>1.35257</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25139</v>
+        <v>2.26743</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72398</v>
+        <v>1.52181</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37011</v>
+        <v>1.41183</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38339</v>
+        <v>2.3878</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79973</v>
+        <v>1.5937</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42846</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49214</v>
+        <v>2.51379</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88061</v>
+        <v>1.66959</v>
       </c>
       <c r="D90" t="n">
-        <v>1.48438</v>
+        <v>1.53659</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.63064</v>
+        <v>2.65096</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97692</v>
+        <v>1.75573</v>
       </c>
       <c r="D91" t="n">
-        <v>1.54061</v>
+        <v>1.59531</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.75783</v>
+        <v>2.7683</v>
       </c>
       <c r="C92" t="n">
-        <v>2.07193</v>
+        <v>1.84143</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59794</v>
+        <v>1.65773</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.90004</v>
+        <v>2.89548</v>
       </c>
       <c r="C93" t="n">
-        <v>2.15182</v>
+        <v>1.93318</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64915</v>
+        <v>1.71185</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.01016</v>
+        <v>3.05058</v>
       </c>
       <c r="C94" t="n">
-        <v>2.24735</v>
+        <v>2.01966</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70214</v>
+        <v>1.76986</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16712</v>
+        <v>3.17259</v>
       </c>
       <c r="C95" t="n">
-        <v>2.34873</v>
+        <v>2.11459</v>
       </c>
       <c r="D95" t="n">
-        <v>1.75092</v>
+        <v>1.82011</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.29214</v>
+        <v>3.30652</v>
       </c>
       <c r="C96" t="n">
-        <v>2.46086</v>
+        <v>2.21479</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79766</v>
+        <v>1.86874</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.43059</v>
+        <v>3.4558</v>
       </c>
       <c r="C97" t="n">
-        <v>2.22362</v>
+        <v>1.99521</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92695</v>
+        <v>1.99272</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.27354</v>
+        <v>3.29815</v>
       </c>
       <c r="C98" t="n">
-        <v>2.29051</v>
+        <v>2.05008</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96969</v>
+        <v>2.05272</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3848</v>
+        <v>3.40572</v>
       </c>
       <c r="C99" t="n">
-        <v>2.36075</v>
+        <v>2.08545</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02867</v>
+        <v>2.08768</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.48189</v>
+        <v>3.50033</v>
       </c>
       <c r="C100" t="n">
-        <v>2.42862</v>
+        <v>2.15827</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05126</v>
+        <v>2.1239</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.57354</v>
+        <v>3.62524</v>
       </c>
       <c r="C101" t="n">
-        <v>2.48918</v>
+        <v>2.24071</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10096</v>
+        <v>2.17785</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.72216</v>
+        <v>3.70226</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56936</v>
+        <v>2.29768</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12876</v>
+        <v>2.20193</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.79569</v>
+        <v>3.80307</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64412</v>
+        <v>2.363</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16233</v>
+        <v>2.24963</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.90795</v>
+        <v>3.91467</v>
       </c>
       <c r="C104" t="n">
-        <v>2.72954</v>
+        <v>2.44799</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19958</v>
+        <v>2.28515</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.01309</v>
+        <v>4.05401</v>
       </c>
       <c r="C105" t="n">
-        <v>2.79664</v>
+        <v>2.51437</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22839</v>
+        <v>2.31334</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10466</v>
+        <v>4.13612</v>
       </c>
       <c r="C106" t="n">
-        <v>2.86073</v>
+        <v>2.59789</v>
       </c>
       <c r="D106" t="n">
-        <v>2.25543</v>
+        <v>2.33576</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19059</v>
+        <v>4.24518</v>
       </c>
       <c r="C107" t="n">
-        <v>2.94328</v>
+        <v>2.68801</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30308</v>
+        <v>2.36806</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.32357</v>
+        <v>4.3223</v>
       </c>
       <c r="C108" t="n">
-        <v>3.03634</v>
+        <v>2.75842</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32594</v>
+        <v>2.40402</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.45852</v>
+        <v>4.45287</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11402</v>
+        <v>2.8642</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34777</v>
+        <v>2.44137</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.53403</v>
+        <v>4.5734</v>
       </c>
       <c r="C110" t="n">
-        <v>3.21422</v>
+        <v>2.947</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36989</v>
+        <v>2.46476</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.64375</v>
+        <v>4.67153</v>
       </c>
       <c r="C111" t="n">
-        <v>2.81897</v>
+        <v>2.52637</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47382</v>
+        <v>2.57053</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.29765</v>
+        <v>4.3083</v>
       </c>
       <c r="C112" t="n">
-        <v>2.89781</v>
+        <v>2.59051</v>
       </c>
       <c r="D112" t="n">
-        <v>2.49046</v>
+        <v>2.59691</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.36653</v>
+        <v>4.38407</v>
       </c>
       <c r="C113" t="n">
-        <v>2.95571</v>
+        <v>2.65864</v>
       </c>
       <c r="D113" t="n">
-        <v>2.52179</v>
+        <v>2.61727</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.44081</v>
+        <v>4.49638</v>
       </c>
       <c r="C114" t="n">
-        <v>3.02161</v>
+        <v>2.72324</v>
       </c>
       <c r="D114" t="n">
-        <v>2.55797</v>
+        <v>2.64026</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.53852</v>
+        <v>4.5885</v>
       </c>
       <c r="C115" t="n">
-        <v>3.06399</v>
+        <v>2.76625</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57078</v>
+        <v>2.67399</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.63007</v>
+        <v>4.6676</v>
       </c>
       <c r="C116" t="n">
-        <v>3.14272</v>
+        <v>2.8499</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58486</v>
+        <v>2.68311</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.71407</v>
+        <v>4.74437</v>
       </c>
       <c r="C117" t="n">
-        <v>3.20988</v>
+        <v>2.91319</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61315</v>
+        <v>2.71077</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.80347</v>
+        <v>4.85063</v>
       </c>
       <c r="C118" t="n">
-        <v>3.29178</v>
+        <v>2.98955</v>
       </c>
       <c r="D118" t="n">
-        <v>2.62616</v>
+        <v>2.72204</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90659</v>
+        <v>4.95657</v>
       </c>
       <c r="C119" t="n">
-        <v>3.36585</v>
+        <v>3.06134</v>
       </c>
       <c r="D119" t="n">
-        <v>2.64744</v>
+        <v>2.76154</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399881</v>
+        <v>0.401397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.168441</v>
+        <v>0.170129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226098</v>
+        <v>0.233494</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40579</v>
+        <v>0.410491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171641</v>
+        <v>0.172931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232564</v>
+        <v>0.234473</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411358</v>
+        <v>0.412566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.174093</v>
+        <v>0.176294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.238229</v>
+        <v>0.239892</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4167</v>
+        <v>0.420613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176542</v>
+        <v>0.177925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239851</v>
+        <v>0.24026</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.417827</v>
+        <v>0.418304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.180177</v>
+        <v>0.181538</v>
       </c>
       <c r="D6" t="n">
-        <v>0.250536</v>
+        <v>0.247444</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.427506</v>
+        <v>0.426761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.165562</v>
+        <v>0.167078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248982</v>
+        <v>0.25024</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.404231</v>
+        <v>0.401594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16801</v>
+        <v>0.169247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257135</v>
+        <v>0.251253</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407437</v>
+        <v>0.406698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169751</v>
+        <v>0.171051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256322</v>
+        <v>0.259362</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.412994</v>
+        <v>0.413341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172006</v>
+        <v>0.173143</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25962</v>
+        <v>0.262077</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.417324</v>
+        <v>0.419265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173451</v>
+        <v>0.174426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.265814</v>
+        <v>0.266383</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.425184</v>
+        <v>0.426341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.175562</v>
+        <v>0.176771</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269081</v>
+        <v>0.270215</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.428599</v>
+        <v>0.429827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178006</v>
+        <v>0.179132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.272417</v>
+        <v>0.274933</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.432658</v>
+        <v>0.436351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179945</v>
+        <v>0.181166</v>
       </c>
       <c r="D14" t="n">
-        <v>0.278521</v>
+        <v>0.280369</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.438947</v>
+        <v>0.441203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.182556</v>
+        <v>0.183681</v>
       </c>
       <c r="D15" t="n">
-        <v>0.283443</v>
+        <v>0.285424</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446549</v>
+        <v>0.447882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.185086</v>
+        <v>0.186259</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288346</v>
+        <v>0.292209</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.451442</v>
+        <v>0.456541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.187269</v>
+        <v>0.188944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.293533</v>
+        <v>0.295746</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.457857</v>
+        <v>0.459878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.190399</v>
+        <v>0.191669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297147</v>
+        <v>0.29989</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.463495</v>
+        <v>0.464242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193492</v>
+        <v>0.194637</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302934</v>
+        <v>0.303415</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472348</v>
+        <v>0.471796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195956</v>
+        <v>0.197242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307423</v>
+        <v>0.307794</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477571</v>
+        <v>0.476129</v>
       </c>
       <c r="C21" t="n">
-        <v>0.175987</v>
+        <v>0.176517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.304523</v>
+        <v>0.308392</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.457074</v>
+        <v>0.459138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.178109</v>
+        <v>0.178642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309149</v>
+        <v>0.311154</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462198</v>
+        <v>0.463874</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179973</v>
+        <v>0.18049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.311968</v>
+        <v>0.312638</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.466189</v>
+        <v>0.465909</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1818</v>
+        <v>0.182348</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316122</v>
+        <v>0.316623</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.471013</v>
+        <v>0.472217</v>
       </c>
       <c r="C25" t="n">
-        <v>0.183823</v>
+        <v>0.184432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.319932</v>
+        <v>0.319581</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475597</v>
+        <v>0.476082</v>
       </c>
       <c r="C26" t="n">
-        <v>0.185889</v>
+        <v>0.186361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322299</v>
+        <v>0.323663</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.478872</v>
+        <v>0.480028</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187473</v>
+        <v>0.188641</v>
       </c>
       <c r="D27" t="n">
-        <v>0.325881</v>
+        <v>0.326723</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.483255</v>
+        <v>0.484731</v>
       </c>
       <c r="C28" t="n">
-        <v>0.190351</v>
+        <v>0.190696</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328855</v>
+        <v>0.329084</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.487151</v>
+        <v>0.488251</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192933</v>
+        <v>0.193175</v>
       </c>
       <c r="D29" t="n">
-        <v>0.331202</v>
+        <v>0.33135</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.491737</v>
+        <v>0.492815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.194689</v>
+        <v>0.195604</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334652</v>
+        <v>0.335327</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.496873</v>
+        <v>0.497789</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197618</v>
+        <v>0.197935</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338037</v>
+        <v>0.339112</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.500806</v>
+        <v>0.5019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199017</v>
+        <v>0.199789</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3406</v>
+        <v>0.341261</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.50622</v>
+        <v>0.506637</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202661</v>
+        <v>0.203081</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344012</v>
+        <v>0.344449</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.512248</v>
+        <v>0.5120130000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204826</v>
+        <v>0.204923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.346551</v>
+        <v>0.3476</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.515711</v>
+        <v>0.516895</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180271</v>
+        <v>0.180791</v>
       </c>
       <c r="D35" t="n">
-        <v>0.339015</v>
+        <v>0.338868</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.489127</v>
+        <v>0.489615</v>
       </c>
       <c r="C36" t="n">
-        <v>0.182017</v>
+        <v>0.182615</v>
       </c>
       <c r="D36" t="n">
-        <v>0.340969</v>
+        <v>0.34118</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49247</v>
+        <v>0.493466</v>
       </c>
       <c r="C37" t="n">
-        <v>0.184003</v>
+        <v>0.184429</v>
       </c>
       <c r="D37" t="n">
-        <v>0.343059</v>
+        <v>0.342013</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.494494</v>
+        <v>0.494949</v>
       </c>
       <c r="C38" t="n">
-        <v>0.185666</v>
+        <v>0.186451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.345355</v>
+        <v>0.346992</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.498321</v>
+        <v>0.498476</v>
       </c>
       <c r="C39" t="n">
-        <v>0.187626</v>
+        <v>0.18857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.346338</v>
+        <v>0.347731</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.501068</v>
+        <v>0.501115</v>
       </c>
       <c r="C40" t="n">
-        <v>0.189224</v>
+        <v>0.19038</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349502</v>
+        <v>0.350612</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5032720000000001</v>
+        <v>0.504265</v>
       </c>
       <c r="C41" t="n">
-        <v>0.191087</v>
+        <v>0.192217</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351191</v>
+        <v>0.351642</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5073800000000001</v>
+        <v>0.507457</v>
       </c>
       <c r="C42" t="n">
-        <v>0.19437</v>
+        <v>0.194251</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353476</v>
+        <v>0.352726</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.511537</v>
+        <v>0.510513</v>
       </c>
       <c r="C43" t="n">
-        <v>0.195277</v>
+        <v>0.196164</v>
       </c>
       <c r="D43" t="n">
-        <v>0.354613</v>
+        <v>0.355951</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.513693</v>
+        <v>0.514244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.198131</v>
+        <v>0.198338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358046</v>
+        <v>0.356249</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5182099999999999</v>
+        <v>0.516825</v>
       </c>
       <c r="C45" t="n">
-        <v>0.201236</v>
+        <v>0.20076</v>
       </c>
       <c r="D45" t="n">
-        <v>0.35983</v>
+        <v>0.359248</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522365</v>
+        <v>0.520842</v>
       </c>
       <c r="C46" t="n">
-        <v>0.20388</v>
+        <v>0.203474</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361593</v>
+        <v>0.360815</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.526936</v>
+        <v>0.525788</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206567</v>
+        <v>0.206318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.364375</v>
+        <v>0.364192</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531355</v>
+        <v>0.529792</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208835</v>
+        <v>0.208663</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366313</v>
+        <v>0.366083</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536</v>
+        <v>0.534013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212144</v>
+        <v>0.211957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368619</v>
+        <v>0.368002</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5403</v>
+        <v>0.538478</v>
       </c>
       <c r="C50" t="n">
-        <v>0.186174</v>
+        <v>0.186638</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357866</v>
+        <v>0.357371</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509199</v>
+        <v>0.50806</v>
       </c>
       <c r="C51" t="n">
-        <v>0.191055</v>
+        <v>0.1902</v>
       </c>
       <c r="D51" t="n">
-        <v>0.358736</v>
+        <v>0.357819</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511725</v>
+        <v>0.510041</v>
       </c>
       <c r="C52" t="n">
-        <v>0.191079</v>
+        <v>0.188637</v>
       </c>
       <c r="D52" t="n">
-        <v>0.359995</v>
+        <v>0.359856</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514099</v>
+        <v>0.51254</v>
       </c>
       <c r="C53" t="n">
-        <v>0.194368</v>
+        <v>0.192178</v>
       </c>
       <c r="D53" t="n">
-        <v>0.361838</v>
+        <v>0.361132</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.51625</v>
+        <v>0.515131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.195283</v>
+        <v>0.194967</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36269</v>
+        <v>0.3622</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5192369999999999</v>
+        <v>0.517742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.199958</v>
+        <v>0.197857</v>
       </c>
       <c r="D55" t="n">
-        <v>0.365463</v>
+        <v>0.363788</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.522279</v>
+        <v>0.519854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.204426</v>
+        <v>0.201853</v>
       </c>
       <c r="D56" t="n">
-        <v>0.36259</v>
+        <v>0.365469</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.52397</v>
+        <v>0.523369</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20785</v>
+        <v>0.207583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367745</v>
+        <v>0.367578</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.527116</v>
+        <v>0.526836</v>
       </c>
       <c r="C58" t="n">
-        <v>0.209232</v>
+        <v>0.209017</v>
       </c>
       <c r="D58" t="n">
-        <v>0.369872</v>
+        <v>0.36957</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.530621</v>
+        <v>0.530121</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215736</v>
+        <v>0.211818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.368534</v>
+        <v>0.370774</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.534153</v>
+        <v>0.533365</v>
       </c>
       <c r="C60" t="n">
-        <v>0.221411</v>
+        <v>0.217445</v>
       </c>
       <c r="D60" t="n">
-        <v>0.37665</v>
+        <v>0.37342</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.545697</v>
+        <v>0.538177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239407</v>
+        <v>0.230182</v>
       </c>
       <c r="D61" t="n">
-        <v>0.381867</v>
+        <v>0.375581</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555105</v>
+        <v>0.546387</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247651</v>
+        <v>0.237674</v>
       </c>
       <c r="D62" t="n">
-        <v>0.387967</v>
+        <v>0.381426</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.54904</v>
+        <v>0.55019</v>
       </c>
       <c r="C63" t="n">
-        <v>0.244374</v>
+        <v>0.238279</v>
       </c>
       <c r="D63" t="n">
-        <v>0.382258</v>
+        <v>0.382259</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.559653</v>
+        <v>0.557456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.290594</v>
+        <v>0.28571</v>
       </c>
       <c r="D64" t="n">
-        <v>0.411988</v>
+        <v>0.416975</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.587938</v>
+        <v>0.591112</v>
       </c>
       <c r="C65" t="n">
-        <v>0.308596</v>
+        <v>0.300962</v>
       </c>
       <c r="D65" t="n">
-        <v>0.421333</v>
+        <v>0.421793</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6057399999999999</v>
+        <v>0.6012150000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321523</v>
+        <v>0.322668</v>
       </c>
       <c r="D66" t="n">
-        <v>0.42884</v>
+        <v>0.439463</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.619873</v>
+        <v>0.631444</v>
       </c>
       <c r="C67" t="n">
-        <v>0.341382</v>
+        <v>0.329544</v>
       </c>
       <c r="D67" t="n">
-        <v>0.440205</v>
+        <v>0.440258</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.628649</v>
+        <v>0.635222</v>
       </c>
       <c r="C68" t="n">
-        <v>0.358262</v>
+        <v>0.352333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.457866</v>
+        <v>0.453393</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.648212</v>
+        <v>0.650555</v>
       </c>
       <c r="C69" t="n">
-        <v>0.380549</v>
+        <v>0.374233</v>
       </c>
       <c r="D69" t="n">
-        <v>0.480794</v>
+        <v>0.463386</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.691118</v>
+        <v>0.6710700000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.402758</v>
+        <v>0.394298</v>
       </c>
       <c r="D70" t="n">
-        <v>0.500941</v>
+        <v>0.493436</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.698085</v>
+        <v>0.702569</v>
       </c>
       <c r="C71" t="n">
-        <v>0.416513</v>
+        <v>0.404801</v>
       </c>
       <c r="D71" t="n">
-        <v>0.522891</v>
+        <v>0.503342</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7474499999999999</v>
+        <v>0.719541</v>
       </c>
       <c r="C72" t="n">
-        <v>0.440308</v>
+        <v>0.427129</v>
       </c>
       <c r="D72" t="n">
-        <v>0.538502</v>
+        <v>0.53554</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.769357</v>
+        <v>0.738551</v>
       </c>
       <c r="C73" t="n">
-        <v>0.469237</v>
+        <v>0.446288</v>
       </c>
       <c r="D73" t="n">
-        <v>0.568746</v>
+        <v>0.544598</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.814163</v>
+        <v>0.7851050000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.491807</v>
+        <v>0.473096</v>
       </c>
       <c r="D74" t="n">
-        <v>0.592496</v>
+        <v>0.5613860000000001</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.847185</v>
+        <v>0.8189610000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.50376</v>
+        <v>0.48846</v>
       </c>
       <c r="D75" t="n">
-        <v>0.629194</v>
+        <v>0.596338</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.890027</v>
+        <v>0.841</v>
       </c>
       <c r="C76" t="n">
-        <v>0.526312</v>
+        <v>0.506236</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6523870000000001</v>
+        <v>0.6237</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9220120000000001</v>
+        <v>0.896064</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5446530000000001</v>
+        <v>0.528651</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6879960000000001</v>
+        <v>0.6643829999999999</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.961467</v>
+        <v>0.937009</v>
       </c>
       <c r="C78" t="n">
-        <v>0.642711</v>
+        <v>0.623016</v>
       </c>
       <c r="D78" t="n">
-        <v>0.910253</v>
+        <v>0.88778</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.25222</v>
+        <v>1.22271</v>
       </c>
       <c r="C79" t="n">
-        <v>0.65678</v>
+        <v>0.635918</v>
       </c>
       <c r="D79" t="n">
-        <v>0.956607</v>
+        <v>0.935098</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.30773</v>
+        <v>1.2795</v>
       </c>
       <c r="C80" t="n">
-        <v>0.669979</v>
+        <v>0.648219</v>
       </c>
       <c r="D80" t="n">
-        <v>0.991335</v>
+        <v>0.969348</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.35885</v>
+        <v>1.33262</v>
       </c>
       <c r="C81" t="n">
-        <v>0.682246</v>
+        <v>0.660086</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03261</v>
+        <v>1.00378</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40738</v>
+        <v>1.3815</v>
       </c>
       <c r="C82" t="n">
-        <v>0.69362</v>
+        <v>0.672231</v>
       </c>
       <c r="D82" t="n">
-        <v>1.07177</v>
+        <v>1.04053</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.458</v>
+        <v>1.42648</v>
       </c>
       <c r="C83" t="n">
-        <v>0.706604</v>
+        <v>0.684794</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11082</v>
+        <v>1.08631</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.5051</v>
+        <v>1.48237</v>
       </c>
       <c r="C84" t="n">
-        <v>0.71946</v>
+        <v>0.697072</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14828</v>
+        <v>1.1239</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.55593</v>
+        <v>1.52844</v>
       </c>
       <c r="C85" t="n">
-        <v>0.730312</v>
+        <v>0.708161</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19274</v>
+        <v>1.15752</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.6162</v>
+        <v>1.58168</v>
       </c>
       <c r="C86" t="n">
-        <v>0.746248</v>
+        <v>0.720619</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22915</v>
+        <v>1.19532</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.66193</v>
+        <v>1.62394</v>
       </c>
       <c r="C87" t="n">
-        <v>0.757073</v>
+        <v>0.7326319999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.26764</v>
+        <v>1.23122</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.71075</v>
+        <v>1.67117</v>
       </c>
       <c r="C88" t="n">
-        <v>0.769607</v>
+        <v>0.743336</v>
       </c>
       <c r="D88" t="n">
-        <v>1.30302</v>
+        <v>1.26532</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.74933</v>
+        <v>1.7109</v>
       </c>
       <c r="C89" t="n">
-        <v>0.782847</v>
+        <v>0.756002</v>
       </c>
       <c r="D89" t="n">
-        <v>1.33879</v>
+        <v>1.30007</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.7993</v>
+        <v>1.76213</v>
       </c>
       <c r="C90" t="n">
-        <v>0.797591</v>
+        <v>0.771475</v>
       </c>
       <c r="D90" t="n">
-        <v>1.37736</v>
+        <v>1.33633</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.84445</v>
+        <v>1.8049</v>
       </c>
       <c r="C91" t="n">
-        <v>0.810894</v>
+        <v>0.784995</v>
       </c>
       <c r="D91" t="n">
-        <v>1.41139</v>
+        <v>1.36809</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88548</v>
+        <v>1.84186</v>
       </c>
       <c r="C92" t="n">
-        <v>0.819903</v>
+        <v>0.789266</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59388</v>
+        <v>1.5464</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.11218</v>
+        <v>2.06056</v>
       </c>
       <c r="C93" t="n">
-        <v>0.825067</v>
+        <v>0.793835</v>
       </c>
       <c r="D93" t="n">
-        <v>1.61407</v>
+        <v>1.56269</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.14055</v>
+        <v>2.08724</v>
       </c>
       <c r="C94" t="n">
-        <v>0.83226</v>
+        <v>0.801808</v>
       </c>
       <c r="D94" t="n">
-        <v>1.63921</v>
+        <v>1.58448</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.17323</v>
+        <v>2.116</v>
       </c>
       <c r="C95" t="n">
-        <v>0.841347</v>
+        <v>0.811537</v>
       </c>
       <c r="D95" t="n">
-        <v>1.66799</v>
+        <v>1.60714</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.20255</v>
+        <v>2.14578</v>
       </c>
       <c r="C96" t="n">
-        <v>0.850989</v>
+        <v>0.816064</v>
       </c>
       <c r="D96" t="n">
-        <v>1.68638</v>
+        <v>1.62347</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.22934</v>
+        <v>2.17123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8584619999999999</v>
+        <v>0.828713</v>
       </c>
       <c r="D97" t="n">
-        <v>1.69876</v>
+        <v>1.64087</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.25406</v>
+        <v>2.19287</v>
       </c>
       <c r="C98" t="n">
-        <v>0.868216</v>
+        <v>0.836398</v>
       </c>
       <c r="D98" t="n">
-        <v>1.71833</v>
+        <v>1.6638</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.27931</v>
+        <v>2.21983</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8766699999999999</v>
+        <v>0.846069</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74102</v>
+        <v>1.67746</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.30831</v>
+        <v>2.24482</v>
       </c>
       <c r="C100" t="n">
-        <v>0.887051</v>
+        <v>0.855784</v>
       </c>
       <c r="D100" t="n">
-        <v>1.75576</v>
+        <v>1.69365</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.3349</v>
+        <v>2.26962</v>
       </c>
       <c r="C101" t="n">
-        <v>0.897033</v>
+        <v>0.8637359999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>1.77191</v>
+        <v>1.71353</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.35827</v>
+        <v>2.29311</v>
       </c>
       <c r="C102" t="n">
-        <v>0.906288</v>
+        <v>0.873898</v>
       </c>
       <c r="D102" t="n">
-        <v>1.79316</v>
+        <v>1.73933</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.38635</v>
+        <v>2.31746</v>
       </c>
       <c r="C103" t="n">
-        <v>0.917645</v>
+        <v>0.886372</v>
       </c>
       <c r="D103" t="n">
-        <v>1.80676</v>
+        <v>1.73912</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.40463</v>
+        <v>2.34101</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9305020000000001</v>
+        <v>0.895524</v>
       </c>
       <c r="D104" t="n">
-        <v>1.82311</v>
+        <v>1.75438</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.43242</v>
+        <v>2.36371</v>
       </c>
       <c r="C105" t="n">
-        <v>0.943323</v>
+        <v>0.907254</v>
       </c>
       <c r="D105" t="n">
-        <v>1.846</v>
+        <v>1.76961</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.45599</v>
+        <v>2.38453</v>
       </c>
       <c r="C106" t="n">
-        <v>0.954716</v>
+        <v>0.918149</v>
       </c>
       <c r="D106" t="n">
-        <v>1.86031</v>
+        <v>1.78567</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.57255</v>
+        <v>2.49912</v>
       </c>
       <c r="C107" t="n">
-        <v>0.901142</v>
+        <v>0.865745</v>
       </c>
       <c r="D107" t="n">
-        <v>1.95489</v>
+        <v>1.89079</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.58968</v>
+        <v>2.51093</v>
       </c>
       <c r="C108" t="n">
-        <v>0.909768</v>
+        <v>0.8718939999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.96288</v>
+        <v>1.8905</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.59511</v>
+        <v>2.52475</v>
       </c>
       <c r="C109" t="n">
-        <v>0.914195</v>
+        <v>0.879946</v>
       </c>
       <c r="D109" t="n">
-        <v>1.99338</v>
+        <v>1.91396</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.61658</v>
+        <v>2.54147</v>
       </c>
       <c r="C110" t="n">
-        <v>0.925872</v>
+        <v>0.889138</v>
       </c>
       <c r="D110" t="n">
-        <v>1.98558</v>
+        <v>1.9202</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.63491</v>
+        <v>2.55628</v>
       </c>
       <c r="C111" t="n">
-        <v>0.930562</v>
+        <v>0.897455</v>
       </c>
       <c r="D111" t="n">
-        <v>1.99285</v>
+        <v>1.91934</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.64961</v>
+        <v>2.57138</v>
       </c>
       <c r="C112" t="n">
-        <v>0.941123</v>
+        <v>0.9048310000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>2.00176</v>
+        <v>1.92678</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.6595</v>
+        <v>2.58545</v>
       </c>
       <c r="C113" t="n">
-        <v>0.952179</v>
+        <v>0.917782</v>
       </c>
       <c r="D113" t="n">
-        <v>2.01334</v>
+        <v>1.9376</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.67893</v>
+        <v>2.59884</v>
       </c>
       <c r="C114" t="n">
-        <v>0.957072</v>
+        <v>0.923384</v>
       </c>
       <c r="D114" t="n">
-        <v>2.02193</v>
+        <v>1.94318</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.6913</v>
+        <v>2.60789</v>
       </c>
       <c r="C115" t="n">
-        <v>0.971863</v>
+        <v>0.934355</v>
       </c>
       <c r="D115" t="n">
-        <v>2.03714</v>
+        <v>1.9613</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.70231</v>
+        <v>2.62375</v>
       </c>
       <c r="C116" t="n">
-        <v>0.981077</v>
+        <v>0.939793</v>
       </c>
       <c r="D116" t="n">
-        <v>2.0407</v>
+        <v>1.96596</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.71964</v>
+        <v>2.64091</v>
       </c>
       <c r="C117" t="n">
-        <v>0.996908</v>
+        <v>0.951355</v>
       </c>
       <c r="D117" t="n">
-        <v>2.05216</v>
+        <v>1.97184</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.73388</v>
+        <v>2.6521</v>
       </c>
       <c r="C118" t="n">
-        <v>0.999368</v>
+        <v>0.965452</v>
       </c>
       <c r="D118" t="n">
-        <v>2.06601</v>
+        <v>1.98316</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.75155</v>
+        <v>2.67066</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01352</v>
+        <v>0.972505</v>
       </c>
       <c r="D119" t="n">
-        <v>2.07776</v>
+        <v>1.99659</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53922</v>
+        <v>0.544005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.292489</v>
+        <v>0.295296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342595</v>
+        <v>0.340769</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.550257</v>
+        <v>0.551833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.301159</v>
+        <v>0.301634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346679</v>
+        <v>0.343678</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.555501</v>
+        <v>0.557146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306214</v>
+        <v>0.306739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353225</v>
+        <v>0.344458</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.569344</v>
+        <v>0.557792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.31064</v>
+        <v>0.307451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358409</v>
+        <v>0.345317</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.573615</v>
+        <v>0.5640309999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.317481</v>
+        <v>0.318475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349806</v>
+        <v>0.350945</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.56432</v>
+        <v>0.570798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328215</v>
+        <v>0.328213</v>
       </c>
       <c r="D7" t="n">
-        <v>0.366651</v>
+        <v>0.365583</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.587874</v>
+        <v>0.587974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.330974</v>
+        <v>0.330851</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378153</v>
+        <v>0.371099</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.599398</v>
+        <v>0.593958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.333609</v>
+        <v>0.332963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3789</v>
+        <v>0.375446</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6057</v>
+        <v>0.607363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.34205</v>
+        <v>0.342452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.386309</v>
+        <v>0.382462</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.616659</v>
+        <v>0.616181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341343</v>
+        <v>0.341915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389847</v>
+        <v>0.388381</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.618987</v>
+        <v>0.623488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.347088</v>
+        <v>0.347728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.393581</v>
+        <v>0.396406</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.624192</v>
+        <v>0.632131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.348831</v>
+        <v>0.350157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.399876</v>
+        <v>0.401637</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.635823</v>
+        <v>0.64184</v>
       </c>
       <c r="C14" t="n">
-        <v>0.349537</v>
+        <v>0.351084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.407414</v>
+        <v>0.409902</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.647639</v>
+        <v>0.653004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.359601</v>
+        <v>0.361436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.409039</v>
+        <v>0.412118</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6457850000000001</v>
+        <v>0.653049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.363116</v>
+        <v>0.364346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.418396</v>
+        <v>0.415084</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.662938</v>
+        <v>0.6617150000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.365711</v>
+        <v>0.36536</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425011</v>
+        <v>0.422039</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.670239</v>
+        <v>0.669749</v>
       </c>
       <c r="C18" t="n">
-        <v>0.373122</v>
+        <v>0.373782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.430303</v>
+        <v>0.426331</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.677731</v>
+        <v>0.678472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.375705</v>
+        <v>0.3763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435798</v>
+        <v>0.4313</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.692217</v>
+        <v>0.689428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.384181</v>
+        <v>0.38383</v>
       </c>
       <c r="D20" t="n">
-        <v>0.441807</v>
+        <v>0.437554</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.698905</v>
+        <v>0.699885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.385032</v>
+        <v>0.385128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.452082</v>
+        <v>0.447301</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.70251</v>
+        <v>0.702651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.389699</v>
+        <v>0.389067</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453155</v>
+        <v>0.449835</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.715549</v>
+        <v>0.716706</v>
       </c>
       <c r="C23" t="n">
-        <v>0.390579</v>
+        <v>0.39082</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459245</v>
+        <v>0.458585</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7214120000000001</v>
+        <v>0.721892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.396187</v>
+        <v>0.395708</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463634</v>
+        <v>0.461484</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.735109</v>
+        <v>0.737056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.406523</v>
+        <v>0.407551</v>
       </c>
       <c r="D25" t="n">
-        <v>0.468633</v>
+        <v>0.466084</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.733202</v>
+        <v>0.73598</v>
       </c>
       <c r="C26" t="n">
-        <v>0.404909</v>
+        <v>0.405193</v>
       </c>
       <c r="D26" t="n">
-        <v>0.472757</v>
+        <v>0.471072</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.740001</v>
+        <v>0.741264</v>
       </c>
       <c r="C27" t="n">
-        <v>0.409876</v>
+        <v>0.410519</v>
       </c>
       <c r="D27" t="n">
-        <v>0.477924</v>
+        <v>0.474901</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.746758</v>
+        <v>0.7470329999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.41251</v>
+        <v>0.412506</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479406</v>
+        <v>0.475898</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.754354</v>
+        <v>0.755073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.418392</v>
+        <v>0.419051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.484878</v>
+        <v>0.481769</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.76235</v>
+        <v>0.764524</v>
       </c>
       <c r="C30" t="n">
-        <v>0.424872</v>
+        <v>0.426201</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489659</v>
+        <v>0.486709</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.768999</v>
+        <v>0.770478</v>
       </c>
       <c r="C31" t="n">
-        <v>0.424397</v>
+        <v>0.426076</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493003</v>
+        <v>0.489221</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.771578</v>
+        <v>0.7729549999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.429082</v>
+        <v>0.431165</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497376</v>
+        <v>0.493791</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.781497</v>
+        <v>0.782778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.435075</v>
+        <v>0.436222</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498864</v>
+        <v>0.495346</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.788934</v>
+        <v>0.79016</v>
       </c>
       <c r="C34" t="n">
-        <v>0.436912</v>
+        <v>0.437971</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501854</v>
+        <v>0.4981</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.791425</v>
+        <v>0.792262</v>
       </c>
       <c r="C35" t="n">
-        <v>0.413137</v>
+        <v>0.41269</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5054380000000001</v>
+        <v>0.502982</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.789438</v>
+        <v>0.789836</v>
       </c>
       <c r="C36" t="n">
-        <v>0.417853</v>
+        <v>0.416443</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509298</v>
+        <v>0.505165</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7952129999999999</v>
+        <v>0.794864</v>
       </c>
       <c r="C37" t="n">
-        <v>0.416776</v>
+        <v>0.418859</v>
       </c>
       <c r="D37" t="n">
-        <v>0.509136</v>
+        <v>0.505996</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.79619</v>
+        <v>0.79737</v>
       </c>
       <c r="C38" t="n">
-        <v>0.421041</v>
+        <v>0.42139</v>
       </c>
       <c r="D38" t="n">
-        <v>0.513512</v>
+        <v>0.50952</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.802144</v>
+        <v>0.802573</v>
       </c>
       <c r="C39" t="n">
-        <v>0.424947</v>
+        <v>0.426227</v>
       </c>
       <c r="D39" t="n">
-        <v>0.516135</v>
+        <v>0.512497</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.80847</v>
+        <v>0.810907</v>
       </c>
       <c r="C40" t="n">
-        <v>0.429242</v>
+        <v>0.429534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518797</v>
+        <v>0.51569</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.815887</v>
+        <v>0.817186</v>
       </c>
       <c r="C41" t="n">
-        <v>0.431884</v>
+        <v>0.432059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520364</v>
+        <v>0.516384</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.81708</v>
+        <v>0.819047</v>
       </c>
       <c r="C42" t="n">
-        <v>0.434948</v>
+        <v>0.435005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523732</v>
+        <v>0.520763</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.82251</v>
+        <v>0.824219</v>
       </c>
       <c r="C43" t="n">
-        <v>0.434356</v>
+        <v>0.435834</v>
       </c>
       <c r="D43" t="n">
-        <v>0.524931</v>
+        <v>0.521805</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.825206</v>
+        <v>0.825918</v>
       </c>
       <c r="C44" t="n">
-        <v>0.435838</v>
+        <v>0.435819</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526282</v>
+        <v>0.523741</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.830441</v>
+        <v>0.82986</v>
       </c>
       <c r="C45" t="n">
-        <v>0.441481</v>
+        <v>0.441577</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528439</v>
+        <v>0.524537</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8344240000000001</v>
+        <v>0.835649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.439692</v>
+        <v>0.439881</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530382</v>
+        <v>0.526518</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.842801</v>
+        <v>0.844956</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445285</v>
+        <v>0.445316</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533283</v>
+        <v>0.529215</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.847772</v>
+        <v>0.8472730000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.449761</v>
+        <v>0.45003</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534172</v>
+        <v>0.530142</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.850527</v>
+        <v>0.85163</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450313</v>
+        <v>0.450455</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53584</v>
+        <v>0.5317809999999999</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.856986</v>
+        <v>0.857747</v>
       </c>
       <c r="C50" t="n">
-        <v>0.436872</v>
+        <v>0.438722</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537201</v>
+        <v>0.533907</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.835934</v>
+        <v>0.838238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.439045</v>
+        <v>0.443008</v>
       </c>
       <c r="D51" t="n">
-        <v>0.537287</v>
+        <v>0.535547</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.83874</v>
+        <v>0.839116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.441792</v>
+        <v>0.445044</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540256</v>
+        <v>0.537504</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.843811</v>
+        <v>0.845044</v>
       </c>
       <c r="C53" t="n">
-        <v>0.445822</v>
+        <v>0.447065</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54143</v>
+        <v>0.5379969999999999</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.850511</v>
+        <v>0.850373</v>
       </c>
       <c r="C54" t="n">
-        <v>0.449119</v>
+        <v>0.45126</v>
       </c>
       <c r="D54" t="n">
-        <v>0.543042</v>
+        <v>0.5394060000000001</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.851667</v>
+        <v>0.852967</v>
       </c>
       <c r="C55" t="n">
-        <v>0.450934</v>
+        <v>0.454771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.544611</v>
+        <v>0.5420199999999999</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.853468</v>
+        <v>0.856311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.450846</v>
+        <v>0.454631</v>
       </c>
       <c r="D56" t="n">
-        <v>0.544735</v>
+        <v>0.54133</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.858225</v>
+        <v>0.8594889999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.459402</v>
+        <v>0.461935</v>
       </c>
       <c r="D57" t="n">
-        <v>0.546697</v>
+        <v>0.545179</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.861374</v>
+        <v>0.8627899999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.463984</v>
+        <v>0.468139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.547667</v>
+        <v>0.545175</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8641760000000001</v>
+        <v>0.866027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.473708</v>
+        <v>0.476241</v>
       </c>
       <c r="D59" t="n">
-        <v>0.548996</v>
+        <v>0.546913</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.872154</v>
+        <v>0.873081</v>
       </c>
       <c r="C60" t="n">
-        <v>0.478446</v>
+        <v>0.482802</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5528189999999999</v>
+        <v>0.550238</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.874318</v>
+        <v>0.8799940000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.482484</v>
+        <v>0.489965</v>
       </c>
       <c r="D61" t="n">
-        <v>0.552719</v>
+        <v>0.5548380000000001</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.880463</v>
+        <v>0.889348</v>
       </c>
       <c r="C62" t="n">
-        <v>0.489728</v>
+        <v>0.493056</v>
       </c>
       <c r="D62" t="n">
-        <v>0.555356</v>
+        <v>0.552503</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.886321</v>
+        <v>0.890277</v>
       </c>
       <c r="C63" t="n">
-        <v>0.506377</v>
+        <v>0.508767</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560131</v>
+        <v>0.560235</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.895461</v>
+        <v>0.900682</v>
       </c>
       <c r="C64" t="n">
-        <v>0.544229</v>
+        <v>0.5441510000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.592427</v>
+        <v>0.593675</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.931574</v>
+        <v>0.937564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.556777</v>
+        <v>0.5611930000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.601733</v>
+        <v>0.6037130000000001</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.945119</v>
+        <v>0.9512389999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.569432</v>
+        <v>0.571439</v>
       </c>
       <c r="D66" t="n">
-        <v>0.610113</v>
+        <v>0.605191</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.951512</v>
+        <v>0.962545</v>
       </c>
       <c r="C67" t="n">
-        <v>0.590921</v>
+        <v>0.598012</v>
       </c>
       <c r="D67" t="n">
-        <v>0.615878</v>
+        <v>0.622943</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.972461</v>
+        <v>0.988436</v>
       </c>
       <c r="C68" t="n">
-        <v>0.614459</v>
+        <v>0.625455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.631215</v>
+        <v>0.645124</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.997403</v>
+        <v>1.02378</v>
       </c>
       <c r="C69" t="n">
-        <v>0.638192</v>
+        <v>0.643604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643326</v>
+        <v>0.661321</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0294</v>
+        <v>1.03453</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6644640000000001</v>
+        <v>0.664652</v>
       </c>
       <c r="D70" t="n">
-        <v>0.654412</v>
+        <v>0.664446</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04729</v>
+        <v>1.05614</v>
       </c>
       <c r="C71" t="n">
-        <v>0.703387</v>
+        <v>0.704879</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6674639999999999</v>
+        <v>0.684433</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07291</v>
+        <v>1.09017</v>
       </c>
       <c r="C72" t="n">
-        <v>0.725539</v>
+        <v>0.731468</v>
       </c>
       <c r="D72" t="n">
-        <v>0.693001</v>
+        <v>0.696887</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10393</v>
+        <v>1.1153</v>
       </c>
       <c r="C73" t="n">
-        <v>0.758152</v>
+        <v>0.758558</v>
       </c>
       <c r="D73" t="n">
-        <v>0.722235</v>
+        <v>0.739164</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14865</v>
+        <v>1.17914</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7964329999999999</v>
+        <v>0.799194</v>
       </c>
       <c r="D74" t="n">
-        <v>0.765452</v>
+        <v>0.772463</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21711</v>
+        <v>1.23969</v>
       </c>
       <c r="C75" t="n">
-        <v>0.83634</v>
+        <v>0.836631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.793779</v>
+        <v>0.802771</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27441</v>
+        <v>1.28914</v>
       </c>
       <c r="C76" t="n">
-        <v>0.87787</v>
+        <v>0.8693689999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.820389</v>
+        <v>0.816182</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31983</v>
+        <v>1.30642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.913717</v>
+        <v>0.898625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.863878</v>
+        <v>0.858474</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3897</v>
+        <v>1.39303</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05963</v>
+        <v>1.04747</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01313</v>
+        <v>1.00129</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.59766</v>
+        <v>1.58766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.10295</v>
+        <v>1.08407</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0557</v>
+        <v>1.05027</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65038</v>
+        <v>1.65981</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14381</v>
+        <v>1.12367</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11954</v>
+        <v>1.10187</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.75063</v>
+        <v>1.7456</v>
       </c>
       <c r="C81" t="n">
-        <v>1.18723</v>
+        <v>1.16901</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18186</v>
+        <v>1.16362</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83381</v>
+        <v>1.83363</v>
       </c>
       <c r="C82" t="n">
-        <v>1.22147</v>
+        <v>1.19927</v>
       </c>
       <c r="D82" t="n">
-        <v>1.23563</v>
+        <v>1.2154</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91191</v>
+        <v>1.9129</v>
       </c>
       <c r="C83" t="n">
-        <v>1.26503</v>
+        <v>1.24447</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29376</v>
+        <v>1.26887</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01581</v>
+        <v>1.99305</v>
       </c>
       <c r="C84" t="n">
-        <v>1.30866</v>
+        <v>1.28769</v>
       </c>
       <c r="D84" t="n">
-        <v>1.35757</v>
+        <v>1.32133</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.10177</v>
+        <v>2.07766</v>
       </c>
       <c r="C85" t="n">
-        <v>1.35257</v>
+        <v>1.32939</v>
       </c>
       <c r="D85" t="n">
-        <v>1.42544</v>
+        <v>1.38571</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1986</v>
+        <v>2.18523</v>
       </c>
       <c r="C86" t="n">
-        <v>1.39899</v>
+        <v>1.3684</v>
       </c>
       <c r="D86" t="n">
-        <v>1.48487</v>
+        <v>1.4363</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.28042</v>
+        <v>2.26013</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43711</v>
+        <v>1.41018</v>
       </c>
       <c r="D87" t="n">
-        <v>1.54542</v>
+        <v>1.49435</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37812</v>
+        <v>2.34573</v>
       </c>
       <c r="C88" t="n">
-        <v>1.48083</v>
+        <v>1.4519</v>
       </c>
       <c r="D88" t="n">
-        <v>1.60578</v>
+        <v>1.55695</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47445</v>
+        <v>2.43856</v>
       </c>
       <c r="C89" t="n">
-        <v>1.52601</v>
+        <v>1.49551</v>
       </c>
       <c r="D89" t="n">
-        <v>1.66694</v>
+        <v>1.61756</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.55389</v>
+        <v>2.52494</v>
       </c>
       <c r="C90" t="n">
-        <v>1.56307</v>
+        <v>1.53598</v>
       </c>
       <c r="D90" t="n">
-        <v>1.72633</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64327</v>
+        <v>2.60838</v>
       </c>
       <c r="C91" t="n">
-        <v>1.61317</v>
+        <v>1.58403</v>
       </c>
       <c r="D91" t="n">
-        <v>1.78176</v>
+        <v>1.72007</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.73709</v>
+        <v>2.70545</v>
       </c>
       <c r="C92" t="n">
-        <v>1.69157</v>
+        <v>1.65612</v>
       </c>
       <c r="D92" t="n">
-        <v>1.89925</v>
+        <v>1.83585</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89981</v>
+        <v>2.86553</v>
       </c>
       <c r="C93" t="n">
-        <v>1.72831</v>
+        <v>1.68966</v>
       </c>
       <c r="D93" t="n">
-        <v>1.95487</v>
+        <v>1.88738</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.97893</v>
+        <v>2.93903</v>
       </c>
       <c r="C94" t="n">
-        <v>1.76575</v>
+        <v>1.72009</v>
       </c>
       <c r="D94" t="n">
-        <v>2.00503</v>
+        <v>1.9285</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.06515</v>
+        <v>3.00629</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79894</v>
+        <v>1.75434</v>
       </c>
       <c r="D95" t="n">
-        <v>2.05195</v>
+        <v>1.97501</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.13291</v>
+        <v>3.0748</v>
       </c>
       <c r="C96" t="n">
-        <v>1.82891</v>
+        <v>1.79269</v>
       </c>
       <c r="D96" t="n">
-        <v>2.10089</v>
+        <v>2.01811</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19433</v>
+        <v>3.14401</v>
       </c>
       <c r="C97" t="n">
-        <v>1.86337</v>
+        <v>1.81716</v>
       </c>
       <c r="D97" t="n">
-        <v>2.14224</v>
+        <v>2.06114</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.2798</v>
+        <v>3.22086</v>
       </c>
       <c r="C98" t="n">
-        <v>1.8921</v>
+        <v>1.85407</v>
       </c>
       <c r="D98" t="n">
-        <v>2.19627</v>
+        <v>2.10493</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.33443</v>
+        <v>3.28184</v>
       </c>
       <c r="C99" t="n">
-        <v>1.92439</v>
+        <v>1.90071</v>
       </c>
       <c r="D99" t="n">
-        <v>2.23355</v>
+        <v>2.14168</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.39644</v>
+        <v>3.34127</v>
       </c>
       <c r="C100" t="n">
-        <v>1.95816</v>
+        <v>1.91916</v>
       </c>
       <c r="D100" t="n">
-        <v>2.2679</v>
+        <v>2.18742</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.46508</v>
+        <v>3.40045</v>
       </c>
       <c r="C101" t="n">
-        <v>1.99717</v>
+        <v>1.95578</v>
       </c>
       <c r="D101" t="n">
-        <v>2.30996</v>
+        <v>2.21039</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.52533</v>
+        <v>3.46941</v>
       </c>
       <c r="C102" t="n">
-        <v>2.02823</v>
+        <v>1.98437</v>
       </c>
       <c r="D102" t="n">
-        <v>2.34505</v>
+        <v>2.2476</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.5856</v>
+        <v>3.508</v>
       </c>
       <c r="C103" t="n">
-        <v>2.06446</v>
+        <v>2.01133</v>
       </c>
       <c r="D103" t="n">
-        <v>2.36816</v>
+        <v>2.26864</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.63992</v>
+        <v>3.58177</v>
       </c>
       <c r="C104" t="n">
-        <v>2.09255</v>
+        <v>2.04249</v>
       </c>
       <c r="D104" t="n">
-        <v>2.4021</v>
+        <v>2.31303</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.70184</v>
+        <v>3.65137</v>
       </c>
       <c r="C105" t="n">
-        <v>2.13649</v>
+        <v>2.08683</v>
       </c>
       <c r="D105" t="n">
-        <v>2.43654</v>
+        <v>2.33091</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.76861</v>
+        <v>3.6882</v>
       </c>
       <c r="C106" t="n">
-        <v>2.16785</v>
+        <v>2.10652</v>
       </c>
       <c r="D106" t="n">
-        <v>2.46607</v>
+        <v>2.362</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.78406</v>
+        <v>3.71532</v>
       </c>
       <c r="C107" t="n">
-        <v>2.14166</v>
+        <v>2.08975</v>
       </c>
       <c r="D107" t="n">
-        <v>2.52779</v>
+        <v>2.42599</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.81266</v>
+        <v>3.75194</v>
       </c>
       <c r="C108" t="n">
-        <v>2.15064</v>
+        <v>2.10051</v>
       </c>
       <c r="D108" t="n">
-        <v>2.55637</v>
+        <v>2.45305</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.86734</v>
+        <v>3.79924</v>
       </c>
       <c r="C109" t="n">
-        <v>2.19423</v>
+        <v>2.12606</v>
       </c>
       <c r="D109" t="n">
-        <v>2.58723</v>
+        <v>2.48077</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.9005</v>
+        <v>3.82891</v>
       </c>
       <c r="C110" t="n">
-        <v>2.21828</v>
+        <v>2.1654</v>
       </c>
       <c r="D110" t="n">
-        <v>2.60948</v>
+        <v>2.50774</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.96793</v>
+        <v>3.88277</v>
       </c>
       <c r="C111" t="n">
-        <v>2.21959</v>
+        <v>2.19263</v>
       </c>
       <c r="D111" t="n">
-        <v>2.64454</v>
+        <v>2.54719</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.0027</v>
+        <v>3.92191</v>
       </c>
       <c r="C112" t="n">
-        <v>2.27001</v>
+        <v>2.20497</v>
       </c>
       <c r="D112" t="n">
-        <v>2.66612</v>
+        <v>2.56061</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.02791</v>
+        <v>3.97331</v>
       </c>
       <c r="C113" t="n">
-        <v>2.28705</v>
+        <v>2.23681</v>
       </c>
       <c r="D113" t="n">
-        <v>2.69594</v>
+        <v>2.58823</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.09435</v>
+        <v>4.01342</v>
       </c>
       <c r="C114" t="n">
-        <v>2.30096</v>
+        <v>2.25173</v>
       </c>
       <c r="D114" t="n">
-        <v>2.71444</v>
+        <v>2.60947</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.12761</v>
+        <v>4.06035</v>
       </c>
       <c r="C115" t="n">
-        <v>2.34663</v>
+        <v>2.2861</v>
       </c>
       <c r="D115" t="n">
-        <v>2.7414</v>
+        <v>2.6286</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.17429</v>
+        <v>4.09028</v>
       </c>
       <c r="C116" t="n">
-        <v>2.36381</v>
+        <v>2.30128</v>
       </c>
       <c r="D116" t="n">
-        <v>2.74589</v>
+        <v>2.65366</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.20816</v>
+        <v>4.13213</v>
       </c>
       <c r="C117" t="n">
-        <v>2.37245</v>
+        <v>2.34119</v>
       </c>
       <c r="D117" t="n">
-        <v>2.76331</v>
+        <v>2.67528</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.26184</v>
+        <v>4.18485</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40721</v>
+        <v>2.35604</v>
       </c>
       <c r="D118" t="n">
-        <v>2.78456</v>
+        <v>2.69929</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.32241</v>
+        <v>4.23118</v>
       </c>
       <c r="C119" t="n">
-        <v>2.43879</v>
+        <v>2.38163</v>
       </c>
       <c r="D119" t="n">
-        <v>2.81205</v>
+        <v>2.71919</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573794</v>
+        <v>0.573249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315334</v>
+        <v>0.315097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.336414</v>
+        <v>0.334741</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.578811</v>
+        <v>0.578867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.319942</v>
+        <v>0.319102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341309</v>
+        <v>0.33917</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.593174</v>
+        <v>0.587862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.32642</v>
+        <v>0.323556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347008</v>
+        <v>0.342463</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.601421</v>
+        <v>0.592502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337047</v>
+        <v>0.333729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.352655</v>
+        <v>0.344937</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.609673</v>
+        <v>0.6010760000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.338082</v>
+        <v>0.333894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.354217</v>
+        <v>0.345901</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.615268</v>
+        <v>0.607534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348774</v>
+        <v>0.344867</v>
       </c>
       <c r="D7" t="n">
-        <v>0.362431</v>
+        <v>0.354632</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.625961</v>
+        <v>0.619487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.358491</v>
+        <v>0.354581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.363699</v>
+        <v>0.357246</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.634804</v>
+        <v>0.62698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.364365</v>
+        <v>0.360199</v>
       </c>
       <c r="D9" t="n">
-        <v>0.368909</v>
+        <v>0.36261</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.642733</v>
+        <v>0.641794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.374304</v>
+        <v>0.371234</v>
       </c>
       <c r="D10" t="n">
-        <v>0.371999</v>
+        <v>0.36681</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6520629999999999</v>
+        <v>0.652874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.362765</v>
+        <v>0.361798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379772</v>
+        <v>0.376712</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636206</v>
+        <v>0.634955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.366413</v>
+        <v>0.366213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.387237</v>
+        <v>0.384753</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.647586</v>
+        <v>0.647406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.374389</v>
+        <v>0.374973</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39333</v>
+        <v>0.390243</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.653014</v>
+        <v>0.651436</v>
       </c>
       <c r="C14" t="n">
-        <v>0.379789</v>
+        <v>0.380248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395028</v>
+        <v>0.391232</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.668284</v>
+        <v>0.6662979999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.390208</v>
+        <v>0.391475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.403036</v>
+        <v>0.401142</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6752860000000001</v>
+        <v>0.6724560000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.400193</v>
+        <v>0.400122</v>
       </c>
       <c r="D16" t="n">
-        <v>0.40918</v>
+        <v>0.406541</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.693366</v>
+        <v>0.694181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.406865</v>
+        <v>0.407805</v>
       </c>
       <c r="D17" t="n">
-        <v>0.414341</v>
+        <v>0.41272</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.704983</v>
+        <v>0.701627</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407372</v>
+        <v>0.407886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.418601</v>
+        <v>0.41681</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7165899999999999</v>
+        <v>0.71566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.425197</v>
+        <v>0.426495</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42419</v>
+        <v>0.424038</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.726697</v>
+        <v>0.73339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43374</v>
+        <v>0.438153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.428235</v>
+        <v>0.429244</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7363499999999999</v>
+        <v>0.742695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.446846</v>
+        <v>0.450236</v>
       </c>
       <c r="D21" t="n">
-        <v>0.434125</v>
+        <v>0.435259</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.747555</v>
+        <v>0.753238</v>
       </c>
       <c r="C22" t="n">
-        <v>0.452176</v>
+        <v>0.457573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.439008</v>
+        <v>0.440936</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.771085</v>
+        <v>0.773208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.465995</v>
+        <v>0.468141</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447036</v>
+        <v>0.447931</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.782074</v>
+        <v>0.786403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.473623</v>
+        <v>0.476641</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450457</v>
+        <v>0.450639</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.793317</v>
+        <v>0.799699</v>
       </c>
       <c r="C25" t="n">
-        <v>0.490595</v>
+        <v>0.495575</v>
       </c>
       <c r="D25" t="n">
-        <v>0.457522</v>
+        <v>0.458628</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.811415</v>
+        <v>0.816779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.429983</v>
+        <v>0.432294</v>
       </c>
       <c r="D26" t="n">
-        <v>0.464039</v>
+        <v>0.464897</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7737849999999999</v>
+        <v>0.776954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.437306</v>
+        <v>0.44125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468092</v>
+        <v>0.468864</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.784292</v>
+        <v>0.7862130000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.443547</v>
+        <v>0.446735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.471727</v>
+        <v>0.472045</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7983479999999999</v>
+        <v>0.799291</v>
       </c>
       <c r="C29" t="n">
-        <v>0.448753</v>
+        <v>0.451521</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4758</v>
+        <v>0.476119</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.809036</v>
+        <v>0.812231</v>
       </c>
       <c r="C30" t="n">
-        <v>0.459055</v>
+        <v>0.46088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481133</v>
+        <v>0.481623</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.820223</v>
+        <v>0.822813</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465185</v>
+        <v>0.469005</v>
       </c>
       <c r="D31" t="n">
-        <v>0.484796</v>
+        <v>0.485632</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.833394</v>
+        <v>0.836614</v>
       </c>
       <c r="C32" t="n">
-        <v>0.473466</v>
+        <v>0.477369</v>
       </c>
       <c r="D32" t="n">
-        <v>0.488669</v>
+        <v>0.48877</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.843354</v>
+        <v>0.846971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.48239</v>
+        <v>0.484423</v>
       </c>
       <c r="D33" t="n">
-        <v>0.492956</v>
+        <v>0.492984</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.857468</v>
+        <v>0.860714</v>
       </c>
       <c r="C34" t="n">
-        <v>0.491828</v>
+        <v>0.49424</v>
       </c>
       <c r="D34" t="n">
-        <v>0.495411</v>
+        <v>0.495049</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8684539999999999</v>
+        <v>0.869877</v>
       </c>
       <c r="C35" t="n">
-        <v>0.50145</v>
+        <v>0.503115</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5002760000000001</v>
+        <v>0.499006</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.884012</v>
+        <v>0.884947</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5143489999999999</v>
+        <v>0.515973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.503263</v>
+        <v>0.501224</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8964530000000001</v>
+        <v>0.899054</v>
       </c>
       <c r="C37" t="n">
-        <v>0.526761</v>
+        <v>0.526571</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50447</v>
+        <v>0.503395</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.909675</v>
+        <v>0.910465</v>
       </c>
       <c r="C38" t="n">
-        <v>0.535733</v>
+        <v>0.537209</v>
       </c>
       <c r="D38" t="n">
-        <v>0.507781</v>
+        <v>0.506986</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.923449</v>
+        <v>0.9239540000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.547153</v>
+        <v>0.548898</v>
       </c>
       <c r="D39" t="n">
-        <v>0.513172</v>
+        <v>0.509517</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.936395</v>
+        <v>0.9380230000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.496682</v>
+        <v>0.496058</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517014</v>
+        <v>0.514149</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.875656</v>
+        <v>0.876502</v>
       </c>
       <c r="C41" t="n">
-        <v>0.500586</v>
+        <v>0.501212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.518868</v>
+        <v>0.517412</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.888935</v>
+        <v>0.888379</v>
       </c>
       <c r="C42" t="n">
-        <v>0.509093</v>
+        <v>0.510506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.520868</v>
+        <v>0.5199510000000001</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.896983</v>
+        <v>0.896711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.514771</v>
+        <v>0.515041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5251670000000001</v>
+        <v>0.523571</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.901295</v>
+        <v>0.902056</v>
       </c>
       <c r="C44" t="n">
-        <v>0.523114</v>
+        <v>0.52446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.524921</v>
+        <v>0.524879</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.915013</v>
+        <v>0.914875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.52885</v>
+        <v>0.529513</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5278659999999999</v>
+        <v>0.526831</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.921075</v>
+        <v>0.921173</v>
       </c>
       <c r="C46" t="n">
-        <v>0.539305</v>
+        <v>0.539822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530673</v>
+        <v>0.5296380000000001</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.932466</v>
+        <v>0.9325369999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.546756</v>
+        <v>0.546787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533697</v>
+        <v>0.530585</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.944033</v>
+        <v>0.942549</v>
       </c>
       <c r="C48" t="n">
-        <v>0.556037</v>
+        <v>0.5566759999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5347150000000001</v>
+        <v>0.5318349999999999</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.950395</v>
+        <v>0.949666</v>
       </c>
       <c r="C49" t="n">
-        <v>0.564024</v>
+        <v>0.564734</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5365799999999999</v>
+        <v>0.535449</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.96443</v>
+        <v>0.9641189999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5733</v>
+        <v>0.57323</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537907</v>
+        <v>0.537609</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.971388</v>
+        <v>0.971214</v>
       </c>
       <c r="C51" t="n">
-        <v>0.585844</v>
+        <v>0.585726</v>
       </c>
       <c r="D51" t="n">
-        <v>0.541338</v>
+        <v>0.537624</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.986148</v>
+        <v>0.985726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.595146</v>
+        <v>0.596676</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5411319999999999</v>
+        <v>0.540794</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.994798</v>
+        <v>0.994664</v>
       </c>
       <c r="C53" t="n">
-        <v>0.602649</v>
+        <v>0.6029139999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.543435</v>
+        <v>0.539525</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00824</v>
+        <v>1.00396</v>
       </c>
       <c r="C54" t="n">
-        <v>0.537071</v>
+        <v>0.536487</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545248</v>
+        <v>0.54294</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.934049</v>
+        <v>0.934474</v>
       </c>
       <c r="C55" t="n">
-        <v>0.538739</v>
+        <v>0.539416</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5463519999999999</v>
+        <v>0.5451319999999999</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.942566</v>
+        <v>0.941454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.548457</v>
+        <v>0.548197</v>
       </c>
       <c r="D56" t="n">
-        <v>0.548885</v>
+        <v>0.545688</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.950247</v>
+        <v>0.949523</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5556489999999999</v>
+        <v>0.555274</v>
       </c>
       <c r="D57" t="n">
-        <v>0.548808</v>
+        <v>0.546921</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.958248</v>
+        <v>0.958685</v>
       </c>
       <c r="C58" t="n">
-        <v>0.563651</v>
+        <v>0.563469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549116</v>
+        <v>0.548616</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.967011</v>
+        <v>0.967563</v>
       </c>
       <c r="C59" t="n">
-        <v>0.572969</v>
+        <v>0.569631</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551253</v>
+        <v>0.550701</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.975084</v>
+        <v>0.974965</v>
       </c>
       <c r="C60" t="n">
-        <v>0.583593</v>
+        <v>0.57969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552943</v>
+        <v>0.550844</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.983876</v>
+        <v>0.983521</v>
       </c>
       <c r="C61" t="n">
-        <v>0.593213</v>
+        <v>0.589353</v>
       </c>
       <c r="D61" t="n">
-        <v>0.554916</v>
+        <v>0.5539190000000001</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.995286</v>
+        <v>0.995112</v>
       </c>
       <c r="C62" t="n">
-        <v>0.601595</v>
+        <v>0.599042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5578920000000001</v>
+        <v>0.554664</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.0053</v>
+        <v>1.00483</v>
       </c>
       <c r="C63" t="n">
-        <v>0.615972</v>
+        <v>0.610287</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558705</v>
+        <v>0.556157</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01289</v>
+        <v>1.01076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.624856</v>
+        <v>0.622131</v>
       </c>
       <c r="D64" t="n">
-        <v>0.560547</v>
+        <v>0.55789</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02583</v>
+        <v>1.02252</v>
       </c>
       <c r="C65" t="n">
-        <v>0.642404</v>
+        <v>0.637833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.562781</v>
+        <v>0.559324</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.03798</v>
+        <v>1.03309</v>
       </c>
       <c r="C66" t="n">
-        <v>0.655622</v>
+        <v>0.650846</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5653280000000001</v>
+        <v>0.5628609999999999</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05439</v>
+        <v>1.05039</v>
       </c>
       <c r="C67" t="n">
-        <v>0.676518</v>
+        <v>0.671542</v>
       </c>
       <c r="D67" t="n">
-        <v>0.568674</v>
+        <v>0.563005</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.06967</v>
+        <v>1.06235</v>
       </c>
       <c r="C68" t="n">
-        <v>0.610973</v>
+        <v>0.601597</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586688</v>
+        <v>0.578772</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02903</v>
+        <v>1.01643</v>
       </c>
       <c r="C69" t="n">
-        <v>0.63395</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.597248</v>
+        <v>0.587637</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04869</v>
+        <v>1.03169</v>
       </c>
       <c r="C70" t="n">
-        <v>0.66696</v>
+        <v>0.649024</v>
       </c>
       <c r="D70" t="n">
-        <v>0.615101</v>
+        <v>0.599468</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07707</v>
+        <v>1.0582</v>
       </c>
       <c r="C71" t="n">
-        <v>0.699004</v>
+        <v>0.681578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.631263</v>
+        <v>0.6141720000000001</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.11229</v>
+        <v>1.08931</v>
       </c>
       <c r="C72" t="n">
-        <v>0.73053</v>
+        <v>0.709927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.648701</v>
+        <v>0.6306079999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14683</v>
+        <v>1.1272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.762445</v>
+        <v>0.749057</v>
       </c>
       <c r="D73" t="n">
-        <v>0.666903</v>
+        <v>0.651151</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18145</v>
+        <v>1.16398</v>
       </c>
       <c r="C74" t="n">
-        <v>0.797003</v>
+        <v>0.784819</v>
       </c>
       <c r="D74" t="n">
-        <v>0.686626</v>
+        <v>0.66978</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22774</v>
+        <v>1.20832</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8379</v>
+        <v>0.823153</v>
       </c>
       <c r="D75" t="n">
-        <v>0.710023</v>
+        <v>0.691922</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27506</v>
+        <v>1.25032</v>
       </c>
       <c r="C76" t="n">
-        <v>0.880614</v>
+        <v>0.865215</v>
       </c>
       <c r="D76" t="n">
-        <v>0.735643</v>
+        <v>0.713859</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.32784</v>
+        <v>1.30416</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9316489999999999</v>
+        <v>0.917737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.766923</v>
+        <v>0.745073</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39147</v>
+        <v>1.36802</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9826549999999999</v>
+        <v>0.967736</v>
       </c>
       <c r="D78" t="n">
-        <v>0.802859</v>
+        <v>0.780158</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.46567</v>
+        <v>1.43819</v>
       </c>
       <c r="C79" t="n">
-        <v>1.03914</v>
+        <v>1.02158</v>
       </c>
       <c r="D79" t="n">
-        <v>0.841801</v>
+        <v>0.818084</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.54055</v>
+        <v>1.51413</v>
       </c>
       <c r="C80" t="n">
-        <v>1.09358</v>
+        <v>1.07459</v>
       </c>
       <c r="D80" t="n">
-        <v>0.88563</v>
+        <v>0.85965</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.62665</v>
+        <v>1.59289</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15746</v>
+        <v>1.13552</v>
       </c>
       <c r="D81" t="n">
-        <v>0.930951</v>
+        <v>0.9000899999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.71934</v>
+        <v>1.68524</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21867</v>
+        <v>1.1994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.984403</v>
+        <v>0.949868</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.82237</v>
+        <v>1.78336</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19245</v>
+        <v>1.16924</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10363</v>
+        <v>1.06242</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.84129</v>
+        <v>1.7993</v>
       </c>
       <c r="C84" t="n">
-        <v>1.25208</v>
+        <v>1.22647</v>
       </c>
       <c r="D84" t="n">
-        <v>1.16268</v>
+        <v>1.1195</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.95334</v>
+        <v>1.90578</v>
       </c>
       <c r="C85" t="n">
-        <v>1.31126</v>
+        <v>1.28628</v>
       </c>
       <c r="D85" t="n">
-        <v>1.2289</v>
+        <v>1.17556</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.05636</v>
+        <v>2.00312</v>
       </c>
       <c r="C86" t="n">
-        <v>1.38061</v>
+        <v>1.34899</v>
       </c>
       <c r="D86" t="n">
-        <v>1.29148</v>
+        <v>1.23076</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.15961</v>
+        <v>2.12038</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43908</v>
+        <v>1.41878</v>
       </c>
       <c r="D87" t="n">
-        <v>1.35257</v>
+        <v>1.29523</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.26743</v>
+        <v>2.23764</v>
       </c>
       <c r="C88" t="n">
-        <v>1.52181</v>
+        <v>1.49579</v>
       </c>
       <c r="D88" t="n">
-        <v>1.41183</v>
+        <v>1.35816</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.3878</v>
+        <v>2.35834</v>
       </c>
       <c r="C89" t="n">
-        <v>1.5937</v>
+        <v>1.56883</v>
       </c>
       <c r="D89" t="n">
-        <v>1.473</v>
+        <v>1.41773</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.51379</v>
+        <v>2.48672</v>
       </c>
       <c r="C90" t="n">
-        <v>1.66959</v>
+        <v>1.64953</v>
       </c>
       <c r="D90" t="n">
-        <v>1.53659</v>
+        <v>1.47789</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.65096</v>
+        <v>2.62551</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75573</v>
+        <v>1.7315</v>
       </c>
       <c r="D91" t="n">
-        <v>1.59531</v>
+        <v>1.53488</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.7683</v>
+        <v>2.74749</v>
       </c>
       <c r="C92" t="n">
-        <v>1.84143</v>
+        <v>1.81921</v>
       </c>
       <c r="D92" t="n">
-        <v>1.65773</v>
+        <v>1.59493</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89548</v>
+        <v>2.88541</v>
       </c>
       <c r="C93" t="n">
-        <v>1.93318</v>
+        <v>1.90534</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71185</v>
+        <v>1.64474</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.05058</v>
+        <v>3.00122</v>
       </c>
       <c r="C94" t="n">
-        <v>2.01966</v>
+        <v>1.99088</v>
       </c>
       <c r="D94" t="n">
-        <v>1.76986</v>
+        <v>1.69769</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.17259</v>
+        <v>3.15893</v>
       </c>
       <c r="C95" t="n">
-        <v>2.11459</v>
+        <v>2.07882</v>
       </c>
       <c r="D95" t="n">
-        <v>1.82011</v>
+        <v>1.74844</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.30652</v>
+        <v>3.28185</v>
       </c>
       <c r="C96" t="n">
-        <v>2.21479</v>
+        <v>2.18907</v>
       </c>
       <c r="D96" t="n">
-        <v>1.86874</v>
+        <v>1.79666</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.4558</v>
+        <v>3.41517</v>
       </c>
       <c r="C97" t="n">
-        <v>1.99521</v>
+        <v>1.9411</v>
       </c>
       <c r="D97" t="n">
-        <v>1.99272</v>
+        <v>1.9313</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.29815</v>
+        <v>3.28773</v>
       </c>
       <c r="C98" t="n">
-        <v>2.05008</v>
+        <v>2.01149</v>
       </c>
       <c r="D98" t="n">
-        <v>2.05272</v>
+        <v>1.9773</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40572</v>
+        <v>3.37391</v>
       </c>
       <c r="C99" t="n">
-        <v>2.08545</v>
+        <v>2.06751</v>
       </c>
       <c r="D99" t="n">
-        <v>2.08768</v>
+        <v>2.02015</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.50033</v>
+        <v>3.46676</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15827</v>
+        <v>2.12956</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1239</v>
+        <v>2.06711</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62524</v>
+        <v>3.59946</v>
       </c>
       <c r="C101" t="n">
-        <v>2.24071</v>
+        <v>2.21263</v>
       </c>
       <c r="D101" t="n">
-        <v>2.17785</v>
+        <v>2.09536</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.70226</v>
+        <v>3.70919</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29768</v>
+        <v>2.27753</v>
       </c>
       <c r="D102" t="n">
-        <v>2.20193</v>
+        <v>2.12935</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.80307</v>
+        <v>3.80838</v>
       </c>
       <c r="C103" t="n">
-        <v>2.363</v>
+        <v>2.34709</v>
       </c>
       <c r="D103" t="n">
-        <v>2.24963</v>
+        <v>2.17084</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.91467</v>
+        <v>3.92218</v>
       </c>
       <c r="C104" t="n">
-        <v>2.44799</v>
+        <v>2.41159</v>
       </c>
       <c r="D104" t="n">
-        <v>2.28515</v>
+        <v>2.19251</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.05401</v>
+        <v>4.00901</v>
       </c>
       <c r="C105" t="n">
-        <v>2.51437</v>
+        <v>2.4835</v>
       </c>
       <c r="D105" t="n">
-        <v>2.31334</v>
+        <v>2.24079</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.13612</v>
+        <v>4.08918</v>
       </c>
       <c r="C106" t="n">
-        <v>2.59789</v>
+        <v>2.56311</v>
       </c>
       <c r="D106" t="n">
-        <v>2.33576</v>
+        <v>2.25354</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.24518</v>
+        <v>4.22109</v>
       </c>
       <c r="C107" t="n">
-        <v>2.68801</v>
+        <v>2.6303</v>
       </c>
       <c r="D107" t="n">
-        <v>2.36806</v>
+        <v>2.28358</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.3223</v>
+        <v>4.31623</v>
       </c>
       <c r="C108" t="n">
-        <v>2.75842</v>
+        <v>2.73643</v>
       </c>
       <c r="D108" t="n">
-        <v>2.40402</v>
+        <v>2.31085</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.45287</v>
+        <v>4.41866</v>
       </c>
       <c r="C109" t="n">
-        <v>2.8642</v>
+        <v>2.80056</v>
       </c>
       <c r="D109" t="n">
-        <v>2.44137</v>
+        <v>2.34209</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.5734</v>
+        <v>4.55685</v>
       </c>
       <c r="C110" t="n">
-        <v>2.947</v>
+        <v>2.8726</v>
       </c>
       <c r="D110" t="n">
-        <v>2.46476</v>
+        <v>2.38053</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.67153</v>
+        <v>4.65198</v>
       </c>
       <c r="C111" t="n">
-        <v>2.52637</v>
+        <v>2.49405</v>
       </c>
       <c r="D111" t="n">
-        <v>2.57053</v>
+        <v>2.47363</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.3083</v>
+        <v>4.27194</v>
       </c>
       <c r="C112" t="n">
-        <v>2.59051</v>
+        <v>2.55088</v>
       </c>
       <c r="D112" t="n">
-        <v>2.59691</v>
+        <v>2.5012</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.38407</v>
+        <v>4.37154</v>
       </c>
       <c r="C113" t="n">
-        <v>2.65864</v>
+        <v>2.59894</v>
       </c>
       <c r="D113" t="n">
-        <v>2.61727</v>
+        <v>2.51604</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.49638</v>
+        <v>4.43901</v>
       </c>
       <c r="C114" t="n">
-        <v>2.72324</v>
+        <v>2.65533</v>
       </c>
       <c r="D114" t="n">
-        <v>2.64026</v>
+        <v>2.53582</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.5885</v>
+        <v>4.52827</v>
       </c>
       <c r="C115" t="n">
-        <v>2.76625</v>
+        <v>2.72872</v>
       </c>
       <c r="D115" t="n">
-        <v>2.67399</v>
+        <v>2.57225</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.6676</v>
+        <v>4.6272</v>
       </c>
       <c r="C116" t="n">
-        <v>2.8499</v>
+        <v>2.78754</v>
       </c>
       <c r="D116" t="n">
-        <v>2.68311</v>
+        <v>2.58987</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.74437</v>
+        <v>4.70274</v>
       </c>
       <c r="C117" t="n">
-        <v>2.91319</v>
+        <v>2.85703</v>
       </c>
       <c r="D117" t="n">
-        <v>2.71077</v>
+        <v>2.61766</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.85063</v>
+        <v>4.80104</v>
       </c>
       <c r="C118" t="n">
-        <v>2.98955</v>
+        <v>2.92962</v>
       </c>
       <c r="D118" t="n">
-        <v>2.72204</v>
+        <v>2.63675</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.95657</v>
+        <v>4.88246</v>
       </c>
       <c r="C119" t="n">
-        <v>3.06134</v>
+        <v>3.00843</v>
       </c>
       <c r="D119" t="n">
-        <v>2.76154</v>
+        <v>2.64952</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401397</v>
+        <v>0.417014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.170129</v>
+        <v>0.185633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.233494</v>
+        <v>0.262216</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.410491</v>
+        <v>0.422013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.172931</v>
+        <v>0.18796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234473</v>
+        <v>0.267271</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412566</v>
+        <v>0.427767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.176294</v>
+        <v>0.192506</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239892</v>
+        <v>0.274996</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420613</v>
+        <v>0.433564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.177925</v>
+        <v>0.19436</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24026</v>
+        <v>0.276549</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418304</v>
+        <v>0.434473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.181538</v>
+        <v>0.197572</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247444</v>
+        <v>0.282021</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.426761</v>
+        <v>0.442849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167078</v>
+        <v>0.180439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25024</v>
+        <v>0.287724</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401594</v>
+        <v>0.416151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.169247</v>
+        <v>0.182757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.251253</v>
+        <v>0.290537</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.406698</v>
+        <v>0.419675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171051</v>
+        <v>0.184904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.259362</v>
+        <v>0.296127</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.413341</v>
+        <v>0.42533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173143</v>
+        <v>0.187191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.262077</v>
+        <v>0.302574</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.419265</v>
+        <v>0.430932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.174426</v>
+        <v>0.189003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.266383</v>
+        <v>0.305878</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.426341</v>
+        <v>0.435021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176771</v>
+        <v>0.190942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.270215</v>
+        <v>0.308797</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.429827</v>
+        <v>0.438763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179132</v>
+        <v>0.193774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274933</v>
+        <v>0.317922</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.436351</v>
+        <v>0.445845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181166</v>
+        <v>0.196168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280369</v>
+        <v>0.323041</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441203</v>
+        <v>0.451093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183681</v>
+        <v>0.198545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285424</v>
+        <v>0.325707</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.447882</v>
+        <v>0.455507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186259</v>
+        <v>0.201443</v>
       </c>
       <c r="D16" t="n">
-        <v>0.292209</v>
+        <v>0.334672</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456541</v>
+        <v>0.462881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.188944</v>
+        <v>0.203586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295746</v>
+        <v>0.338837</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459878</v>
+        <v>0.466756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191669</v>
+        <v>0.206301</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29989</v>
+        <v>0.344581</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464242</v>
+        <v>0.472846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.194637</v>
+        <v>0.209076</v>
       </c>
       <c r="D19" t="n">
-        <v>0.303415</v>
+        <v>0.348671</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.471796</v>
+        <v>0.479323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197242</v>
+        <v>0.211438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307794</v>
+        <v>0.355486</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.476129</v>
+        <v>0.484424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.176517</v>
+        <v>0.190639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.308392</v>
+        <v>0.361225</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459138</v>
+        <v>0.466955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.178642</v>
+        <v>0.192716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.311154</v>
+        <v>0.365419</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.463874</v>
+        <v>0.47168</v>
       </c>
       <c r="C23" t="n">
-        <v>0.18049</v>
+        <v>0.194439</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312638</v>
+        <v>0.369857</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.465909</v>
+        <v>0.474196</v>
       </c>
       <c r="C24" t="n">
-        <v>0.182348</v>
+        <v>0.196566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316623</v>
+        <v>0.374623</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472217</v>
+        <v>0.479539</v>
       </c>
       <c r="C25" t="n">
-        <v>0.184432</v>
+        <v>0.198587</v>
       </c>
       <c r="D25" t="n">
-        <v>0.319581</v>
+        <v>0.380576</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.476082</v>
+        <v>0.48558</v>
       </c>
       <c r="C26" t="n">
-        <v>0.186361</v>
+        <v>0.201324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323663</v>
+        <v>0.38369</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.480028</v>
+        <v>0.488387</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188641</v>
+        <v>0.202941</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326723</v>
+        <v>0.386898</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.484731</v>
+        <v>0.494198</v>
       </c>
       <c r="C28" t="n">
-        <v>0.190696</v>
+        <v>0.205507</v>
       </c>
       <c r="D28" t="n">
-        <v>0.329084</v>
+        <v>0.391124</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.488251</v>
+        <v>0.496689</v>
       </c>
       <c r="C29" t="n">
-        <v>0.193175</v>
+        <v>0.207673</v>
       </c>
       <c r="D29" t="n">
-        <v>0.33135</v>
+        <v>0.393621</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.492815</v>
+        <v>0.500332</v>
       </c>
       <c r="C30" t="n">
-        <v>0.195604</v>
+        <v>0.210186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.335327</v>
+        <v>0.397469</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497789</v>
+        <v>0.505918</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197935</v>
+        <v>0.212589</v>
       </c>
       <c r="D31" t="n">
-        <v>0.339112</v>
+        <v>0.40208</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5019</v>
+        <v>0.510306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199789</v>
+        <v>0.215267</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341261</v>
+        <v>0.403727</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.506637</v>
+        <v>0.515585</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203081</v>
+        <v>0.217575</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344449</v>
+        <v>0.407805</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5120130000000001</v>
+        <v>0.522653</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204923</v>
+        <v>0.220063</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3476</v>
+        <v>0.411105</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.516895</v>
+        <v>0.525244</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180791</v>
+        <v>0.195672</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338868</v>
+        <v>0.411597</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.489615</v>
+        <v>0.499851</v>
       </c>
       <c r="C36" t="n">
-        <v>0.182615</v>
+        <v>0.197131</v>
       </c>
       <c r="D36" t="n">
-        <v>0.34118</v>
+        <v>0.41512</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493466</v>
+        <v>0.501528</v>
       </c>
       <c r="C37" t="n">
-        <v>0.184429</v>
+        <v>0.199527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.342013</v>
+        <v>0.416273</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.494949</v>
+        <v>0.504736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.186451</v>
+        <v>0.201266</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346992</v>
+        <v>0.418786</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.498476</v>
+        <v>0.507768</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18857</v>
+        <v>0.203125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347731</v>
+        <v>0.421981</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.501115</v>
+        <v>0.510977</v>
       </c>
       <c r="C40" t="n">
-        <v>0.19038</v>
+        <v>0.205398</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350612</v>
+        <v>0.424221</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504265</v>
+        <v>0.5140980000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.192217</v>
+        <v>0.206917</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351642</v>
+        <v>0.423803</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507457</v>
+        <v>0.5182060000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.194251</v>
+        <v>0.208983</v>
       </c>
       <c r="D42" t="n">
-        <v>0.352726</v>
+        <v>0.426082</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.510513</v>
+        <v>0.517653</v>
       </c>
       <c r="C43" t="n">
-        <v>0.196164</v>
+        <v>0.211148</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355951</v>
+        <v>0.42888</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.514244</v>
+        <v>0.52495</v>
       </c>
       <c r="C44" t="n">
-        <v>0.198338</v>
+        <v>0.213643</v>
       </c>
       <c r="D44" t="n">
-        <v>0.356249</v>
+        <v>0.430831</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.516825</v>
+        <v>0.529559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.20076</v>
+        <v>0.216049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359248</v>
+        <v>0.432766</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.520842</v>
+        <v>0.533206</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203474</v>
+        <v>0.21851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.360815</v>
+        <v>0.435779</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.525788</v>
+        <v>0.537268</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206318</v>
+        <v>0.221422</v>
       </c>
       <c r="D47" t="n">
-        <v>0.364192</v>
+        <v>0.437911</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.529792</v>
+        <v>0.541708</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208663</v>
+        <v>0.224002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366083</v>
+        <v>0.439974</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.534013</v>
+        <v>0.5461009999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.211957</v>
+        <v>0.227021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368002</v>
+        <v>0.442508</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.538478</v>
+        <v>0.550584</v>
       </c>
       <c r="C50" t="n">
-        <v>0.186638</v>
+        <v>0.200526</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357371</v>
+        <v>0.438886</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.50806</v>
+        <v>0.520772</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1902</v>
+        <v>0.203297</v>
       </c>
       <c r="D51" t="n">
-        <v>0.357819</v>
+        <v>0.440665</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.510041</v>
+        <v>0.523143</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188637</v>
+        <v>0.203995</v>
       </c>
       <c r="D52" t="n">
-        <v>0.359856</v>
+        <v>0.44164</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.51254</v>
+        <v>0.525223</v>
       </c>
       <c r="C53" t="n">
-        <v>0.192178</v>
+        <v>0.208085</v>
       </c>
       <c r="D53" t="n">
-        <v>0.361132</v>
+        <v>0.442615</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.515131</v>
+        <v>0.527236</v>
       </c>
       <c r="C54" t="n">
-        <v>0.194967</v>
+        <v>0.210894</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3622</v>
+        <v>0.447796</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.517742</v>
+        <v>0.530834</v>
       </c>
       <c r="C55" t="n">
-        <v>0.197857</v>
+        <v>0.215384</v>
       </c>
       <c r="D55" t="n">
-        <v>0.363788</v>
+        <v>0.446077</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.519854</v>
+        <v>0.532639</v>
       </c>
       <c r="C56" t="n">
-        <v>0.201853</v>
+        <v>0.223691</v>
       </c>
       <c r="D56" t="n">
-        <v>0.365469</v>
+        <v>0.450322</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.523369</v>
+        <v>0.536779</v>
       </c>
       <c r="C57" t="n">
-        <v>0.207583</v>
+        <v>0.228451</v>
       </c>
       <c r="D57" t="n">
-        <v>0.367578</v>
+        <v>0.45101</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.526836</v>
+        <v>0.540647</v>
       </c>
       <c r="C58" t="n">
-        <v>0.209017</v>
+        <v>0.229501</v>
       </c>
       <c r="D58" t="n">
-        <v>0.36957</v>
+        <v>0.451843</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.530121</v>
+        <v>0.544679</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211818</v>
+        <v>0.234693</v>
       </c>
       <c r="D59" t="n">
-        <v>0.370774</v>
+        <v>0.454888</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.533365</v>
+        <v>0.547046</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217445</v>
+        <v>0.237485</v>
       </c>
       <c r="D60" t="n">
-        <v>0.37342</v>
+        <v>0.458581</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.538177</v>
+        <v>0.551719</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230182</v>
+        <v>0.245638</v>
       </c>
       <c r="D61" t="n">
-        <v>0.375581</v>
+        <v>0.461707</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.546387</v>
+        <v>0.560281</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237674</v>
+        <v>0.257603</v>
       </c>
       <c r="D62" t="n">
-        <v>0.381426</v>
+        <v>0.467836</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.55019</v>
+        <v>0.568757</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238279</v>
+        <v>0.261684</v>
       </c>
       <c r="D63" t="n">
-        <v>0.382259</v>
+        <v>0.466201</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.557456</v>
+        <v>0.570537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28571</v>
+        <v>0.307116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.416975</v>
+        <v>0.505316</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.591112</v>
+        <v>0.60436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.300962</v>
+        <v>0.333713</v>
       </c>
       <c r="D65" t="n">
-        <v>0.421793</v>
+        <v>0.5152679999999999</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6012150000000001</v>
+        <v>0.616774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322668</v>
+        <v>0.352052</v>
       </c>
       <c r="D66" t="n">
-        <v>0.439463</v>
+        <v>0.517851</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.631444</v>
+        <v>0.627569</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329544</v>
+        <v>0.373671</v>
       </c>
       <c r="D67" t="n">
-        <v>0.440258</v>
+        <v>0.543343</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.635222</v>
+        <v>0.66053</v>
       </c>
       <c r="C68" t="n">
-        <v>0.352333</v>
+        <v>0.396062</v>
       </c>
       <c r="D68" t="n">
-        <v>0.453393</v>
+        <v>0.548384</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.650555</v>
+        <v>0.669797</v>
       </c>
       <c r="C69" t="n">
-        <v>0.374233</v>
+        <v>0.425998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.463386</v>
+        <v>0.574373</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6710700000000001</v>
+        <v>0.699915</v>
       </c>
       <c r="C70" t="n">
-        <v>0.394298</v>
+        <v>0.441487</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493436</v>
+        <v>0.58912</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.702569</v>
+        <v>0.699717</v>
       </c>
       <c r="C71" t="n">
-        <v>0.404801</v>
+        <v>0.467298</v>
       </c>
       <c r="D71" t="n">
-        <v>0.503342</v>
+        <v>0.618851</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.719541</v>
+        <v>0.7505849999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.427129</v>
+        <v>0.488942</v>
       </c>
       <c r="D72" t="n">
-        <v>0.53554</v>
+        <v>0.651771</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.738551</v>
+        <v>0.782829</v>
       </c>
       <c r="C73" t="n">
-        <v>0.446288</v>
+        <v>0.51616</v>
       </c>
       <c r="D73" t="n">
-        <v>0.544598</v>
+        <v>0.673739</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7851050000000001</v>
+        <v>0.827802</v>
       </c>
       <c r="C74" t="n">
-        <v>0.473096</v>
+        <v>0.541028</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5613860000000001</v>
+        <v>0.693774</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8189610000000001</v>
+        <v>0.866084</v>
       </c>
       <c r="C75" t="n">
-        <v>0.48846</v>
+        <v>0.560435</v>
       </c>
       <c r="D75" t="n">
-        <v>0.596338</v>
+        <v>0.74751</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.841</v>
+        <v>0.911148</v>
       </c>
       <c r="C76" t="n">
-        <v>0.506236</v>
+        <v>0.587598</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6237</v>
+        <v>0.793157</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.896064</v>
+        <v>0.973959</v>
       </c>
       <c r="C77" t="n">
-        <v>0.528651</v>
+        <v>0.608187</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6643829999999999</v>
+        <v>0.838189</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.937009</v>
+        <v>1.02227</v>
       </c>
       <c r="C78" t="n">
-        <v>0.623016</v>
+        <v>0.722509</v>
       </c>
       <c r="D78" t="n">
-        <v>0.88778</v>
+        <v>1.16914</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22271</v>
+        <v>1.39847</v>
       </c>
       <c r="C79" t="n">
-        <v>0.635918</v>
+        <v>0.738656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.935098</v>
+        <v>1.22221</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.2795</v>
+        <v>1.44693</v>
       </c>
       <c r="C80" t="n">
-        <v>0.648219</v>
+        <v>0.752038</v>
       </c>
       <c r="D80" t="n">
-        <v>0.969348</v>
+        <v>1.27593</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.33262</v>
+        <v>1.51309</v>
       </c>
       <c r="C81" t="n">
-        <v>0.660086</v>
+        <v>0.765882</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00378</v>
+        <v>1.34503</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3815</v>
+        <v>1.58557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.672231</v>
+        <v>0.779745</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04053</v>
+        <v>1.39594</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42648</v>
+        <v>1.64575</v>
       </c>
       <c r="C83" t="n">
-        <v>0.684794</v>
+        <v>0.79353</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08631</v>
+        <v>1.45246</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.48237</v>
+        <v>1.69677</v>
       </c>
       <c r="C84" t="n">
-        <v>0.697072</v>
+        <v>0.805714</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1239</v>
+        <v>1.51119</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52844</v>
+        <v>1.766</v>
       </c>
       <c r="C85" t="n">
-        <v>0.708161</v>
+        <v>0.821952</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15752</v>
+        <v>1.56868</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.58168</v>
+        <v>1.8198</v>
       </c>
       <c r="C86" t="n">
-        <v>0.720619</v>
+        <v>0.833192</v>
       </c>
       <c r="D86" t="n">
-        <v>1.19532</v>
+        <v>1.61793</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62394</v>
+        <v>1.87392</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7326319999999999</v>
+        <v>0.846039</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23122</v>
+        <v>1.67633</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.67117</v>
+        <v>1.93487</v>
       </c>
       <c r="C88" t="n">
-        <v>0.743336</v>
+        <v>0.86069</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26532</v>
+        <v>1.73214</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.7109</v>
+        <v>1.99317</v>
       </c>
       <c r="C89" t="n">
-        <v>0.756002</v>
+        <v>0.8740599999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.30007</v>
+        <v>1.78399</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.76213</v>
+        <v>2.04564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771475</v>
+        <v>0.887937</v>
       </c>
       <c r="D90" t="n">
-        <v>1.33633</v>
+        <v>1.83516</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.8049</v>
+        <v>2.09668</v>
       </c>
       <c r="C91" t="n">
-        <v>0.784995</v>
+        <v>0.9011439999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36809</v>
+        <v>1.88505</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84186</v>
+        <v>2.15218</v>
       </c>
       <c r="C92" t="n">
-        <v>0.789266</v>
+        <v>0.913156</v>
       </c>
       <c r="D92" t="n">
-        <v>1.5464</v>
+        <v>2.15275</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06056</v>
+        <v>2.43002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.793835</v>
+        <v>0.920396</v>
       </c>
       <c r="D93" t="n">
-        <v>1.56269</v>
+        <v>2.18877</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.08724</v>
+        <v>2.46134</v>
       </c>
       <c r="C94" t="n">
-        <v>0.801808</v>
+        <v>0.930471</v>
       </c>
       <c r="D94" t="n">
-        <v>1.58448</v>
+        <v>2.21688</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.116</v>
+        <v>2.49719</v>
       </c>
       <c r="C95" t="n">
-        <v>0.811537</v>
+        <v>0.9376719999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>1.60714</v>
+        <v>2.24261</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.14578</v>
+        <v>2.53255</v>
       </c>
       <c r="C96" t="n">
-        <v>0.816064</v>
+        <v>0.948618</v>
       </c>
       <c r="D96" t="n">
-        <v>1.62347</v>
+        <v>2.28155</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.17123</v>
+        <v>2.56607</v>
       </c>
       <c r="C97" t="n">
-        <v>0.828713</v>
+        <v>0.9568759999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1.64087</v>
+        <v>2.30761</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.19287</v>
+        <v>2.5921</v>
       </c>
       <c r="C98" t="n">
-        <v>0.836398</v>
+        <v>0.9645590000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6638</v>
+        <v>2.34057</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.21983</v>
+        <v>2.62794</v>
       </c>
       <c r="C99" t="n">
-        <v>0.846069</v>
+        <v>0.976671</v>
       </c>
       <c r="D99" t="n">
-        <v>1.67746</v>
+        <v>2.36779</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24482</v>
+        <v>2.65548</v>
       </c>
       <c r="C100" t="n">
-        <v>0.855784</v>
+        <v>0.984264</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69365</v>
+        <v>2.39774</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.26962</v>
+        <v>2.69155</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8637359999999999</v>
+        <v>0.995978</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71353</v>
+        <v>2.4195</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29311</v>
+        <v>2.72293</v>
       </c>
       <c r="C102" t="n">
-        <v>0.873898</v>
+        <v>1.00855</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73933</v>
+        <v>2.454</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.31746</v>
+        <v>2.75455</v>
       </c>
       <c r="C103" t="n">
-        <v>0.886372</v>
+        <v>1.02008</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73912</v>
+        <v>2.47508</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34101</v>
+        <v>2.78536</v>
       </c>
       <c r="C104" t="n">
-        <v>0.895524</v>
+        <v>1.03144</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75438</v>
+        <v>2.51638</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36371</v>
+        <v>2.82188</v>
       </c>
       <c r="C105" t="n">
-        <v>0.907254</v>
+        <v>1.045</v>
       </c>
       <c r="D105" t="n">
-        <v>1.76961</v>
+        <v>2.54061</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38453</v>
+        <v>2.85138</v>
       </c>
       <c r="C106" t="n">
-        <v>0.918149</v>
+        <v>1.05933</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78567</v>
+        <v>2.56602</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.49912</v>
+        <v>2.95871</v>
       </c>
       <c r="C107" t="n">
-        <v>0.865745</v>
+        <v>1.00309</v>
       </c>
       <c r="D107" t="n">
-        <v>1.89079</v>
+        <v>2.69951</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.51093</v>
+        <v>2.97778</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8718939999999999</v>
+        <v>1.00935</v>
       </c>
       <c r="D108" t="n">
-        <v>1.8905</v>
+        <v>2.70004</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.52475</v>
+        <v>2.99752</v>
       </c>
       <c r="C109" t="n">
-        <v>0.879946</v>
+        <v>1.01857</v>
       </c>
       <c r="D109" t="n">
-        <v>1.91396</v>
+        <v>2.7143</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.54147</v>
+        <v>3.0147</v>
       </c>
       <c r="C110" t="n">
-        <v>0.889138</v>
+        <v>1.02805</v>
       </c>
       <c r="D110" t="n">
-        <v>1.9202</v>
+        <v>2.73529</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55628</v>
+        <v>3.03741</v>
       </c>
       <c r="C111" t="n">
-        <v>0.897455</v>
+        <v>1.03647</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91934</v>
+        <v>2.75421</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57138</v>
+        <v>3.04809</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9048310000000001</v>
+        <v>1.04423</v>
       </c>
       <c r="D112" t="n">
-        <v>1.92678</v>
+        <v>2.7641</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.58545</v>
+        <v>3.07245</v>
       </c>
       <c r="C113" t="n">
-        <v>0.917782</v>
+        <v>1.05629</v>
       </c>
       <c r="D113" t="n">
-        <v>1.9376</v>
+        <v>2.77911</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.59884</v>
+        <v>3.09272</v>
       </c>
       <c r="C114" t="n">
-        <v>0.923384</v>
+        <v>1.06487</v>
       </c>
       <c r="D114" t="n">
-        <v>1.94318</v>
+        <v>2.79168</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.60789</v>
+        <v>3.11117</v>
       </c>
       <c r="C115" t="n">
-        <v>0.934355</v>
+        <v>1.07513</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9613</v>
+        <v>2.80117</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62375</v>
+        <v>3.12988</v>
       </c>
       <c r="C116" t="n">
-        <v>0.939793</v>
+        <v>1.0861</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96596</v>
+        <v>2.82285</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.64091</v>
+        <v>3.1503</v>
       </c>
       <c r="C117" t="n">
-        <v>0.951355</v>
+        <v>1.10095</v>
       </c>
       <c r="D117" t="n">
-        <v>1.97184</v>
+        <v>2.83403</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.6521</v>
+        <v>3.16971</v>
       </c>
       <c r="C118" t="n">
-        <v>0.965452</v>
+        <v>1.11078</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98316</v>
+        <v>2.84953</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.67066</v>
+        <v>3.19242</v>
       </c>
       <c r="C119" t="n">
-        <v>0.972505</v>
+        <v>1.12482</v>
       </c>
       <c r="D119" t="n">
-        <v>1.99659</v>
+        <v>2.86426</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.544005</v>
+        <v>0.547154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.295296</v>
+        <v>0.322846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340769</v>
+        <v>0.36262</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551833</v>
+        <v>0.55487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.301634</v>
+        <v>0.327743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343678</v>
+        <v>0.365774</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557146</v>
+        <v>0.561366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306739</v>
+        <v>0.333227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.344458</v>
+        <v>0.362735</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.557792</v>
+        <v>0.560659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307451</v>
+        <v>0.335279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345317</v>
+        <v>0.366375</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5640309999999999</v>
+        <v>0.570553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318475</v>
+        <v>0.343712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.350945</v>
+        <v>0.372942</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.570798</v>
+        <v>0.573718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328213</v>
+        <v>0.353616</v>
       </c>
       <c r="D7" t="n">
-        <v>0.365583</v>
+        <v>0.386608</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.587974</v>
+        <v>0.590104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.330851</v>
+        <v>0.357088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.371099</v>
+        <v>0.394344</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.593958</v>
+        <v>0.6033770000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.332963</v>
+        <v>0.359224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375446</v>
+        <v>0.399888</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.607363</v>
+        <v>0.612569</v>
       </c>
       <c r="C10" t="n">
-        <v>0.342452</v>
+        <v>0.366972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382462</v>
+        <v>0.405519</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.616181</v>
+        <v>0.623241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341915</v>
+        <v>0.366629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388381</v>
+        <v>0.41019</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.623488</v>
+        <v>0.628598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.347728</v>
+        <v>0.372887</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396406</v>
+        <v>0.415283</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.632131</v>
+        <v>0.63301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.350157</v>
+        <v>0.374913</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401637</v>
+        <v>0.420868</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.64184</v>
+        <v>0.641418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.351084</v>
+        <v>0.375741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.409902</v>
+        <v>0.431059</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.653004</v>
+        <v>0.655084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.361436</v>
+        <v>0.385722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.412118</v>
+        <v>0.429709</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.653049</v>
+        <v>0.653597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.364346</v>
+        <v>0.389629</v>
       </c>
       <c r="D16" t="n">
-        <v>0.415084</v>
+        <v>0.438707</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6617150000000001</v>
+        <v>0.670251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.36536</v>
+        <v>0.393261</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422039</v>
+        <v>0.444294</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.669749</v>
+        <v>0.673343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.373782</v>
+        <v>0.398858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426331</v>
+        <v>0.448615</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.678472</v>
+        <v>0.683706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3763</v>
+        <v>0.401051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4313</v>
+        <v>0.453514</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.689428</v>
+        <v>0.6971079999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.38383</v>
+        <v>0.410834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.437554</v>
+        <v>0.461982</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.699885</v>
+        <v>0.701852</v>
       </c>
       <c r="C21" t="n">
-        <v>0.385128</v>
+        <v>0.410496</v>
       </c>
       <c r="D21" t="n">
-        <v>0.447301</v>
+        <v>0.468443</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.702651</v>
+        <v>0.705986</v>
       </c>
       <c r="C22" t="n">
-        <v>0.389067</v>
+        <v>0.413994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.449835</v>
+        <v>0.471429</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.716706</v>
+        <v>0.71937</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39082</v>
+        <v>0.415051</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458585</v>
+        <v>0.477822</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.721892</v>
+        <v>0.724424</v>
       </c>
       <c r="C24" t="n">
-        <v>0.395708</v>
+        <v>0.421154</v>
       </c>
       <c r="D24" t="n">
-        <v>0.461484</v>
+        <v>0.481428</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.737056</v>
+        <v>0.736335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.407551</v>
+        <v>0.43151</v>
       </c>
       <c r="D25" t="n">
-        <v>0.466084</v>
+        <v>0.486058</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.73598</v>
+        <v>0.7374039999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.405193</v>
+        <v>0.429814</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471072</v>
+        <v>0.491631</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.741264</v>
+        <v>0.744631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.410519</v>
+        <v>0.434692</v>
       </c>
       <c r="D27" t="n">
-        <v>0.474901</v>
+        <v>0.495458</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7470329999999999</v>
+        <v>0.75141</v>
       </c>
       <c r="C28" t="n">
-        <v>0.412506</v>
+        <v>0.438305</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475898</v>
+        <v>0.497976</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.755073</v>
+        <v>0.75853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.419051</v>
+        <v>0.445189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.481769</v>
+        <v>0.5059630000000001</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.764524</v>
+        <v>0.768047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.426201</v>
+        <v>0.449821</v>
       </c>
       <c r="D30" t="n">
-        <v>0.486709</v>
+        <v>0.50842</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.770478</v>
+        <v>0.775966</v>
       </c>
       <c r="C31" t="n">
-        <v>0.426076</v>
+        <v>0.451149</v>
       </c>
       <c r="D31" t="n">
-        <v>0.489221</v>
+        <v>0.512619</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7729549999999999</v>
+        <v>0.779493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.431165</v>
+        <v>0.456475</v>
       </c>
       <c r="D32" t="n">
-        <v>0.493791</v>
+        <v>0.517552</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.782778</v>
+        <v>0.788584</v>
       </c>
       <c r="C33" t="n">
-        <v>0.436222</v>
+        <v>0.461149</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495346</v>
+        <v>0.517926</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.79016</v>
+        <v>0.79464</v>
       </c>
       <c r="C34" t="n">
-        <v>0.437971</v>
+        <v>0.462502</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4981</v>
+        <v>0.524959</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.792262</v>
+        <v>0.799269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41269</v>
+        <v>0.440249</v>
       </c>
       <c r="D35" t="n">
-        <v>0.502982</v>
+        <v>0.52629</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.789836</v>
+        <v>0.796503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.416443</v>
+        <v>0.443693</v>
       </c>
       <c r="D36" t="n">
-        <v>0.505165</v>
+        <v>0.528239</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.794864</v>
+        <v>0.798693</v>
       </c>
       <c r="C37" t="n">
-        <v>0.418859</v>
+        <v>0.446398</v>
       </c>
       <c r="D37" t="n">
-        <v>0.505996</v>
+        <v>0.530374</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.79737</v>
+        <v>0.80569</v>
       </c>
       <c r="C38" t="n">
-        <v>0.42139</v>
+        <v>0.448901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.50952</v>
+        <v>0.53352</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.802573</v>
+        <v>0.810274</v>
       </c>
       <c r="C39" t="n">
-        <v>0.426227</v>
+        <v>0.45264</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512497</v>
+        <v>0.53622</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.810907</v>
+        <v>0.817997</v>
       </c>
       <c r="C40" t="n">
-        <v>0.429534</v>
+        <v>0.45624</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51569</v>
+        <v>0.541871</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.817186</v>
+        <v>0.82753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.432059</v>
+        <v>0.459049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.516384</v>
+        <v>0.5427149999999999</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.819047</v>
+        <v>0.824743</v>
       </c>
       <c r="C42" t="n">
-        <v>0.435005</v>
+        <v>0.462473</v>
       </c>
       <c r="D42" t="n">
-        <v>0.520763</v>
+        <v>0.547679</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.824219</v>
+        <v>0.833019</v>
       </c>
       <c r="C43" t="n">
-        <v>0.435834</v>
+        <v>0.464074</v>
       </c>
       <c r="D43" t="n">
-        <v>0.521805</v>
+        <v>0.5480660000000001</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.825918</v>
+        <v>0.83561</v>
       </c>
       <c r="C44" t="n">
-        <v>0.435819</v>
+        <v>0.464239</v>
       </c>
       <c r="D44" t="n">
-        <v>0.523741</v>
+        <v>0.551696</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.82986</v>
+        <v>0.841038</v>
       </c>
       <c r="C45" t="n">
-        <v>0.441577</v>
+        <v>0.468932</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524537</v>
+        <v>0.554463</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.835649</v>
+        <v>0.845284</v>
       </c>
       <c r="C46" t="n">
-        <v>0.439881</v>
+        <v>0.470625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.526518</v>
+        <v>0.5562550000000001</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.844956</v>
+        <v>0.854407</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445316</v>
+        <v>0.474505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.529215</v>
+        <v>0.5581660000000001</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8472730000000001</v>
+        <v>0.857284</v>
       </c>
       <c r="C48" t="n">
-        <v>0.45003</v>
+        <v>0.479957</v>
       </c>
       <c r="D48" t="n">
-        <v>0.530142</v>
+        <v>0.56069</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.85163</v>
+        <v>0.862335</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450455</v>
+        <v>0.480148</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5317809999999999</v>
+        <v>0.564612</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.857747</v>
+        <v>0.868042</v>
       </c>
       <c r="C50" t="n">
-        <v>0.438722</v>
+        <v>0.468337</v>
       </c>
       <c r="D50" t="n">
-        <v>0.533907</v>
+        <v>0.5616910000000001</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.838238</v>
+        <v>0.84689</v>
       </c>
       <c r="C51" t="n">
-        <v>0.443008</v>
+        <v>0.472071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.535547</v>
+        <v>0.56476</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.839116</v>
+        <v>0.850191</v>
       </c>
       <c r="C52" t="n">
-        <v>0.445044</v>
+        <v>0.476751</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537504</v>
+        <v>0.56552</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.845044</v>
+        <v>0.855394</v>
       </c>
       <c r="C53" t="n">
-        <v>0.447065</v>
+        <v>0.479317</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5379969999999999</v>
+        <v>0.56689</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.850373</v>
+        <v>0.859146</v>
       </c>
       <c r="C54" t="n">
-        <v>0.45126</v>
+        <v>0.480724</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5394060000000001</v>
+        <v>0.570465</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.852967</v>
+        <v>0.862876</v>
       </c>
       <c r="C55" t="n">
-        <v>0.454771</v>
+        <v>0.487215</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5420199999999999</v>
+        <v>0.574402</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.856311</v>
+        <v>0.8567630000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.454631</v>
+        <v>0.483921</v>
       </c>
       <c r="D56" t="n">
-        <v>0.54133</v>
+        <v>0.569567</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8594889999999999</v>
+        <v>0.861083</v>
       </c>
       <c r="C57" t="n">
-        <v>0.461935</v>
+        <v>0.486787</v>
       </c>
       <c r="D57" t="n">
-        <v>0.545179</v>
+        <v>0.572647</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8627899999999999</v>
+        <v>0.864716</v>
       </c>
       <c r="C58" t="n">
-        <v>0.468139</v>
+        <v>0.498314</v>
       </c>
       <c r="D58" t="n">
-        <v>0.545175</v>
+        <v>0.576363</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.866027</v>
+        <v>0.869263</v>
       </c>
       <c r="C59" t="n">
-        <v>0.476241</v>
+        <v>0.51023</v>
       </c>
       <c r="D59" t="n">
-        <v>0.546913</v>
+        <v>0.576079</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.873081</v>
+        <v>0.874488</v>
       </c>
       <c r="C60" t="n">
-        <v>0.482802</v>
+        <v>0.509664</v>
       </c>
       <c r="D60" t="n">
-        <v>0.550238</v>
+        <v>0.5830340000000001</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8799940000000001</v>
+        <v>0.875499</v>
       </c>
       <c r="C61" t="n">
-        <v>0.489965</v>
+        <v>0.519857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5548380000000001</v>
+        <v>0.57986</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.889348</v>
+        <v>0.889218</v>
       </c>
       <c r="C62" t="n">
-        <v>0.493056</v>
+        <v>0.524347</v>
       </c>
       <c r="D62" t="n">
-        <v>0.552503</v>
+        <v>0.582972</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.890277</v>
+        <v>0.888163</v>
       </c>
       <c r="C63" t="n">
-        <v>0.508767</v>
+        <v>0.537723</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560235</v>
+        <v>0.587225</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.900682</v>
+        <v>0.896742</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5441510000000001</v>
+        <v>0.597529</v>
       </c>
       <c r="D64" t="n">
-        <v>0.593675</v>
+        <v>0.626593</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.937564</v>
+        <v>0.944417</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5611930000000001</v>
+        <v>0.611468</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6037130000000001</v>
+        <v>0.647211</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9512389999999999</v>
+        <v>0.975621</v>
       </c>
       <c r="C66" t="n">
-        <v>0.571439</v>
+        <v>0.633414</v>
       </c>
       <c r="D66" t="n">
-        <v>0.605191</v>
+        <v>0.652334</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.962545</v>
+        <v>0.998827</v>
       </c>
       <c r="C67" t="n">
-        <v>0.598012</v>
+        <v>0.656361</v>
       </c>
       <c r="D67" t="n">
-        <v>0.622943</v>
+        <v>0.6714020000000001</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.988436</v>
+        <v>1.01774</v>
       </c>
       <c r="C68" t="n">
-        <v>0.625455</v>
+        <v>0.686385</v>
       </c>
       <c r="D68" t="n">
-        <v>0.645124</v>
+        <v>0.678337</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02378</v>
+        <v>1.02901</v>
       </c>
       <c r="C69" t="n">
-        <v>0.643604</v>
+        <v>0.704183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.661321</v>
+        <v>0.698757</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03453</v>
+        <v>1.08336</v>
       </c>
       <c r="C70" t="n">
-        <v>0.664652</v>
+        <v>0.73829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.664446</v>
+        <v>0.721359</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05614</v>
+        <v>1.10677</v>
       </c>
       <c r="C71" t="n">
-        <v>0.704879</v>
+        <v>0.7904600000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.684433</v>
+        <v>0.74832</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09017</v>
+        <v>1.14964</v>
       </c>
       <c r="C72" t="n">
-        <v>0.731468</v>
+        <v>0.815056</v>
       </c>
       <c r="D72" t="n">
-        <v>0.696887</v>
+        <v>0.776347</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1153</v>
+        <v>1.20241</v>
       </c>
       <c r="C73" t="n">
-        <v>0.758558</v>
+        <v>0.871248</v>
       </c>
       <c r="D73" t="n">
-        <v>0.739164</v>
+        <v>0.808208</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17914</v>
+        <v>1.24855</v>
       </c>
       <c r="C74" t="n">
-        <v>0.799194</v>
+        <v>0.892567</v>
       </c>
       <c r="D74" t="n">
-        <v>0.772463</v>
+        <v>0.840448</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23969</v>
+        <v>1.30076</v>
       </c>
       <c r="C75" t="n">
-        <v>0.836631</v>
+        <v>0.932627</v>
       </c>
       <c r="D75" t="n">
-        <v>0.802771</v>
+        <v>0.878596</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28914</v>
+        <v>1.35716</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8693689999999999</v>
+        <v>0.9883960000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.816182</v>
+        <v>0.944302</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30642</v>
+        <v>1.46589</v>
       </c>
       <c r="C77" t="n">
-        <v>0.898625</v>
+        <v>1.0398</v>
       </c>
       <c r="D77" t="n">
-        <v>0.858474</v>
+        <v>0.990372</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.39303</v>
+        <v>1.53999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.04747</v>
+        <v>1.22426</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00129</v>
+        <v>1.15141</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.58766</v>
+        <v>1.77274</v>
       </c>
       <c r="C79" t="n">
-        <v>1.08407</v>
+        <v>1.27084</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05027</v>
+        <v>1.21428</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65981</v>
+        <v>1.87815</v>
       </c>
       <c r="C80" t="n">
-        <v>1.12367</v>
+        <v>1.32064</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10187</v>
+        <v>1.26849</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.7456</v>
+        <v>1.96483</v>
       </c>
       <c r="C81" t="n">
-        <v>1.16901</v>
+        <v>1.36741</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16362</v>
+        <v>1.33918</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83363</v>
+        <v>2.0632</v>
       </c>
       <c r="C82" t="n">
-        <v>1.19927</v>
+        <v>1.40976</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2154</v>
+        <v>1.40497</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9129</v>
+        <v>2.17854</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24447</v>
+        <v>1.45553</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26887</v>
+        <v>1.46976</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99305</v>
+        <v>2.29097</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28769</v>
+        <v>1.5064</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32133</v>
+        <v>1.53627</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07766</v>
+        <v>2.38916</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32939</v>
+        <v>1.55445</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38571</v>
+        <v>1.61467</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18523</v>
+        <v>2.50187</v>
       </c>
       <c r="C86" t="n">
-        <v>1.3684</v>
+        <v>1.60316</v>
       </c>
       <c r="D86" t="n">
-        <v>1.4363</v>
+        <v>1.67744</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26013</v>
+        <v>2.60695</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41018</v>
+        <v>1.65131</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49435</v>
+        <v>1.7487</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34573</v>
+        <v>2.72886</v>
       </c>
       <c r="C88" t="n">
-        <v>1.4519</v>
+        <v>1.703</v>
       </c>
       <c r="D88" t="n">
-        <v>1.55695</v>
+        <v>1.82648</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43856</v>
+        <v>2.8315</v>
       </c>
       <c r="C89" t="n">
-        <v>1.49551</v>
+        <v>1.75329</v>
       </c>
       <c r="D89" t="n">
-        <v>1.61756</v>
+        <v>1.89043</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52494</v>
+        <v>2.941</v>
       </c>
       <c r="C90" t="n">
-        <v>1.53598</v>
+        <v>1.79406</v>
       </c>
       <c r="D90" t="n">
-        <v>1.667</v>
+        <v>1.95534</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60838</v>
+        <v>3.04191</v>
       </c>
       <c r="C91" t="n">
-        <v>1.58403</v>
+        <v>1.84826</v>
       </c>
       <c r="D91" t="n">
-        <v>1.72007</v>
+        <v>2.02016</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.70545</v>
+        <v>3.14689</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65612</v>
+        <v>1.95492</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83585</v>
+        <v>2.16947</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86553</v>
+        <v>3.36143</v>
       </c>
       <c r="C93" t="n">
-        <v>1.68966</v>
+        <v>1.9895</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88738</v>
+        <v>2.2233</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.93903</v>
+        <v>3.45629</v>
       </c>
       <c r="C94" t="n">
-        <v>1.72009</v>
+        <v>2.02443</v>
       </c>
       <c r="D94" t="n">
-        <v>1.9285</v>
+        <v>2.29149</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.00629</v>
+        <v>3.52787</v>
       </c>
       <c r="C95" t="n">
-        <v>1.75434</v>
+        <v>2.07041</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97501</v>
+        <v>2.34048</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.0748</v>
+        <v>3.62372</v>
       </c>
       <c r="C96" t="n">
-        <v>1.79269</v>
+        <v>2.11349</v>
       </c>
       <c r="D96" t="n">
-        <v>2.01811</v>
+        <v>2.40175</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.14401</v>
+        <v>3.71899</v>
       </c>
       <c r="C97" t="n">
-        <v>1.81716</v>
+        <v>2.13178</v>
       </c>
       <c r="D97" t="n">
-        <v>2.06114</v>
+        <v>2.45644</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.22086</v>
+        <v>3.78862</v>
       </c>
       <c r="C98" t="n">
-        <v>1.85407</v>
+        <v>2.17938</v>
       </c>
       <c r="D98" t="n">
-        <v>2.10493</v>
+        <v>2.5277</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.28184</v>
+        <v>3.86285</v>
       </c>
       <c r="C99" t="n">
-        <v>1.90071</v>
+        <v>2.2277</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14168</v>
+        <v>2.55378</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.34127</v>
+        <v>3.93008</v>
       </c>
       <c r="C100" t="n">
-        <v>1.91916</v>
+        <v>2.25251</v>
       </c>
       <c r="D100" t="n">
-        <v>2.18742</v>
+        <v>2.63377</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40045</v>
+        <v>4.0007</v>
       </c>
       <c r="C101" t="n">
-        <v>1.95578</v>
+        <v>2.28502</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21039</v>
+        <v>2.66149</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46941</v>
+        <v>4.0685</v>
       </c>
       <c r="C102" t="n">
-        <v>1.98437</v>
+        <v>2.32335</v>
       </c>
       <c r="D102" t="n">
-        <v>2.2476</v>
+        <v>2.71745</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.508</v>
+        <v>4.14767</v>
       </c>
       <c r="C103" t="n">
-        <v>2.01133</v>
+        <v>2.36085</v>
       </c>
       <c r="D103" t="n">
-        <v>2.26864</v>
+        <v>2.73282</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.58177</v>
+        <v>4.23343</v>
       </c>
       <c r="C104" t="n">
-        <v>2.04249</v>
+        <v>2.39311</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31303</v>
+        <v>2.8016</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.65137</v>
+        <v>4.30497</v>
       </c>
       <c r="C105" t="n">
-        <v>2.08683</v>
+        <v>2.44638</v>
       </c>
       <c r="D105" t="n">
-        <v>2.33091</v>
+        <v>2.8167</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6882</v>
+        <v>4.37404</v>
       </c>
       <c r="C106" t="n">
-        <v>2.10652</v>
+        <v>2.48018</v>
       </c>
       <c r="D106" t="n">
-        <v>2.362</v>
+        <v>2.87409</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.71532</v>
+        <v>4.42587</v>
       </c>
       <c r="C107" t="n">
-        <v>2.08975</v>
+        <v>2.45667</v>
       </c>
       <c r="D107" t="n">
-        <v>2.42599</v>
+        <v>2.96046</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.75194</v>
+        <v>4.47314</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10051</v>
+        <v>2.49044</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45305</v>
+        <v>2.98526</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79924</v>
+        <v>4.52778</v>
       </c>
       <c r="C109" t="n">
-        <v>2.12606</v>
+        <v>2.53107</v>
       </c>
       <c r="D109" t="n">
-        <v>2.48077</v>
+        <v>3.00945</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.82891</v>
+        <v>4.59028</v>
       </c>
       <c r="C110" t="n">
-        <v>2.1654</v>
+        <v>2.54631</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50774</v>
+        <v>3.03914</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.88277</v>
+        <v>4.64301</v>
       </c>
       <c r="C111" t="n">
-        <v>2.19263</v>
+        <v>2.57353</v>
       </c>
       <c r="D111" t="n">
-        <v>2.54719</v>
+        <v>3.07164</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.92191</v>
+        <v>4.7017</v>
       </c>
       <c r="C112" t="n">
-        <v>2.20497</v>
+        <v>2.61459</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56061</v>
+        <v>3.11683</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.97331</v>
+        <v>4.76002</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23681</v>
+        <v>2.63947</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58823</v>
+        <v>3.14349</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.01342</v>
+        <v>4.80772</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25173</v>
+        <v>2.6754</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60947</v>
+        <v>3.16967</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06035</v>
+        <v>4.8664</v>
       </c>
       <c r="C115" t="n">
-        <v>2.2861</v>
+        <v>2.71013</v>
       </c>
       <c r="D115" t="n">
-        <v>2.6286</v>
+        <v>3.20539</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.09028</v>
+        <v>4.91656</v>
       </c>
       <c r="C116" t="n">
-        <v>2.30128</v>
+        <v>2.72585</v>
       </c>
       <c r="D116" t="n">
-        <v>2.65366</v>
+        <v>3.24226</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.13213</v>
+        <v>4.96824</v>
       </c>
       <c r="C117" t="n">
-        <v>2.34119</v>
+        <v>2.76978</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67528</v>
+        <v>3.2758</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.18485</v>
+        <v>5.0181</v>
       </c>
       <c r="C118" t="n">
-        <v>2.35604</v>
+        <v>2.80427</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69929</v>
+        <v>3.28527</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.23118</v>
+        <v>5.06675</v>
       </c>
       <c r="C119" t="n">
-        <v>2.38163</v>
+        <v>2.8318</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71919</v>
+        <v>3.34006</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573249</v>
+        <v>0.579306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315097</v>
+        <v>0.338774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334741</v>
+        <v>0.356699</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.578867</v>
+        <v>0.5845359999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.319102</v>
+        <v>0.342748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33917</v>
+        <v>0.359576</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.587862</v>
+        <v>0.596042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.323556</v>
+        <v>0.349053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.342463</v>
+        <v>0.36723</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.592502</v>
+        <v>0.604837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333729</v>
+        <v>0.3602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.344937</v>
+        <v>0.372441</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6010760000000001</v>
+        <v>0.616524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.333894</v>
+        <v>0.36337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.345901</v>
+        <v>0.372508</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.607534</v>
+        <v>0.619957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.344867</v>
+        <v>0.372292</v>
       </c>
       <c r="D7" t="n">
-        <v>0.354632</v>
+        <v>0.382771</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.619487</v>
+        <v>0.631178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.354581</v>
+        <v>0.382864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.357246</v>
+        <v>0.384896</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.62698</v>
+        <v>0.641114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.360199</v>
+        <v>0.389738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.36261</v>
+        <v>0.390503</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.641794</v>
+        <v>0.651578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.371234</v>
+        <v>0.399496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36681</v>
+        <v>0.395753</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.652874</v>
+        <v>0.660276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.361798</v>
+        <v>0.389393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.376712</v>
+        <v>0.40079</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634955</v>
+        <v>0.646241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.366213</v>
+        <v>0.394947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.384753</v>
+        <v>0.408247</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.647406</v>
+        <v>0.6568040000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.374973</v>
+        <v>0.40213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.390243</v>
+        <v>0.414973</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.651436</v>
+        <v>0.667651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.380248</v>
+        <v>0.408887</v>
       </c>
       <c r="D14" t="n">
-        <v>0.391232</v>
+        <v>0.418431</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6662979999999999</v>
+        <v>0.685117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391475</v>
+        <v>0.423043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.401142</v>
+        <v>0.430613</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6724560000000001</v>
+        <v>0.688271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.400122</v>
+        <v>0.428206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406541</v>
+        <v>0.430978</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.694181</v>
+        <v>0.704238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.407805</v>
+        <v>0.433448</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41272</v>
+        <v>0.436212</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.701627</v>
+        <v>0.71591</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407886</v>
+        <v>0.434801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.41681</v>
+        <v>0.441387</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.71566</v>
+        <v>0.727133</v>
       </c>
       <c r="C19" t="n">
-        <v>0.426495</v>
+        <v>0.450671</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424038</v>
+        <v>0.447729</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.73339</v>
+        <v>0.741938</v>
       </c>
       <c r="C20" t="n">
-        <v>0.438153</v>
+        <v>0.462666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429244</v>
+        <v>0.453303</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.742695</v>
+        <v>0.749804</v>
       </c>
       <c r="C21" t="n">
-        <v>0.450236</v>
+        <v>0.473117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.435259</v>
+        <v>0.457908</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.753238</v>
+        <v>0.757201</v>
       </c>
       <c r="C22" t="n">
-        <v>0.457573</v>
+        <v>0.478911</v>
       </c>
       <c r="D22" t="n">
-        <v>0.440936</v>
+        <v>0.462179</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.773208</v>
+        <v>0.779529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.468141</v>
+        <v>0.489443</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447931</v>
+        <v>0.468609</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.786403</v>
+        <v>0.791485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.476641</v>
+        <v>0.499757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450639</v>
+        <v>0.472253</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.799699</v>
+        <v>0.802863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.495575</v>
+        <v>0.515096</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458628</v>
+        <v>0.479321</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.816779</v>
+        <v>0.822632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.432294</v>
+        <v>0.456215</v>
       </c>
       <c r="D26" t="n">
-        <v>0.464897</v>
+        <v>0.486033</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.776954</v>
+        <v>0.787294</v>
       </c>
       <c r="C27" t="n">
-        <v>0.44125</v>
+        <v>0.462063</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468864</v>
+        <v>0.492833</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7862130000000001</v>
+        <v>0.797174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.446735</v>
+        <v>0.471797</v>
       </c>
       <c r="D28" t="n">
-        <v>0.472045</v>
+        <v>0.498249</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.799291</v>
+        <v>0.808372</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451521</v>
+        <v>0.474374</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476119</v>
+        <v>0.500528</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.812231</v>
+        <v>0.821428</v>
       </c>
       <c r="C30" t="n">
-        <v>0.46088</v>
+        <v>0.483083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481623</v>
+        <v>0.509462</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822813</v>
+        <v>0.832404</v>
       </c>
       <c r="C31" t="n">
-        <v>0.469005</v>
+        <v>0.491528</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485632</v>
+        <v>0.509091</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.836614</v>
+        <v>0.844646</v>
       </c>
       <c r="C32" t="n">
-        <v>0.477369</v>
+        <v>0.497368</v>
       </c>
       <c r="D32" t="n">
-        <v>0.48877</v>
+        <v>0.515822</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.846971</v>
+        <v>0.854089</v>
       </c>
       <c r="C33" t="n">
-        <v>0.484423</v>
+        <v>0.507387</v>
       </c>
       <c r="D33" t="n">
-        <v>0.492984</v>
+        <v>0.515676</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.860714</v>
+        <v>0.868656</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49424</v>
+        <v>0.514334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.495049</v>
+        <v>0.5236</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.869877</v>
+        <v>0.879486</v>
       </c>
       <c r="C35" t="n">
-        <v>0.503115</v>
+        <v>0.526101</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499006</v>
+        <v>0.523635</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.884947</v>
+        <v>0.894351</v>
       </c>
       <c r="C36" t="n">
-        <v>0.515973</v>
+        <v>0.5367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.501224</v>
+        <v>0.53156</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.899054</v>
+        <v>0.908322</v>
       </c>
       <c r="C37" t="n">
-        <v>0.526571</v>
+        <v>0.546858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.503395</v>
+        <v>0.532206</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.910465</v>
+        <v>0.921573</v>
       </c>
       <c r="C38" t="n">
-        <v>0.537209</v>
+        <v>0.5583090000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.506986</v>
+        <v>0.53304</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9239540000000001</v>
+        <v>0.931994</v>
       </c>
       <c r="C39" t="n">
-        <v>0.548898</v>
+        <v>0.572664</v>
       </c>
       <c r="D39" t="n">
-        <v>0.509517</v>
+        <v>0.533093</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9380230000000001</v>
+        <v>0.947454</v>
       </c>
       <c r="C40" t="n">
-        <v>0.496058</v>
+        <v>0.517561</v>
       </c>
       <c r="D40" t="n">
-        <v>0.514149</v>
+        <v>0.54416</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.876502</v>
+        <v>0.883948</v>
       </c>
       <c r="C41" t="n">
-        <v>0.501212</v>
+        <v>0.521922</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517412</v>
+        <v>0.548713</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.888379</v>
+        <v>0.895224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.510506</v>
+        <v>0.5329199999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5199510000000001</v>
+        <v>0.551488</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.896711</v>
+        <v>0.903914</v>
       </c>
       <c r="C43" t="n">
-        <v>0.515041</v>
+        <v>0.5356610000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523571</v>
+        <v>0.553096</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.902056</v>
+        <v>0.9089429999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.52446</v>
+        <v>0.545438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.524879</v>
+        <v>0.557477</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.914875</v>
+        <v>0.921473</v>
       </c>
       <c r="C45" t="n">
-        <v>0.529513</v>
+        <v>0.551745</v>
       </c>
       <c r="D45" t="n">
-        <v>0.526831</v>
+        <v>0.560016</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.921173</v>
+        <v>0.928226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.539822</v>
+        <v>0.562011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5296380000000001</v>
+        <v>0.562877</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9325369999999999</v>
+        <v>0.938882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.546787</v>
+        <v>0.568679</v>
       </c>
       <c r="D47" t="n">
-        <v>0.530585</v>
+        <v>0.563056</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.942549</v>
+        <v>0.950801</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5566759999999999</v>
+        <v>0.576478</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5318349999999999</v>
+        <v>0.564074</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.949666</v>
+        <v>0.957338</v>
       </c>
       <c r="C49" t="n">
-        <v>0.564734</v>
+        <v>0.58594</v>
       </c>
       <c r="D49" t="n">
-        <v>0.535449</v>
+        <v>0.568886</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9641189999999999</v>
+        <v>0.971305</v>
       </c>
       <c r="C50" t="n">
-        <v>0.57323</v>
+        <v>0.59517</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537609</v>
+        <v>0.571528</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.971214</v>
+        <v>0.978589</v>
       </c>
       <c r="C51" t="n">
-        <v>0.585726</v>
+        <v>0.6079870000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.537624</v>
+        <v>0.570709</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.985726</v>
+        <v>0.992717</v>
       </c>
       <c r="C52" t="n">
-        <v>0.596676</v>
+        <v>0.61771</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540794</v>
+        <v>0.574551</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.994664</v>
+        <v>1.00127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6029139999999999</v>
+        <v>0.628001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.539525</v>
+        <v>0.574379</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00396</v>
+        <v>1.01289</v>
       </c>
       <c r="C54" t="n">
-        <v>0.536487</v>
+        <v>0.561149</v>
       </c>
       <c r="D54" t="n">
-        <v>0.54294</v>
+        <v>0.576886</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.934474</v>
+        <v>0.941185</v>
       </c>
       <c r="C55" t="n">
-        <v>0.539416</v>
+        <v>0.5630579999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5451319999999999</v>
+        <v>0.57652</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.941454</v>
+        <v>0.948895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.548197</v>
+        <v>0.571986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.545688</v>
+        <v>0.574055</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.949523</v>
+        <v>0.95662</v>
       </c>
       <c r="C57" t="n">
-        <v>0.555274</v>
+        <v>0.581294</v>
       </c>
       <c r="D57" t="n">
-        <v>0.546921</v>
+        <v>0.5792079999999999</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.958685</v>
+        <v>0.965804</v>
       </c>
       <c r="C58" t="n">
-        <v>0.563469</v>
+        <v>0.5879490000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.548616</v>
+        <v>0.5834549999999999</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.967563</v>
+        <v>0.974607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.569631</v>
+        <v>0.595649</v>
       </c>
       <c r="D59" t="n">
-        <v>0.550701</v>
+        <v>0.584071</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.974965</v>
+        <v>0.98138</v>
       </c>
       <c r="C60" t="n">
-        <v>0.57969</v>
+        <v>0.6056</v>
       </c>
       <c r="D60" t="n">
-        <v>0.550844</v>
+        <v>0.581958</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.983521</v>
+        <v>0.989863</v>
       </c>
       <c r="C61" t="n">
-        <v>0.589353</v>
+        <v>0.615573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5539190000000001</v>
+        <v>0.589681</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.995112</v>
+        <v>1.00083</v>
       </c>
       <c r="C62" t="n">
-        <v>0.599042</v>
+        <v>0.627918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.554664</v>
+        <v>0.586687</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00483</v>
+        <v>1.01002</v>
       </c>
       <c r="C63" t="n">
-        <v>0.610287</v>
+        <v>0.641199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.556157</v>
+        <v>0.587048</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01076</v>
+        <v>1.01578</v>
       </c>
       <c r="C64" t="n">
-        <v>0.622131</v>
+        <v>0.6541670000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.55789</v>
+        <v>0.59099</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02252</v>
+        <v>1.02884</v>
       </c>
       <c r="C65" t="n">
-        <v>0.637833</v>
+        <v>0.671245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.559324</v>
+        <v>0.595465</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.03309</v>
+        <v>1.03942</v>
       </c>
       <c r="C66" t="n">
-        <v>0.650846</v>
+        <v>0.681196</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5628609999999999</v>
+        <v>0.598537</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05039</v>
+        <v>1.05858</v>
       </c>
       <c r="C67" t="n">
-        <v>0.671542</v>
+        <v>0.702541</v>
       </c>
       <c r="D67" t="n">
-        <v>0.563005</v>
+        <v>0.601073</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.06235</v>
+        <v>1.0746</v>
       </c>
       <c r="C68" t="n">
-        <v>0.601597</v>
+        <v>0.64279</v>
       </c>
       <c r="D68" t="n">
-        <v>0.578772</v>
+        <v>0.625906</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01643</v>
+        <v>1.03389</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6237819999999999</v>
+        <v>0.671629</v>
       </c>
       <c r="D69" t="n">
-        <v>0.587637</v>
+        <v>0.63466</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03169</v>
+        <v>1.06031</v>
       </c>
       <c r="C70" t="n">
-        <v>0.649024</v>
+        <v>0.703168</v>
       </c>
       <c r="D70" t="n">
-        <v>0.599468</v>
+        <v>0.652188</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0582</v>
+        <v>1.08779</v>
       </c>
       <c r="C71" t="n">
-        <v>0.681578</v>
+        <v>0.736112</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6141720000000001</v>
+        <v>0.66945</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08931</v>
+        <v>1.12147</v>
       </c>
       <c r="C72" t="n">
-        <v>0.709927</v>
+        <v>0.7671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6306079999999999</v>
+        <v>0.687709</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1272</v>
+        <v>1.15894</v>
       </c>
       <c r="C73" t="n">
-        <v>0.749057</v>
+        <v>0.809034</v>
       </c>
       <c r="D73" t="n">
-        <v>0.651151</v>
+        <v>0.708456</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16398</v>
+        <v>1.20099</v>
       </c>
       <c r="C74" t="n">
-        <v>0.784819</v>
+        <v>0.85016</v>
       </c>
       <c r="D74" t="n">
-        <v>0.66978</v>
+        <v>0.729968</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.20832</v>
+        <v>1.24795</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823153</v>
+        <v>0.894491</v>
       </c>
       <c r="D75" t="n">
-        <v>0.691922</v>
+        <v>0.758875</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.25032</v>
+        <v>1.30393</v>
       </c>
       <c r="C76" t="n">
-        <v>0.865215</v>
+        <v>0.944747</v>
       </c>
       <c r="D76" t="n">
-        <v>0.713859</v>
+        <v>0.787658</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30416</v>
+        <v>1.3555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.917737</v>
+        <v>0.999066</v>
       </c>
       <c r="D77" t="n">
-        <v>0.745073</v>
+        <v>0.81935</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36802</v>
+        <v>1.42673</v>
       </c>
       <c r="C78" t="n">
-        <v>0.967736</v>
+        <v>1.05433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.780158</v>
+        <v>0.8572380000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.43819</v>
+        <v>1.50972</v>
       </c>
       <c r="C79" t="n">
-        <v>1.02158</v>
+        <v>1.11627</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818084</v>
+        <v>0.908251</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51413</v>
+        <v>1.58598</v>
       </c>
       <c r="C80" t="n">
-        <v>1.07459</v>
+        <v>1.17311</v>
       </c>
       <c r="D80" t="n">
-        <v>0.85965</v>
+        <v>0.95264</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59289</v>
+        <v>1.68739</v>
       </c>
       <c r="C81" t="n">
-        <v>1.13552</v>
+        <v>1.24427</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9000899999999999</v>
+        <v>1.00747</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68524</v>
+        <v>1.79933</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1994</v>
+        <v>1.31784</v>
       </c>
       <c r="D82" t="n">
-        <v>0.949868</v>
+        <v>1.07153</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78336</v>
+        <v>1.90406</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16924</v>
+        <v>1.307</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06242</v>
+        <v>1.20885</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.7993</v>
+        <v>1.97184</v>
       </c>
       <c r="C84" t="n">
-        <v>1.22647</v>
+        <v>1.37057</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1195</v>
+        <v>1.27812</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90578</v>
+        <v>2.10333</v>
       </c>
       <c r="C85" t="n">
-        <v>1.28628</v>
+        <v>1.4417</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17556</v>
+        <v>1.35282</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.00312</v>
+        <v>2.23006</v>
       </c>
       <c r="C86" t="n">
-        <v>1.34899</v>
+        <v>1.52235</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23076</v>
+        <v>1.42732</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12038</v>
+        <v>2.36428</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41878</v>
+        <v>1.6002</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29523</v>
+        <v>1.50416</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23764</v>
+        <v>2.48849</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49579</v>
+        <v>1.68252</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35816</v>
+        <v>1.5807</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.35834</v>
+        <v>2.65283</v>
       </c>
       <c r="C89" t="n">
-        <v>1.56883</v>
+        <v>1.76987</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41773</v>
+        <v>1.64474</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48672</v>
+        <v>2.7952</v>
       </c>
       <c r="C90" t="n">
-        <v>1.64953</v>
+        <v>1.85701</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47789</v>
+        <v>1.71621</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62551</v>
+        <v>2.94527</v>
       </c>
       <c r="C91" t="n">
-        <v>1.7315</v>
+        <v>1.95153</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53488</v>
+        <v>1.77993</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74749</v>
+        <v>3.07742</v>
       </c>
       <c r="C92" t="n">
-        <v>1.81921</v>
+        <v>2.04087</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59493</v>
+        <v>1.84978</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88541</v>
+        <v>3.22577</v>
       </c>
       <c r="C93" t="n">
-        <v>1.90534</v>
+        <v>2.13618</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64474</v>
+        <v>1.91839</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00122</v>
+        <v>3.38263</v>
       </c>
       <c r="C94" t="n">
-        <v>1.99088</v>
+        <v>2.23958</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69769</v>
+        <v>1.9761</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.15893</v>
+        <v>3.55583</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07882</v>
+        <v>2.33835</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74844</v>
+        <v>2.04137</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.28185</v>
+        <v>3.69436</v>
       </c>
       <c r="C96" t="n">
-        <v>2.18907</v>
+        <v>2.4719</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79666</v>
+        <v>2.10386</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.41517</v>
+        <v>3.86526</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9411</v>
+        <v>2.21626</v>
       </c>
       <c r="D97" t="n">
-        <v>1.9313</v>
+        <v>2.28527</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28773</v>
+        <v>3.74511</v>
       </c>
       <c r="C98" t="n">
-        <v>2.01149</v>
+        <v>2.28925</v>
       </c>
       <c r="D98" t="n">
-        <v>1.9773</v>
+        <v>2.32095</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.37391</v>
+        <v>3.86633</v>
       </c>
       <c r="C99" t="n">
-        <v>2.06751</v>
+        <v>2.35071</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02015</v>
+        <v>2.38386</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.46676</v>
+        <v>3.98335</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12956</v>
+        <v>2.41885</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06711</v>
+        <v>2.42353</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59946</v>
+        <v>4.10471</v>
       </c>
       <c r="C101" t="n">
-        <v>2.21263</v>
+        <v>2.50543</v>
       </c>
       <c r="D101" t="n">
-        <v>2.09536</v>
+        <v>2.47077</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.70919</v>
+        <v>4.23199</v>
       </c>
       <c r="C102" t="n">
-        <v>2.27753</v>
+        <v>2.57541</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12935</v>
+        <v>2.5232</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.80838</v>
+        <v>4.35021</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34709</v>
+        <v>2.64914</v>
       </c>
       <c r="D103" t="n">
-        <v>2.17084</v>
+        <v>2.57136</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.92218</v>
+        <v>4.44629</v>
       </c>
       <c r="C104" t="n">
-        <v>2.41159</v>
+        <v>2.73352</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19251</v>
+        <v>2.641</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00901</v>
+        <v>4.55505</v>
       </c>
       <c r="C105" t="n">
-        <v>2.4835</v>
+        <v>2.80879</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24079</v>
+        <v>2.64785</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.08918</v>
+        <v>4.69851</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56311</v>
+        <v>2.88855</v>
       </c>
       <c r="D106" t="n">
-        <v>2.25354</v>
+        <v>2.69006</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.22109</v>
+        <v>4.82619</v>
       </c>
       <c r="C107" t="n">
-        <v>2.6303</v>
+        <v>2.97185</v>
       </c>
       <c r="D107" t="n">
-        <v>2.28358</v>
+        <v>2.72498</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31623</v>
+        <v>4.95735</v>
       </c>
       <c r="C108" t="n">
-        <v>2.73643</v>
+        <v>3.0807</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31085</v>
+        <v>2.77694</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.41866</v>
+        <v>5.09716</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80056</v>
+        <v>3.17916</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34209</v>
+        <v>2.79365</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.55685</v>
+        <v>5.20919</v>
       </c>
       <c r="C110" t="n">
-        <v>2.8726</v>
+        <v>3.28007</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38053</v>
+        <v>2.8356</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65198</v>
+        <v>5.34351</v>
       </c>
       <c r="C111" t="n">
-        <v>2.49405</v>
+        <v>2.87469</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47363</v>
+        <v>2.96337</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.27194</v>
+        <v>5.02066</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55088</v>
+        <v>2.9525</v>
       </c>
       <c r="D112" t="n">
-        <v>2.5012</v>
+        <v>3.0308</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.37154</v>
+        <v>5.11037</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59894</v>
+        <v>3.0172</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51604</v>
+        <v>3.03048</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43901</v>
+        <v>5.19115</v>
       </c>
       <c r="C114" t="n">
-        <v>2.65533</v>
+        <v>3.06401</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53582</v>
+        <v>3.05024</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.52827</v>
+        <v>5.29508</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72872</v>
+        <v>3.15096</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57225</v>
+        <v>3.10938</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.6272</v>
+        <v>5.3998</v>
       </c>
       <c r="C116" t="n">
-        <v>2.78754</v>
+        <v>3.21996</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58987</v>
+        <v>3.12364</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.70274</v>
+        <v>5.49859</v>
       </c>
       <c r="C117" t="n">
-        <v>2.85703</v>
+        <v>3.29347</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61766</v>
+        <v>3.16333</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.80104</v>
+        <v>5.59968</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92962</v>
+        <v>3.37756</v>
       </c>
       <c r="D118" t="n">
-        <v>2.63675</v>
+        <v>3.19377</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.88246</v>
+        <v>5.70002</v>
       </c>
       <c r="C119" t="n">
-        <v>3.00843</v>
+        <v>3.4613</v>
       </c>
       <c r="D119" t="n">
-        <v>2.64952</v>
+        <v>3.19538</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.417014</v>
+        <v>0.412323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185633</v>
+        <v>0.182614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.262216</v>
+        <v>0.24849</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.422013</v>
+        <v>0.410894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18796</v>
+        <v>0.186421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.267271</v>
+        <v>0.263024</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.427767</v>
+        <v>0.423007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192506</v>
+        <v>0.190617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.274996</v>
+        <v>0.266246</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.433564</v>
+        <v>0.426061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19436</v>
+        <v>0.193486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.276549</v>
+        <v>0.270149</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.434473</v>
+        <v>0.431732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197572</v>
+        <v>0.196903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.282021</v>
+        <v>0.273023</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.442849</v>
+        <v>0.435654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.180439</v>
+        <v>0.18091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.287724</v>
+        <v>0.279915</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416151</v>
+        <v>0.410802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182757</v>
+        <v>0.18291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.290537</v>
+        <v>0.287176</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.419675</v>
+        <v>0.418318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184904</v>
+        <v>0.18498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296127</v>
+        <v>0.291215</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42533</v>
+        <v>0.423319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187191</v>
+        <v>0.187338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.302574</v>
+        <v>0.299618</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.430932</v>
+        <v>0.430545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189003</v>
+        <v>0.188933</v>
       </c>
       <c r="D11" t="n">
-        <v>0.305878</v>
+        <v>0.302261</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.435021</v>
+        <v>0.435442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190942</v>
+        <v>0.191166</v>
       </c>
       <c r="D12" t="n">
-        <v>0.308797</v>
+        <v>0.304832</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.438763</v>
+        <v>0.439781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193774</v>
+        <v>0.193676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.317922</v>
+        <v>0.312306</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.445845</v>
+        <v>0.445116</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196168</v>
+        <v>0.196201</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323041</v>
+        <v>0.31862</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451093</v>
+        <v>0.451705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.198545</v>
+        <v>0.198779</v>
       </c>
       <c r="D15" t="n">
-        <v>0.325707</v>
+        <v>0.323921</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.455507</v>
+        <v>0.456316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201443</v>
+        <v>0.201411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.334672</v>
+        <v>0.327453</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.462881</v>
+        <v>0.461414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203586</v>
+        <v>0.203399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.338837</v>
+        <v>0.332739</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.466756</v>
+        <v>0.468315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.206301</v>
+        <v>0.206511</v>
       </c>
       <c r="D18" t="n">
-        <v>0.344581</v>
+        <v>0.337475</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.472846</v>
+        <v>0.471868</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209076</v>
+        <v>0.209262</v>
       </c>
       <c r="D19" t="n">
-        <v>0.348671</v>
+        <v>0.344368</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.479323</v>
+        <v>0.48129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.211438</v>
+        <v>0.211871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.355486</v>
+        <v>0.350725</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.484424</v>
+        <v>0.486585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.190639</v>
+        <v>0.190795</v>
       </c>
       <c r="D21" t="n">
-        <v>0.361225</v>
+        <v>0.357122</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.466955</v>
+        <v>0.469469</v>
       </c>
       <c r="C22" t="n">
-        <v>0.192716</v>
+        <v>0.192735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.365419</v>
+        <v>0.361891</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47168</v>
+        <v>0.471125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194439</v>
+        <v>0.194372</v>
       </c>
       <c r="D23" t="n">
-        <v>0.369857</v>
+        <v>0.365573</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.474196</v>
+        <v>0.477406</v>
       </c>
       <c r="C24" t="n">
-        <v>0.196566</v>
+        <v>0.196396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.374623</v>
+        <v>0.368557</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.479539</v>
+        <v>0.481766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.198587</v>
+        <v>0.19841</v>
       </c>
       <c r="D25" t="n">
-        <v>0.380576</v>
+        <v>0.373987</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.48558</v>
+        <v>0.486335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.201324</v>
+        <v>0.200811</v>
       </c>
       <c r="D26" t="n">
-        <v>0.38369</v>
+        <v>0.376561</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.488387</v>
+        <v>0.489723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.202941</v>
+        <v>0.202792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.386898</v>
+        <v>0.381777</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.494198</v>
+        <v>0.494408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.205507</v>
+        <v>0.205251</v>
       </c>
       <c r="D28" t="n">
-        <v>0.391124</v>
+        <v>0.381997</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.496689</v>
+        <v>0.498391</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207673</v>
+        <v>0.207548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.393621</v>
+        <v>0.387669</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.500332</v>
+        <v>0.502444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.210186</v>
+        <v>0.210188</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397469</v>
+        <v>0.393303</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.505918</v>
+        <v>0.507135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.212589</v>
+        <v>0.212641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.40208</v>
+        <v>0.394846</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.510306</v>
+        <v>0.5127119999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.215267</v>
+        <v>0.215023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.403727</v>
+        <v>0.396543</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.515585</v>
+        <v>0.517192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217575</v>
+        <v>0.217662</v>
       </c>
       <c r="D33" t="n">
-        <v>0.407805</v>
+        <v>0.404263</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.522653</v>
+        <v>0.522359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.220063</v>
+        <v>0.21999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.411105</v>
+        <v>0.407006</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.525244</v>
+        <v>0.526236</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195672</v>
+        <v>0.195303</v>
       </c>
       <c r="D35" t="n">
-        <v>0.411597</v>
+        <v>0.406846</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.499851</v>
+        <v>0.501321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197131</v>
+        <v>0.196947</v>
       </c>
       <c r="D36" t="n">
-        <v>0.41512</v>
+        <v>0.405637</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.501528</v>
+        <v>0.503951</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199527</v>
+        <v>0.199022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.416273</v>
+        <v>0.410872</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.504736</v>
+        <v>0.506719</v>
       </c>
       <c r="C38" t="n">
-        <v>0.201266</v>
+        <v>0.201042</v>
       </c>
       <c r="D38" t="n">
-        <v>0.418786</v>
+        <v>0.41343</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.507768</v>
+        <v>0.510256</v>
       </c>
       <c r="C39" t="n">
-        <v>0.203125</v>
+        <v>0.202743</v>
       </c>
       <c r="D39" t="n">
-        <v>0.421981</v>
+        <v>0.417421</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.510977</v>
+        <v>0.512688</v>
       </c>
       <c r="C40" t="n">
-        <v>0.205398</v>
+        <v>0.205108</v>
       </c>
       <c r="D40" t="n">
-        <v>0.424221</v>
+        <v>0.419671</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5140980000000001</v>
+        <v>0.514552</v>
       </c>
       <c r="C41" t="n">
-        <v>0.206917</v>
+        <v>0.206398</v>
       </c>
       <c r="D41" t="n">
-        <v>0.423803</v>
+        <v>0.422345</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5182060000000001</v>
+        <v>0.518702</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208983</v>
+        <v>0.208946</v>
       </c>
       <c r="D42" t="n">
-        <v>0.426082</v>
+        <v>0.423843</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.517653</v>
+        <v>0.519556</v>
       </c>
       <c r="C43" t="n">
-        <v>0.211148</v>
+        <v>0.210899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.42888</v>
+        <v>0.423984</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.52495</v>
+        <v>0.525258</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213643</v>
+        <v>0.213239</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430831</v>
+        <v>0.42819</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.529559</v>
+        <v>0.529433</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216049</v>
+        <v>0.215561</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432766</v>
+        <v>0.430891</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.533206</v>
+        <v>0.533258</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21851</v>
+        <v>0.218532</v>
       </c>
       <c r="D46" t="n">
-        <v>0.435779</v>
+        <v>0.429076</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.537268</v>
+        <v>0.538173</v>
       </c>
       <c r="C47" t="n">
-        <v>0.221422</v>
+        <v>0.221092</v>
       </c>
       <c r="D47" t="n">
-        <v>0.437911</v>
+        <v>0.43465</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.541708</v>
+        <v>0.541979</v>
       </c>
       <c r="C48" t="n">
-        <v>0.224002</v>
+        <v>0.223769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.439974</v>
+        <v>0.436339</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5461009999999999</v>
+        <v>0.546831</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227021</v>
+        <v>0.226848</v>
       </c>
       <c r="D49" t="n">
-        <v>0.442508</v>
+        <v>0.43768</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.550584</v>
+        <v>0.55091</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200526</v>
+        <v>0.200722</v>
       </c>
       <c r="D50" t="n">
-        <v>0.438886</v>
+        <v>0.432302</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.520772</v>
+        <v>0.521077</v>
       </c>
       <c r="C51" t="n">
-        <v>0.203297</v>
+        <v>0.203105</v>
       </c>
       <c r="D51" t="n">
-        <v>0.440665</v>
+        <v>0.432713</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.523143</v>
+        <v>0.5231130000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.203995</v>
+        <v>0.203201</v>
       </c>
       <c r="D52" t="n">
-        <v>0.44164</v>
+        <v>0.435524</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.525223</v>
+        <v>0.525482</v>
       </c>
       <c r="C53" t="n">
-        <v>0.208085</v>
+        <v>0.205593</v>
       </c>
       <c r="D53" t="n">
-        <v>0.442615</v>
+        <v>0.43533</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.527236</v>
+        <v>0.526797</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210894</v>
+        <v>0.210614</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447796</v>
+        <v>0.436535</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.530834</v>
+        <v>0.529718</v>
       </c>
       <c r="C55" t="n">
-        <v>0.215384</v>
+        <v>0.217217</v>
       </c>
       <c r="D55" t="n">
-        <v>0.446077</v>
+        <v>0.439543</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.532639</v>
+        <v>0.5334140000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223691</v>
+        <v>0.221518</v>
       </c>
       <c r="D56" t="n">
-        <v>0.450322</v>
+        <v>0.441534</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.536779</v>
+        <v>0.536612</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228451</v>
+        <v>0.227075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.45101</v>
+        <v>0.441551</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.540647</v>
+        <v>0.5388269999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229501</v>
+        <v>0.224056</v>
       </c>
       <c r="D58" t="n">
-        <v>0.451843</v>
+        <v>0.445074</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.544679</v>
+        <v>0.5423750000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234693</v>
+        <v>0.230064</v>
       </c>
       <c r="D59" t="n">
-        <v>0.454888</v>
+        <v>0.450901</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.547046</v>
+        <v>0.551332</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237485</v>
+        <v>0.23933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.458581</v>
+        <v>0.450493</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.551719</v>
+        <v>0.552746</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245638</v>
+        <v>0.244126</v>
       </c>
       <c r="D61" t="n">
-        <v>0.461707</v>
+        <v>0.457061</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.560281</v>
+        <v>0.557992</v>
       </c>
       <c r="C62" t="n">
-        <v>0.257603</v>
+        <v>0.248353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.467836</v>
+        <v>0.459415</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.568757</v>
+        <v>0.564863</v>
       </c>
       <c r="C63" t="n">
-        <v>0.261684</v>
+        <v>0.258239</v>
       </c>
       <c r="D63" t="n">
-        <v>0.466201</v>
+        <v>0.464362</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.570537</v>
+        <v>0.572518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.307116</v>
+        <v>0.318547</v>
       </c>
       <c r="D64" t="n">
-        <v>0.505316</v>
+        <v>0.509776</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.60436</v>
+        <v>0.613919</v>
       </c>
       <c r="C65" t="n">
-        <v>0.333713</v>
+        <v>0.333243</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5152679999999999</v>
+        <v>0.519193</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.616774</v>
+        <v>0.627796</v>
       </c>
       <c r="C66" t="n">
-        <v>0.352052</v>
+        <v>0.353266</v>
       </c>
       <c r="D66" t="n">
-        <v>0.517851</v>
+        <v>0.5342710000000001</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.627569</v>
+        <v>0.653867</v>
       </c>
       <c r="C67" t="n">
-        <v>0.373671</v>
+        <v>0.373713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.543343</v>
+        <v>0.539793</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.66053</v>
+        <v>0.661031</v>
       </c>
       <c r="C68" t="n">
-        <v>0.396062</v>
+        <v>0.394779</v>
       </c>
       <c r="D68" t="n">
-        <v>0.548384</v>
+        <v>0.547113</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.669797</v>
+        <v>0.6646919999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.425998</v>
+        <v>0.415845</v>
       </c>
       <c r="D69" t="n">
-        <v>0.574373</v>
+        <v>0.571339</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.699915</v>
+        <v>0.702511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.441487</v>
+        <v>0.436764</v>
       </c>
       <c r="D70" t="n">
-        <v>0.58912</v>
+        <v>0.592015</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.699717</v>
+        <v>0.7415119999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467298</v>
+        <v>0.460181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.618851</v>
+        <v>0.617279</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7505849999999999</v>
+        <v>0.763018</v>
       </c>
       <c r="C72" t="n">
-        <v>0.488942</v>
+        <v>0.488314</v>
       </c>
       <c r="D72" t="n">
-        <v>0.651771</v>
+        <v>0.645428</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.782829</v>
+        <v>0.784863</v>
       </c>
       <c r="C73" t="n">
-        <v>0.51616</v>
+        <v>0.510356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.673739</v>
+        <v>0.673571</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.827802</v>
+        <v>0.8128069999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.541028</v>
+        <v>0.53006</v>
       </c>
       <c r="D74" t="n">
-        <v>0.693774</v>
+        <v>0.699866</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.866084</v>
+        <v>0.869958</v>
       </c>
       <c r="C75" t="n">
-        <v>0.560435</v>
+        <v>0.555381</v>
       </c>
       <c r="D75" t="n">
-        <v>0.74751</v>
+        <v>0.742281</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.911148</v>
+        <v>0.9239039999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.587598</v>
+        <v>0.581739</v>
       </c>
       <c r="D76" t="n">
-        <v>0.793157</v>
+        <v>0.798231</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.973959</v>
+        <v>0.982537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.608187</v>
+        <v>0.60398</v>
       </c>
       <c r="D77" t="n">
-        <v>0.838189</v>
+        <v>0.838133</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.02227</v>
+        <v>1.0276</v>
       </c>
       <c r="C78" t="n">
-        <v>0.722509</v>
+        <v>0.717078</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16914</v>
+        <v>1.14307</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39847</v>
+        <v>1.37946</v>
       </c>
       <c r="C79" t="n">
-        <v>0.738656</v>
+        <v>0.733052</v>
       </c>
       <c r="D79" t="n">
-        <v>1.22221</v>
+        <v>1.20633</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.44693</v>
+        <v>1.44515</v>
       </c>
       <c r="C80" t="n">
-        <v>0.752038</v>
+        <v>0.746248</v>
       </c>
       <c r="D80" t="n">
-        <v>1.27593</v>
+        <v>1.26334</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.51309</v>
+        <v>1.5183</v>
       </c>
       <c r="C81" t="n">
-        <v>0.765882</v>
+        <v>0.760227</v>
       </c>
       <c r="D81" t="n">
-        <v>1.34503</v>
+        <v>1.32438</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.58557</v>
+        <v>1.57878</v>
       </c>
       <c r="C82" t="n">
-        <v>0.779745</v>
+        <v>0.774624</v>
       </c>
       <c r="D82" t="n">
-        <v>1.39594</v>
+        <v>1.37042</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.64575</v>
+        <v>1.6312</v>
       </c>
       <c r="C83" t="n">
-        <v>0.79353</v>
+        <v>0.788474</v>
       </c>
       <c r="D83" t="n">
-        <v>1.45246</v>
+        <v>1.42969</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.69677</v>
+        <v>1.70327</v>
       </c>
       <c r="C84" t="n">
-        <v>0.805714</v>
+        <v>0.800484</v>
       </c>
       <c r="D84" t="n">
-        <v>1.51119</v>
+        <v>1.48327</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.766</v>
+        <v>1.75409</v>
       </c>
       <c r="C85" t="n">
-        <v>0.821952</v>
+        <v>0.81588</v>
       </c>
       <c r="D85" t="n">
-        <v>1.56868</v>
+        <v>1.53992</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.8198</v>
+        <v>1.82391</v>
       </c>
       <c r="C86" t="n">
-        <v>0.833192</v>
+        <v>0.828008</v>
       </c>
       <c r="D86" t="n">
-        <v>1.61793</v>
+        <v>1.59619</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.87392</v>
+        <v>1.88095</v>
       </c>
       <c r="C87" t="n">
-        <v>0.846039</v>
+        <v>0.840467</v>
       </c>
       <c r="D87" t="n">
-        <v>1.67633</v>
+        <v>1.64837</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.93487</v>
+        <v>1.94001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.86069</v>
+        <v>0.855263</v>
       </c>
       <c r="D88" t="n">
-        <v>1.73214</v>
+        <v>1.70362</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.99317</v>
+        <v>1.98803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8740599999999999</v>
+        <v>0.867198</v>
       </c>
       <c r="D89" t="n">
-        <v>1.78399</v>
+        <v>1.75992</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.04564</v>
+        <v>2.04642</v>
       </c>
       <c r="C90" t="n">
-        <v>0.887937</v>
+        <v>0.883821</v>
       </c>
       <c r="D90" t="n">
-        <v>1.83516</v>
+        <v>1.80479</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.09668</v>
+        <v>2.0949</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9011439999999999</v>
+        <v>0.896912</v>
       </c>
       <c r="D91" t="n">
-        <v>1.88505</v>
+        <v>1.85401</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.15218</v>
+        <v>2.14805</v>
       </c>
       <c r="C92" t="n">
-        <v>0.913156</v>
+        <v>0.905417</v>
       </c>
       <c r="D92" t="n">
-        <v>2.15275</v>
+        <v>2.11049</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.43002</v>
+        <v>2.4154</v>
       </c>
       <c r="C93" t="n">
-        <v>0.920396</v>
+        <v>0.91482</v>
       </c>
       <c r="D93" t="n">
-        <v>2.18877</v>
+        <v>2.14205</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.46134</v>
+        <v>2.45573</v>
       </c>
       <c r="C94" t="n">
-        <v>0.930471</v>
+        <v>0.922493</v>
       </c>
       <c r="D94" t="n">
-        <v>2.21688</v>
+        <v>2.17651</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.49719</v>
+        <v>2.48683</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9376719999999999</v>
+        <v>0.932383</v>
       </c>
       <c r="D95" t="n">
-        <v>2.24261</v>
+        <v>2.2097</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53255</v>
+        <v>2.52179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.948618</v>
+        <v>0.93999</v>
       </c>
       <c r="D96" t="n">
-        <v>2.28155</v>
+        <v>2.2426</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.56607</v>
+        <v>2.55292</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9568759999999999</v>
+        <v>0.951038</v>
       </c>
       <c r="D97" t="n">
-        <v>2.30761</v>
+        <v>2.26684</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.5921</v>
+        <v>2.59321</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9645590000000001</v>
+        <v>0.9596</v>
       </c>
       <c r="D98" t="n">
-        <v>2.34057</v>
+        <v>2.30145</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.62794</v>
+        <v>2.61918</v>
       </c>
       <c r="C99" t="n">
-        <v>0.976671</v>
+        <v>0.970114</v>
       </c>
       <c r="D99" t="n">
-        <v>2.36779</v>
+        <v>2.34225</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.65548</v>
+        <v>2.65486</v>
       </c>
       <c r="C100" t="n">
-        <v>0.984264</v>
+        <v>0.980892</v>
       </c>
       <c r="D100" t="n">
-        <v>2.39774</v>
+        <v>2.3548</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.69155</v>
+        <v>2.68221</v>
       </c>
       <c r="C101" t="n">
-        <v>0.995978</v>
+        <v>0.9890640000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>2.4195</v>
+        <v>2.38284</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.72293</v>
+        <v>2.71343</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00855</v>
+        <v>1.00201</v>
       </c>
       <c r="D102" t="n">
-        <v>2.454</v>
+        <v>2.41101</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.75455</v>
+        <v>2.74267</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02008</v>
+        <v>1.01309</v>
       </c>
       <c r="D103" t="n">
-        <v>2.47508</v>
+        <v>2.44065</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.78536</v>
+        <v>2.77818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03144</v>
+        <v>1.02682</v>
       </c>
       <c r="D104" t="n">
-        <v>2.51638</v>
+        <v>2.47647</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.82188</v>
+        <v>2.81045</v>
       </c>
       <c r="C105" t="n">
-        <v>1.045</v>
+        <v>1.04016</v>
       </c>
       <c r="D105" t="n">
-        <v>2.54061</v>
+        <v>2.50706</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.85138</v>
+        <v>2.84291</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05933</v>
+        <v>1.0525</v>
       </c>
       <c r="D106" t="n">
-        <v>2.56602</v>
+        <v>2.53384</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.95871</v>
+        <v>2.95172</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00309</v>
+        <v>0.996368</v>
       </c>
       <c r="D107" t="n">
-        <v>2.69951</v>
+        <v>2.65117</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.97778</v>
+        <v>2.96747</v>
       </c>
       <c r="C108" t="n">
-        <v>1.00935</v>
+        <v>1.0025</v>
       </c>
       <c r="D108" t="n">
-        <v>2.70004</v>
+        <v>2.67896</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.99752</v>
+        <v>2.98131</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01857</v>
+        <v>1.00894</v>
       </c>
       <c r="D109" t="n">
-        <v>2.7143</v>
+        <v>2.67898</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.0147</v>
+        <v>3.00269</v>
       </c>
       <c r="C110" t="n">
-        <v>1.02805</v>
+        <v>1.02038</v>
       </c>
       <c r="D110" t="n">
-        <v>2.73529</v>
+        <v>2.69305</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.03741</v>
+        <v>3.02347</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03647</v>
+        <v>1.02786</v>
       </c>
       <c r="D111" t="n">
-        <v>2.75421</v>
+        <v>2.71463</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.04809</v>
+        <v>3.03966</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04423</v>
+        <v>1.03568</v>
       </c>
       <c r="D112" t="n">
-        <v>2.7641</v>
+        <v>2.70768</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.07245</v>
+        <v>3.05637</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05629</v>
+        <v>1.04566</v>
       </c>
       <c r="D113" t="n">
-        <v>2.77911</v>
+        <v>2.75046</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.09272</v>
+        <v>3.07635</v>
       </c>
       <c r="C114" t="n">
-        <v>1.06487</v>
+        <v>1.05657</v>
       </c>
       <c r="D114" t="n">
-        <v>2.79168</v>
+        <v>2.76369</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.11117</v>
+        <v>3.09651</v>
       </c>
       <c r="C115" t="n">
-        <v>1.07513</v>
+        <v>1.06498</v>
       </c>
       <c r="D115" t="n">
-        <v>2.80117</v>
+        <v>2.77519</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.12988</v>
+        <v>3.11332</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0861</v>
+        <v>1.07693</v>
       </c>
       <c r="D116" t="n">
-        <v>2.82285</v>
+        <v>2.78523</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.1503</v>
+        <v>3.1339</v>
       </c>
       <c r="C117" t="n">
-        <v>1.10095</v>
+        <v>1.08864</v>
       </c>
       <c r="D117" t="n">
-        <v>2.83403</v>
+        <v>2.80382</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.16971</v>
+        <v>3.15265</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11078</v>
+        <v>1.09913</v>
       </c>
       <c r="D118" t="n">
-        <v>2.84953</v>
+        <v>2.82591</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.19242</v>
+        <v>3.18119</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12482</v>
+        <v>1.11128</v>
       </c>
       <c r="D119" t="n">
-        <v>2.86426</v>
+        <v>2.74985</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.547154</v>
+        <v>0.554963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.322846</v>
+        <v>0.324474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36262</v>
+        <v>0.365927</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.55487</v>
+        <v>0.564491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327743</v>
+        <v>0.330561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365774</v>
+        <v>0.370959</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.561366</v>
+        <v>0.572986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333227</v>
+        <v>0.336623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362735</v>
+        <v>0.37101</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.560659</v>
+        <v>0.573594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.335279</v>
+        <v>0.339485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.366375</v>
+        <v>0.378745</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570553</v>
+        <v>0.584333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343712</v>
+        <v>0.347225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.372942</v>
+        <v>0.387044</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.573718</v>
+        <v>0.5931650000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.353616</v>
+        <v>0.355073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.386608</v>
+        <v>0.394548</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.590104</v>
+        <v>0.596872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.357088</v>
+        <v>0.357526</v>
       </c>
       <c r="D8" t="n">
-        <v>0.394344</v>
+        <v>0.394514</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6033770000000001</v>
+        <v>0.600961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.359224</v>
+        <v>0.359225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.399888</v>
+        <v>0.400446</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.612569</v>
+        <v>0.615824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.366972</v>
+        <v>0.367917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.405519</v>
+        <v>0.406038</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.623241</v>
+        <v>0.623765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.366629</v>
+        <v>0.36662</v>
       </c>
       <c r="D11" t="n">
-        <v>0.41019</v>
+        <v>0.409781</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.628598</v>
+        <v>0.626958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.372887</v>
+        <v>0.374597</v>
       </c>
       <c r="D12" t="n">
-        <v>0.415283</v>
+        <v>0.417243</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.63301</v>
+        <v>0.639577</v>
       </c>
       <c r="C13" t="n">
-        <v>0.374913</v>
+        <v>0.375481</v>
       </c>
       <c r="D13" t="n">
-        <v>0.420868</v>
+        <v>0.422189</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.641418</v>
+        <v>0.649012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.375741</v>
+        <v>0.376246</v>
       </c>
       <c r="D14" t="n">
-        <v>0.431059</v>
+        <v>0.431897</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.655084</v>
+        <v>0.65532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.385722</v>
+        <v>0.385912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.429709</v>
+        <v>0.432879</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.653597</v>
+        <v>0.656883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.389629</v>
+        <v>0.389527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.438707</v>
+        <v>0.439721</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.670251</v>
+        <v>0.67055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393261</v>
+        <v>0.393217</v>
       </c>
       <c r="D17" t="n">
-        <v>0.444294</v>
+        <v>0.444288</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673343</v>
+        <v>0.677671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.398858</v>
+        <v>0.3996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.448615</v>
+        <v>0.451638</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.683706</v>
+        <v>0.685948</v>
       </c>
       <c r="C19" t="n">
-        <v>0.401051</v>
+        <v>0.40133</v>
       </c>
       <c r="D19" t="n">
-        <v>0.453514</v>
+        <v>0.45245</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6971079999999999</v>
+        <v>0.696632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.410834</v>
+        <v>0.410537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.461982</v>
+        <v>0.457536</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.701852</v>
+        <v>0.7023430000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.410496</v>
+        <v>0.410018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.468443</v>
+        <v>0.470793</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.705986</v>
+        <v>0.707734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.413994</v>
+        <v>0.413614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.471429</v>
+        <v>0.471849</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.71937</v>
+        <v>0.718498</v>
       </c>
       <c r="C23" t="n">
-        <v>0.415051</v>
+        <v>0.415355</v>
       </c>
       <c r="D23" t="n">
-        <v>0.477822</v>
+        <v>0.479682</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.724424</v>
+        <v>0.725566</v>
       </c>
       <c r="C24" t="n">
-        <v>0.421154</v>
+        <v>0.421126</v>
       </c>
       <c r="D24" t="n">
-        <v>0.481428</v>
+        <v>0.481296</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.736335</v>
+        <v>0.738946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.43151</v>
+        <v>0.43125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.486058</v>
+        <v>0.485175</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7374039999999999</v>
+        <v>0.7395040000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.429814</v>
+        <v>0.429784</v>
       </c>
       <c r="D26" t="n">
-        <v>0.491631</v>
+        <v>0.491399</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.744631</v>
+        <v>0.745857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.434692</v>
+        <v>0.434671</v>
       </c>
       <c r="D27" t="n">
-        <v>0.495458</v>
+        <v>0.496513</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.75141</v>
+        <v>0.750535</v>
       </c>
       <c r="C28" t="n">
-        <v>0.438305</v>
+        <v>0.437998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.497976</v>
+        <v>0.497096</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.75853</v>
+        <v>0.759351</v>
       </c>
       <c r="C29" t="n">
-        <v>0.445189</v>
+        <v>0.44482</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5059630000000001</v>
+        <v>0.503293</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.768047</v>
+        <v>0.767658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.449821</v>
+        <v>0.45075</v>
       </c>
       <c r="D30" t="n">
-        <v>0.50842</v>
+        <v>0.5153489999999999</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.775966</v>
+        <v>0.778725</v>
       </c>
       <c r="C31" t="n">
-        <v>0.451149</v>
+        <v>0.452612</v>
       </c>
       <c r="D31" t="n">
-        <v>0.512619</v>
+        <v>0.518579</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.779493</v>
+        <v>0.7816650000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.456475</v>
+        <v>0.45768</v>
       </c>
       <c r="D32" t="n">
-        <v>0.517552</v>
+        <v>0.523039</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.788584</v>
+        <v>0.790027</v>
       </c>
       <c r="C33" t="n">
-        <v>0.461149</v>
+        <v>0.461954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.517926</v>
+        <v>0.525004</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.79464</v>
+        <v>0.796245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.462502</v>
+        <v>0.464873</v>
       </c>
       <c r="D34" t="n">
-        <v>0.524959</v>
+        <v>0.52806</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.799269</v>
+        <v>0.800304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.440249</v>
+        <v>0.440491</v>
       </c>
       <c r="D35" t="n">
-        <v>0.52629</v>
+        <v>0.529089</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796503</v>
+        <v>0.798062</v>
       </c>
       <c r="C36" t="n">
-        <v>0.443693</v>
+        <v>0.444462</v>
       </c>
       <c r="D36" t="n">
-        <v>0.528239</v>
+        <v>0.52999</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.798693</v>
+        <v>0.805227</v>
       </c>
       <c r="C37" t="n">
-        <v>0.446398</v>
+        <v>0.447866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.530374</v>
+        <v>0.53504</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.80569</v>
+        <v>0.808474</v>
       </c>
       <c r="C38" t="n">
-        <v>0.448901</v>
+        <v>0.450753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.53352</v>
+        <v>0.538842</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.810274</v>
+        <v>0.814759</v>
       </c>
       <c r="C39" t="n">
-        <v>0.45264</v>
+        <v>0.453795</v>
       </c>
       <c r="D39" t="n">
-        <v>0.53622</v>
+        <v>0.541869</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.817997</v>
+        <v>0.8207719999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.45624</v>
+        <v>0.457985</v>
       </c>
       <c r="D40" t="n">
-        <v>0.541871</v>
+        <v>0.548876</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82753</v>
+        <v>0.828546</v>
       </c>
       <c r="C41" t="n">
-        <v>0.459049</v>
+        <v>0.460904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5427149999999999</v>
+        <v>0.547903</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824743</v>
+        <v>0.828049</v>
       </c>
       <c r="C42" t="n">
-        <v>0.462473</v>
+        <v>0.46393</v>
       </c>
       <c r="D42" t="n">
-        <v>0.547679</v>
+        <v>0.5530080000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.833019</v>
+        <v>0.833859</v>
       </c>
       <c r="C43" t="n">
-        <v>0.464074</v>
+        <v>0.466345</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5480660000000001</v>
+        <v>0.554585</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.83561</v>
+        <v>0.836732</v>
       </c>
       <c r="C44" t="n">
-        <v>0.464239</v>
+        <v>0.465445</v>
       </c>
       <c r="D44" t="n">
-        <v>0.551696</v>
+        <v>0.557128</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841038</v>
+        <v>0.841129</v>
       </c>
       <c r="C45" t="n">
-        <v>0.468932</v>
+        <v>0.47109</v>
       </c>
       <c r="D45" t="n">
-        <v>0.554463</v>
+        <v>0.5580540000000001</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.845284</v>
+        <v>0.846845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.470625</v>
+        <v>0.471442</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5562550000000001</v>
+        <v>0.560445</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.854407</v>
+        <v>0.8551569999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.474505</v>
+        <v>0.476243</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5581660000000001</v>
+        <v>0.563237</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.857284</v>
+        <v>0.85775</v>
       </c>
       <c r="C48" t="n">
-        <v>0.479957</v>
+        <v>0.480633</v>
       </c>
       <c r="D48" t="n">
-        <v>0.56069</v>
+        <v>0.564543</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.862335</v>
+        <v>0.862772</v>
       </c>
       <c r="C49" t="n">
-        <v>0.480148</v>
+        <v>0.480122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.564612</v>
+        <v>0.566854</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.868042</v>
+        <v>0.868919</v>
       </c>
       <c r="C50" t="n">
-        <v>0.468337</v>
+        <v>0.46968</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5616910000000001</v>
+        <v>0.563932</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.84689</v>
+        <v>0.843455</v>
       </c>
       <c r="C51" t="n">
-        <v>0.472071</v>
+        <v>0.473834</v>
       </c>
       <c r="D51" t="n">
-        <v>0.56476</v>
+        <v>0.569599</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.850191</v>
+        <v>0.849841</v>
       </c>
       <c r="C52" t="n">
-        <v>0.476751</v>
+        <v>0.479809</v>
       </c>
       <c r="D52" t="n">
-        <v>0.56552</v>
+        <v>0.56686</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.855394</v>
+        <v>0.856163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.479317</v>
+        <v>0.485374</v>
       </c>
       <c r="D53" t="n">
-        <v>0.56689</v>
+        <v>0.568148</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.859146</v>
+        <v>0.860465</v>
       </c>
       <c r="C54" t="n">
-        <v>0.480724</v>
+        <v>0.490856</v>
       </c>
       <c r="D54" t="n">
-        <v>0.570465</v>
+        <v>0.569668</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.862876</v>
+        <v>0.858596</v>
       </c>
       <c r="C55" t="n">
-        <v>0.487215</v>
+        <v>0.492531</v>
       </c>
       <c r="D55" t="n">
-        <v>0.574402</v>
+        <v>0.571897</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8567630000000001</v>
+        <v>0.866202</v>
       </c>
       <c r="C56" t="n">
-        <v>0.483921</v>
+        <v>0.495358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.569567</v>
+        <v>0.577951</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.861083</v>
+        <v>0.863016</v>
       </c>
       <c r="C57" t="n">
-        <v>0.486787</v>
+        <v>0.501909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.572647</v>
+        <v>0.575831</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.864716</v>
+        <v>0.871569</v>
       </c>
       <c r="C58" t="n">
-        <v>0.498314</v>
+        <v>0.508892</v>
       </c>
       <c r="D58" t="n">
-        <v>0.576363</v>
+        <v>0.582354</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.869263</v>
+        <v>0.87721</v>
       </c>
       <c r="C59" t="n">
-        <v>0.51023</v>
+        <v>0.514745</v>
       </c>
       <c r="D59" t="n">
-        <v>0.576079</v>
+        <v>0.583314</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.874488</v>
+        <v>0.879001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.509664</v>
+        <v>0.512994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5830340000000001</v>
+        <v>0.584938</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.875499</v>
+        <v>0.882636</v>
       </c>
       <c r="C61" t="n">
-        <v>0.519857</v>
+        <v>0.522408</v>
       </c>
       <c r="D61" t="n">
-        <v>0.57986</v>
+        <v>0.58613</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.889218</v>
+        <v>0.890169</v>
       </c>
       <c r="C62" t="n">
-        <v>0.524347</v>
+        <v>0.535469</v>
       </c>
       <c r="D62" t="n">
-        <v>0.582972</v>
+        <v>0.595388</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.888163</v>
+        <v>0.90172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.537723</v>
+        <v>0.549001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.587225</v>
+        <v>0.597032</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.896742</v>
+        <v>0.9101630000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.597529</v>
+        <v>0.604002</v>
       </c>
       <c r="D64" t="n">
-        <v>0.626593</v>
+        <v>0.63357</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.944417</v>
+        <v>0.954406</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611468</v>
+        <v>0.614422</v>
       </c>
       <c r="D65" t="n">
-        <v>0.647211</v>
+        <v>0.6461249999999999</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.975621</v>
+        <v>0.971241</v>
       </c>
       <c r="C66" t="n">
-        <v>0.633414</v>
+        <v>0.6341020000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.652334</v>
+        <v>0.665467</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.998827</v>
+        <v>0.999765</v>
       </c>
       <c r="C67" t="n">
-        <v>0.656361</v>
+        <v>0.664515</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6714020000000001</v>
+        <v>0.678364</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01774</v>
+        <v>1.03441</v>
       </c>
       <c r="C68" t="n">
-        <v>0.686385</v>
+        <v>0.69999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.678337</v>
+        <v>0.6939959999999999</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02901</v>
+        <v>1.06314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.704183</v>
+        <v>0.716352</v>
       </c>
       <c r="D69" t="n">
-        <v>0.698757</v>
+        <v>0.717909</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.08336</v>
+        <v>1.09757</v>
       </c>
       <c r="C70" t="n">
-        <v>0.73829</v>
+        <v>0.747129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.721359</v>
+        <v>0.73449</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.10677</v>
+        <v>1.11842</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7904600000000001</v>
+        <v>0.793382</v>
       </c>
       <c r="D71" t="n">
-        <v>0.74832</v>
+        <v>0.755509</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.14964</v>
+        <v>1.17418</v>
       </c>
       <c r="C72" t="n">
-        <v>0.815056</v>
+        <v>0.822066</v>
       </c>
       <c r="D72" t="n">
-        <v>0.776347</v>
+        <v>0.781941</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.20241</v>
+        <v>1.1989</v>
       </c>
       <c r="C73" t="n">
-        <v>0.871248</v>
+        <v>0.866028</v>
       </c>
       <c r="D73" t="n">
-        <v>0.808208</v>
+        <v>0.803572</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.24855</v>
+        <v>1.24796</v>
       </c>
       <c r="C74" t="n">
-        <v>0.892567</v>
+        <v>0.903274</v>
       </c>
       <c r="D74" t="n">
-        <v>0.840448</v>
+        <v>0.856477</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.30076</v>
+        <v>1.30178</v>
       </c>
       <c r="C75" t="n">
-        <v>0.932627</v>
+        <v>0.94047</v>
       </c>
       <c r="D75" t="n">
-        <v>0.878596</v>
+        <v>0.88157</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.35716</v>
+        <v>1.36822</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9883960000000001</v>
+        <v>0.992347</v>
       </c>
       <c r="D76" t="n">
-        <v>0.944302</v>
+        <v>0.941006</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46589</v>
+        <v>1.46058</v>
       </c>
       <c r="C77" t="n">
-        <v>1.0398</v>
+        <v>1.04336</v>
       </c>
       <c r="D77" t="n">
-        <v>0.990372</v>
+        <v>0.986644</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.53999</v>
+        <v>1.53889</v>
       </c>
       <c r="C78" t="n">
-        <v>1.22426</v>
+        <v>1.21719</v>
       </c>
       <c r="D78" t="n">
-        <v>1.15141</v>
+        <v>1.13283</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.77274</v>
+        <v>1.7576</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27084</v>
+        <v>1.26449</v>
       </c>
       <c r="D79" t="n">
-        <v>1.21428</v>
+        <v>1.19564</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.87815</v>
+        <v>1.85285</v>
       </c>
       <c r="C80" t="n">
-        <v>1.32064</v>
+        <v>1.3156</v>
       </c>
       <c r="D80" t="n">
-        <v>1.26849</v>
+        <v>1.25406</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.96483</v>
+        <v>1.94934</v>
       </c>
       <c r="C81" t="n">
-        <v>1.36741</v>
+        <v>1.36237</v>
       </c>
       <c r="D81" t="n">
-        <v>1.33918</v>
+        <v>1.32888</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0632</v>
+        <v>2.05657</v>
       </c>
       <c r="C82" t="n">
-        <v>1.40976</v>
+        <v>1.40219</v>
       </c>
       <c r="D82" t="n">
-        <v>1.40497</v>
+        <v>1.39294</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.17854</v>
+        <v>2.16358</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45553</v>
+        <v>1.44965</v>
       </c>
       <c r="D83" t="n">
-        <v>1.46976</v>
+        <v>1.45647</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.29097</v>
+        <v>2.27295</v>
       </c>
       <c r="C84" t="n">
-        <v>1.5064</v>
+        <v>1.50285</v>
       </c>
       <c r="D84" t="n">
-        <v>1.53627</v>
+        <v>1.52581</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38916</v>
+        <v>2.37748</v>
       </c>
       <c r="C85" t="n">
-        <v>1.55445</v>
+        <v>1.55308</v>
       </c>
       <c r="D85" t="n">
-        <v>1.61467</v>
+        <v>1.59973</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.50187</v>
+        <v>2.50037</v>
       </c>
       <c r="C86" t="n">
-        <v>1.60316</v>
+        <v>1.60105</v>
       </c>
       <c r="D86" t="n">
-        <v>1.67744</v>
+        <v>1.67668</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.60695</v>
+        <v>2.61713</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65131</v>
+        <v>1.6511</v>
       </c>
       <c r="D87" t="n">
-        <v>1.7487</v>
+        <v>1.74958</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.72886</v>
+        <v>2.72515</v>
       </c>
       <c r="C88" t="n">
-        <v>1.703</v>
+        <v>1.69986</v>
       </c>
       <c r="D88" t="n">
-        <v>1.82648</v>
+        <v>1.81486</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.8315</v>
+        <v>2.82841</v>
       </c>
       <c r="C89" t="n">
-        <v>1.75329</v>
+        <v>1.74787</v>
       </c>
       <c r="D89" t="n">
-        <v>1.89043</v>
+        <v>1.88547</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.941</v>
+        <v>2.9388</v>
       </c>
       <c r="C90" t="n">
-        <v>1.79406</v>
+        <v>1.79281</v>
       </c>
       <c r="D90" t="n">
-        <v>1.95534</v>
+        <v>1.95272</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.04191</v>
+        <v>3.03482</v>
       </c>
       <c r="C91" t="n">
-        <v>1.84826</v>
+        <v>1.84594</v>
       </c>
       <c r="D91" t="n">
-        <v>2.02016</v>
+        <v>2.01815</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.14689</v>
+        <v>3.1399</v>
       </c>
       <c r="C92" t="n">
-        <v>1.95492</v>
+        <v>1.95515</v>
       </c>
       <c r="D92" t="n">
-        <v>2.16947</v>
+        <v>2.1665</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.36143</v>
+        <v>3.37757</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9895</v>
+        <v>1.98696</v>
       </c>
       <c r="D93" t="n">
-        <v>2.2233</v>
+        <v>2.24213</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.45629</v>
+        <v>3.47274</v>
       </c>
       <c r="C94" t="n">
-        <v>2.02443</v>
+        <v>2.03374</v>
       </c>
       <c r="D94" t="n">
-        <v>2.29149</v>
+        <v>2.30778</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.52787</v>
+        <v>3.53453</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07041</v>
+        <v>2.071</v>
       </c>
       <c r="D95" t="n">
-        <v>2.34048</v>
+        <v>2.34115</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.62372</v>
+        <v>3.62217</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11349</v>
+        <v>2.1129</v>
       </c>
       <c r="D96" t="n">
-        <v>2.40175</v>
+        <v>2.39708</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.71899</v>
+        <v>3.71491</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13178</v>
+        <v>2.14479</v>
       </c>
       <c r="D97" t="n">
-        <v>2.45644</v>
+        <v>2.4606</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.78862</v>
+        <v>3.78168</v>
       </c>
       <c r="C98" t="n">
-        <v>2.17938</v>
+        <v>2.17465</v>
       </c>
       <c r="D98" t="n">
-        <v>2.5277</v>
+        <v>2.52121</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.86285</v>
+        <v>3.88008</v>
       </c>
       <c r="C99" t="n">
-        <v>2.2277</v>
+        <v>2.23622</v>
       </c>
       <c r="D99" t="n">
-        <v>2.55378</v>
+        <v>2.56997</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.93008</v>
+        <v>3.94142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.25251</v>
+        <v>2.25606</v>
       </c>
       <c r="D100" t="n">
-        <v>2.63377</v>
+        <v>2.59776</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.0007</v>
+        <v>4.02298</v>
       </c>
       <c r="C101" t="n">
-        <v>2.28502</v>
+        <v>2.29387</v>
       </c>
       <c r="D101" t="n">
-        <v>2.66149</v>
+        <v>2.64948</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.0685</v>
+        <v>4.0965</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32335</v>
+        <v>2.33778</v>
       </c>
       <c r="D102" t="n">
-        <v>2.71745</v>
+        <v>2.7122</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.14767</v>
+        <v>4.1614</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36085</v>
+        <v>2.36043</v>
       </c>
       <c r="D103" t="n">
-        <v>2.73282</v>
+        <v>2.75116</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.23343</v>
+        <v>4.24353</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39311</v>
+        <v>2.40447</v>
       </c>
       <c r="D104" t="n">
-        <v>2.8016</v>
+        <v>2.8173</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.30497</v>
+        <v>4.31538</v>
       </c>
       <c r="C105" t="n">
-        <v>2.44638</v>
+        <v>2.45427</v>
       </c>
       <c r="D105" t="n">
-        <v>2.8167</v>
+        <v>2.817</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37404</v>
+        <v>4.39439</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48018</v>
+        <v>2.48782</v>
       </c>
       <c r="D106" t="n">
-        <v>2.87409</v>
+        <v>2.86181</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.42587</v>
+        <v>4.42679</v>
       </c>
       <c r="C107" t="n">
-        <v>2.45667</v>
+        <v>2.46622</v>
       </c>
       <c r="D107" t="n">
-        <v>2.96046</v>
+        <v>2.95424</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.47314</v>
+        <v>4.48954</v>
       </c>
       <c r="C108" t="n">
-        <v>2.49044</v>
+        <v>2.48339</v>
       </c>
       <c r="D108" t="n">
-        <v>2.98526</v>
+        <v>2.99342</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.52778</v>
+        <v>4.54567</v>
       </c>
       <c r="C109" t="n">
-        <v>2.53107</v>
+        <v>2.52776</v>
       </c>
       <c r="D109" t="n">
-        <v>3.00945</v>
+        <v>3.03309</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.59028</v>
+        <v>4.60727</v>
       </c>
       <c r="C110" t="n">
-        <v>2.54631</v>
+        <v>2.57184</v>
       </c>
       <c r="D110" t="n">
-        <v>3.03914</v>
+        <v>3.04081</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.64301</v>
+        <v>4.6582</v>
       </c>
       <c r="C111" t="n">
-        <v>2.57353</v>
+        <v>2.58559</v>
       </c>
       <c r="D111" t="n">
-        <v>3.07164</v>
+        <v>3.09061</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.7017</v>
+        <v>4.71454</v>
       </c>
       <c r="C112" t="n">
-        <v>2.61459</v>
+        <v>2.61179</v>
       </c>
       <c r="D112" t="n">
-        <v>3.11683</v>
+        <v>3.10652</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.76002</v>
+        <v>4.77174</v>
       </c>
       <c r="C113" t="n">
-        <v>2.63947</v>
+        <v>2.64318</v>
       </c>
       <c r="D113" t="n">
-        <v>3.14349</v>
+        <v>3.13834</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.80772</v>
+        <v>4.83165</v>
       </c>
       <c r="C114" t="n">
-        <v>2.6754</v>
+        <v>2.67035</v>
       </c>
       <c r="D114" t="n">
-        <v>3.16967</v>
+        <v>3.16729</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.8664</v>
+        <v>4.88404</v>
       </c>
       <c r="C115" t="n">
-        <v>2.71013</v>
+        <v>2.69756</v>
       </c>
       <c r="D115" t="n">
-        <v>3.20539</v>
+        <v>3.20916</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.91656</v>
+        <v>4.9351</v>
       </c>
       <c r="C116" t="n">
-        <v>2.72585</v>
+        <v>2.74014</v>
       </c>
       <c r="D116" t="n">
-        <v>3.24226</v>
+        <v>3.22701</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.96824</v>
+        <v>4.98217</v>
       </c>
       <c r="C117" t="n">
-        <v>2.76978</v>
+        <v>2.75247</v>
       </c>
       <c r="D117" t="n">
-        <v>3.2758</v>
+        <v>3.2564</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.0181</v>
+        <v>5.04462</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80427</v>
+        <v>2.79609</v>
       </c>
       <c r="D118" t="n">
-        <v>3.28527</v>
+        <v>3.29217</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.06675</v>
+        <v>5.09177</v>
       </c>
       <c r="C119" t="n">
-        <v>2.8318</v>
+        <v>2.83743</v>
       </c>
       <c r="D119" t="n">
-        <v>3.34006</v>
+        <v>3.32271</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.579306</v>
+        <v>0.578379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338774</v>
+        <v>0.340937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.356699</v>
+        <v>0.357036</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5845359999999999</v>
+        <v>0.588211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.342748</v>
+        <v>0.346283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.359576</v>
+        <v>0.362035</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.596042</v>
+        <v>0.596761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.349053</v>
+        <v>0.35007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36723</v>
+        <v>0.367488</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.604837</v>
+        <v>0.6031260000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3602</v>
+        <v>0.359112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372441</v>
+        <v>0.371347</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.616524</v>
+        <v>0.618977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36337</v>
+        <v>0.365508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.372508</v>
+        <v>0.37442</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.619957</v>
+        <v>0.619455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.372292</v>
+        <v>0.372447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.382771</v>
+        <v>0.381703</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.631178</v>
+        <v>0.633121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.382864</v>
+        <v>0.384796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.384896</v>
+        <v>0.385183</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.641114</v>
+        <v>0.639705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.389738</v>
+        <v>0.389879</v>
       </c>
       <c r="D9" t="n">
-        <v>0.390503</v>
+        <v>0.388918</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.651578</v>
+        <v>0.650093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.399496</v>
+        <v>0.398348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.395753</v>
+        <v>0.393208</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.660276</v>
+        <v>0.66039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.389393</v>
+        <v>0.385417</v>
       </c>
       <c r="D11" t="n">
-        <v>0.40079</v>
+        <v>0.39957</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.646241</v>
+        <v>0.640103</v>
       </c>
       <c r="C12" t="n">
-        <v>0.394947</v>
+        <v>0.391448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.408247</v>
+        <v>0.40719</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6568040000000001</v>
+        <v>0.649421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.40213</v>
+        <v>0.396689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.414973</v>
+        <v>0.410156</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.667651</v>
+        <v>0.659175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.408887</v>
+        <v>0.403792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.418431</v>
+        <v>0.414842</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.685117</v>
+        <v>0.675436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.423043</v>
+        <v>0.415274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.430613</v>
+        <v>0.425424</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.688271</v>
+        <v>0.680987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.428206</v>
+        <v>0.424294</v>
       </c>
       <c r="D16" t="n">
-        <v>0.430978</v>
+        <v>0.428472</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.704238</v>
+        <v>0.695543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.433448</v>
+        <v>0.428657</v>
       </c>
       <c r="D17" t="n">
-        <v>0.436212</v>
+        <v>0.43398</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.71591</v>
+        <v>0.709696</v>
       </c>
       <c r="C18" t="n">
-        <v>0.434801</v>
+        <v>0.432553</v>
       </c>
       <c r="D18" t="n">
-        <v>0.441387</v>
+        <v>0.440273</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.727133</v>
+        <v>0.720906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.450671</v>
+        <v>0.4485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.447729</v>
+        <v>0.44654</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.741938</v>
+        <v>0.735395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.462666</v>
+        <v>0.457394</v>
       </c>
       <c r="D20" t="n">
-        <v>0.453303</v>
+        <v>0.452562</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.749804</v>
+        <v>0.7456660000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.473117</v>
+        <v>0.470633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.457908</v>
+        <v>0.458183</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.757201</v>
+        <v>0.757243</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478911</v>
+        <v>0.478078</v>
       </c>
       <c r="D22" t="n">
-        <v>0.462179</v>
+        <v>0.463864</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.779529</v>
+        <v>0.780957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.489443</v>
+        <v>0.489235</v>
       </c>
       <c r="D23" t="n">
-        <v>0.468609</v>
+        <v>0.472026</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.791485</v>
+        <v>0.792817</v>
       </c>
       <c r="C24" t="n">
-        <v>0.499757</v>
+        <v>0.498248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.472253</v>
+        <v>0.474505</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.802863</v>
+        <v>0.805814</v>
       </c>
       <c r="C25" t="n">
-        <v>0.515096</v>
+        <v>0.5151250000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.479321</v>
+        <v>0.483691</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.822632</v>
+        <v>0.8238</v>
       </c>
       <c r="C26" t="n">
-        <v>0.456215</v>
+        <v>0.457193</v>
       </c>
       <c r="D26" t="n">
-        <v>0.486033</v>
+        <v>0.48978</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.787294</v>
+        <v>0.789619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.462063</v>
+        <v>0.466039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.492833</v>
+        <v>0.494565</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.797174</v>
+        <v>0.797928</v>
       </c>
       <c r="C28" t="n">
-        <v>0.471797</v>
+        <v>0.471587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.498249</v>
+        <v>0.49754</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.808372</v>
+        <v>0.811057</v>
       </c>
       <c r="C29" t="n">
-        <v>0.474374</v>
+        <v>0.477078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.500528</v>
+        <v>0.502559</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.821428</v>
+        <v>0.820598</v>
       </c>
       <c r="C30" t="n">
-        <v>0.483083</v>
+        <v>0.484851</v>
       </c>
       <c r="D30" t="n">
-        <v>0.509462</v>
+        <v>0.508154</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.832404</v>
+        <v>0.83426</v>
       </c>
       <c r="C31" t="n">
-        <v>0.491528</v>
+        <v>0.49229</v>
       </c>
       <c r="D31" t="n">
-        <v>0.509091</v>
+        <v>0.512402</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.844646</v>
+        <v>0.845716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.497368</v>
+        <v>0.501273</v>
       </c>
       <c r="D32" t="n">
-        <v>0.515822</v>
+        <v>0.515008</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.854089</v>
+        <v>0.855907</v>
       </c>
       <c r="C33" t="n">
-        <v>0.507387</v>
+        <v>0.5084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.515676</v>
+        <v>0.52052</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.868656</v>
+        <v>0.8695850000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.514334</v>
+        <v>0.518938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5236</v>
+        <v>0.523991</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.879486</v>
+        <v>0.881444</v>
       </c>
       <c r="C35" t="n">
-        <v>0.526101</v>
+        <v>0.5275570000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.523635</v>
+        <v>0.527769</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.894351</v>
+        <v>0.89518</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5367</v>
+        <v>0.540521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.53156</v>
+        <v>0.52984</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.908322</v>
+        <v>0.909018</v>
       </c>
       <c r="C37" t="n">
-        <v>0.546858</v>
+        <v>0.550255</v>
       </c>
       <c r="D37" t="n">
-        <v>0.532206</v>
+        <v>0.532531</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.921573</v>
+        <v>0.922508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5583090000000001</v>
+        <v>0.560853</v>
       </c>
       <c r="D38" t="n">
-        <v>0.53304</v>
+        <v>0.537609</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.931994</v>
+        <v>0.934322</v>
       </c>
       <c r="C39" t="n">
-        <v>0.572664</v>
+        <v>0.573603</v>
       </c>
       <c r="D39" t="n">
-        <v>0.533093</v>
+        <v>0.538832</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.947454</v>
+        <v>0.947792</v>
       </c>
       <c r="C40" t="n">
-        <v>0.517561</v>
+        <v>0.521307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.54416</v>
+        <v>0.544675</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.883948</v>
+        <v>0.885453</v>
       </c>
       <c r="C41" t="n">
-        <v>0.521922</v>
+        <v>0.525997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.548713</v>
+        <v>0.5486490000000001</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.895224</v>
+        <v>0.895663</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5329199999999999</v>
+        <v>0.53531</v>
       </c>
       <c r="D42" t="n">
-        <v>0.551488</v>
+        <v>0.551889</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.903914</v>
+        <v>0.904645</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5356610000000001</v>
+        <v>0.540342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.553096</v>
+        <v>0.554127</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9089429999999999</v>
+        <v>0.910297</v>
       </c>
       <c r="C44" t="n">
-        <v>0.545438</v>
+        <v>0.549244</v>
       </c>
       <c r="D44" t="n">
-        <v>0.557477</v>
+        <v>0.557302</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.921473</v>
+        <v>0.92254</v>
       </c>
       <c r="C45" t="n">
-        <v>0.551745</v>
+        <v>0.555457</v>
       </c>
       <c r="D45" t="n">
-        <v>0.560016</v>
+        <v>0.559486</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.928226</v>
+        <v>0.929693</v>
       </c>
       <c r="C46" t="n">
-        <v>0.562011</v>
+        <v>0.565724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.562877</v>
+        <v>0.562558</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.938882</v>
+        <v>0.940577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.568679</v>
+        <v>0.573519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.563056</v>
+        <v>0.562958</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.950801</v>
+        <v>0.951515</v>
       </c>
       <c r="C48" t="n">
-        <v>0.576478</v>
+        <v>0.5820340000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.564074</v>
+        <v>0.5642509999999999</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.957338</v>
+        <v>0.957757</v>
       </c>
       <c r="C49" t="n">
-        <v>0.58594</v>
+        <v>0.590162</v>
       </c>
       <c r="D49" t="n">
-        <v>0.568886</v>
+        <v>0.567966</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.971305</v>
+        <v>0.972762</v>
       </c>
       <c r="C50" t="n">
-        <v>0.59517</v>
+        <v>0.599232</v>
       </c>
       <c r="D50" t="n">
-        <v>0.571528</v>
+        <v>0.571805</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.978589</v>
+        <v>0.979613</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6079870000000001</v>
+        <v>0.6117899999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.570709</v>
+        <v>0.570254</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.992717</v>
+        <v>0.994058</v>
       </c>
       <c r="C52" t="n">
-        <v>0.61771</v>
+        <v>0.622067</v>
       </c>
       <c r="D52" t="n">
-        <v>0.574551</v>
+        <v>0.575075</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00127</v>
+        <v>1.00278</v>
       </c>
       <c r="C53" t="n">
-        <v>0.628001</v>
+        <v>0.6290790000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.574379</v>
+        <v>0.573176</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01289</v>
+        <v>1.01405</v>
       </c>
       <c r="C54" t="n">
-        <v>0.561149</v>
+        <v>0.564962</v>
       </c>
       <c r="D54" t="n">
-        <v>0.576886</v>
+        <v>0.576989</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.941185</v>
+        <v>0.942689</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5630579999999999</v>
+        <v>0.567237</v>
       </c>
       <c r="D55" t="n">
-        <v>0.57652</v>
+        <v>0.579911</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.948895</v>
+        <v>0.950166</v>
       </c>
       <c r="C56" t="n">
-        <v>0.571986</v>
+        <v>0.57573</v>
       </c>
       <c r="D56" t="n">
-        <v>0.574055</v>
+        <v>0.580085</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.95662</v>
+        <v>0.958248</v>
       </c>
       <c r="C57" t="n">
-        <v>0.581294</v>
+        <v>0.582933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5792079999999999</v>
+        <v>0.582445</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.965804</v>
+        <v>0.966818</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5879490000000001</v>
+        <v>0.592511</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5834549999999999</v>
+        <v>0.584056</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.974607</v>
+        <v>0.975983</v>
       </c>
       <c r="C59" t="n">
-        <v>0.595649</v>
+        <v>0.601745</v>
       </c>
       <c r="D59" t="n">
-        <v>0.584071</v>
+        <v>0.586796</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.98138</v>
+        <v>0.982567</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6056</v>
+        <v>0.612289</v>
       </c>
       <c r="D60" t="n">
-        <v>0.581958</v>
+        <v>0.587483</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.989863</v>
+        <v>0.991263</v>
       </c>
       <c r="C61" t="n">
-        <v>0.615573</v>
+        <v>0.622607</v>
       </c>
       <c r="D61" t="n">
-        <v>0.589681</v>
+        <v>0.591133</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00083</v>
+        <v>1.00399</v>
       </c>
       <c r="C62" t="n">
-        <v>0.627918</v>
+        <v>0.632874</v>
       </c>
       <c r="D62" t="n">
-        <v>0.586687</v>
+        <v>0.590827</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01002</v>
+        <v>1.01447</v>
       </c>
       <c r="C63" t="n">
-        <v>0.641199</v>
+        <v>0.644846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.587048</v>
+        <v>0.592187</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01578</v>
+        <v>1.02116</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6541670000000001</v>
+        <v>0.659765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.59099</v>
+        <v>0.596267</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02884</v>
+        <v>1.03498</v>
       </c>
       <c r="C65" t="n">
-        <v>0.671245</v>
+        <v>0.677891</v>
       </c>
       <c r="D65" t="n">
-        <v>0.595465</v>
+        <v>0.598873</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.03942</v>
+        <v>1.04644</v>
       </c>
       <c r="C66" t="n">
-        <v>0.681196</v>
+        <v>0.688982</v>
       </c>
       <c r="D66" t="n">
-        <v>0.598537</v>
+        <v>0.603758</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05858</v>
+        <v>1.06459</v>
       </c>
       <c r="C67" t="n">
-        <v>0.702541</v>
+        <v>0.711659</v>
       </c>
       <c r="D67" t="n">
-        <v>0.601073</v>
+        <v>0.605079</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0746</v>
+        <v>1.07947</v>
       </c>
       <c r="C68" t="n">
-        <v>0.64279</v>
+        <v>0.647284</v>
       </c>
       <c r="D68" t="n">
-        <v>0.625906</v>
+        <v>0.6316619999999999</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.03389</v>
+        <v>1.04483</v>
       </c>
       <c r="C69" t="n">
-        <v>0.671629</v>
+        <v>0.673048</v>
       </c>
       <c r="D69" t="n">
-        <v>0.63466</v>
+        <v>0.64163</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.06031</v>
+        <v>1.07328</v>
       </c>
       <c r="C70" t="n">
-        <v>0.703168</v>
+        <v>0.710423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.652188</v>
+        <v>0.662867</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.08779</v>
+        <v>1.10777</v>
       </c>
       <c r="C71" t="n">
-        <v>0.736112</v>
+        <v>0.741914</v>
       </c>
       <c r="D71" t="n">
-        <v>0.66945</v>
+        <v>0.691183</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.12147</v>
+        <v>1.1434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7671</v>
+        <v>0.776212</v>
       </c>
       <c r="D72" t="n">
-        <v>0.687709</v>
+        <v>0.707368</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.15894</v>
+        <v>1.18102</v>
       </c>
       <c r="C73" t="n">
-        <v>0.809034</v>
+        <v>0.817325</v>
       </c>
       <c r="D73" t="n">
-        <v>0.708456</v>
+        <v>0.726346</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.20099</v>
+        <v>1.21723</v>
       </c>
       <c r="C74" t="n">
-        <v>0.85016</v>
+        <v>0.858973</v>
       </c>
       <c r="D74" t="n">
-        <v>0.729968</v>
+        <v>0.74485</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.24795</v>
+        <v>1.28055</v>
       </c>
       <c r="C75" t="n">
-        <v>0.894491</v>
+        <v>0.911525</v>
       </c>
       <c r="D75" t="n">
-        <v>0.758875</v>
+        <v>0.783033</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30393</v>
+        <v>1.33117</v>
       </c>
       <c r="C76" t="n">
-        <v>0.944747</v>
+        <v>0.95713</v>
       </c>
       <c r="D76" t="n">
-        <v>0.787658</v>
+        <v>0.8079499999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3555</v>
+        <v>1.39336</v>
       </c>
       <c r="C77" t="n">
-        <v>0.999066</v>
+        <v>1.01152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.81935</v>
+        <v>0.845871</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.42673</v>
+        <v>1.45951</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05433</v>
+        <v>1.06423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8572380000000001</v>
+        <v>0.882545</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.50972</v>
+        <v>1.52822</v>
       </c>
       <c r="C79" t="n">
-        <v>1.11627</v>
+        <v>1.11854</v>
       </c>
       <c r="D79" t="n">
-        <v>0.908251</v>
+        <v>0.921558</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.58598</v>
+        <v>1.61009</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17311</v>
+        <v>1.17605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.95264</v>
+        <v>0.96707</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.68739</v>
+        <v>1.69886</v>
       </c>
       <c r="C81" t="n">
-        <v>1.24427</v>
+        <v>1.24487</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00747</v>
+        <v>1.01247</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.79933</v>
+        <v>1.80116</v>
       </c>
       <c r="C82" t="n">
-        <v>1.31784</v>
+        <v>1.31811</v>
       </c>
       <c r="D82" t="n">
-        <v>1.07153</v>
+        <v>1.07173</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.90406</v>
+        <v>1.92339</v>
       </c>
       <c r="C83" t="n">
-        <v>1.307</v>
+        <v>1.3072</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20885</v>
+        <v>1.21086</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.97184</v>
+        <v>1.97484</v>
       </c>
       <c r="C84" t="n">
-        <v>1.37057</v>
+        <v>1.37107</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27812</v>
+        <v>1.27548</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.10333</v>
+        <v>2.09724</v>
       </c>
       <c r="C85" t="n">
-        <v>1.4417</v>
+        <v>1.43984</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35282</v>
+        <v>1.34639</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.23006</v>
+        <v>2.21116</v>
       </c>
       <c r="C86" t="n">
-        <v>1.52235</v>
+        <v>1.51391</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42732</v>
+        <v>1.41539</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.36428</v>
+        <v>2.35416</v>
       </c>
       <c r="C87" t="n">
-        <v>1.6002</v>
+        <v>1.5935</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50416</v>
+        <v>1.49328</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48849</v>
+        <v>2.48264</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68252</v>
+        <v>1.68016</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5807</v>
+        <v>1.57127</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.65283</v>
+        <v>2.63243</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76987</v>
+        <v>1.76491</v>
       </c>
       <c r="D89" t="n">
-        <v>1.64474</v>
+        <v>1.63377</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7952</v>
+        <v>2.78019</v>
       </c>
       <c r="C90" t="n">
-        <v>1.85701</v>
+        <v>1.84531</v>
       </c>
       <c r="D90" t="n">
-        <v>1.71621</v>
+        <v>1.70717</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.94527</v>
+        <v>2.93111</v>
       </c>
       <c r="C91" t="n">
-        <v>1.95153</v>
+        <v>1.94526</v>
       </c>
       <c r="D91" t="n">
-        <v>1.77993</v>
+        <v>1.78156</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.07742</v>
+        <v>3.08154</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04087</v>
+        <v>2.04146</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84978</v>
+        <v>1.84114</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.22577</v>
+        <v>3.22316</v>
       </c>
       <c r="C93" t="n">
-        <v>2.13618</v>
+        <v>2.13715</v>
       </c>
       <c r="D93" t="n">
-        <v>1.91839</v>
+        <v>1.91185</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.38263</v>
+        <v>3.37766</v>
       </c>
       <c r="C94" t="n">
-        <v>2.23958</v>
+        <v>2.24048</v>
       </c>
       <c r="D94" t="n">
-        <v>1.9761</v>
+        <v>1.97071</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.55583</v>
+        <v>3.53693</v>
       </c>
       <c r="C95" t="n">
-        <v>2.33835</v>
+        <v>2.34083</v>
       </c>
       <c r="D95" t="n">
-        <v>2.04137</v>
+        <v>2.02937</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.69436</v>
+        <v>3.70036</v>
       </c>
       <c r="C96" t="n">
-        <v>2.4719</v>
+        <v>2.46517</v>
       </c>
       <c r="D96" t="n">
-        <v>2.10386</v>
+        <v>2.09859</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.86526</v>
+        <v>3.8624</v>
       </c>
       <c r="C97" t="n">
-        <v>2.21626</v>
+        <v>2.22177</v>
       </c>
       <c r="D97" t="n">
-        <v>2.28527</v>
+        <v>2.25817</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.74511</v>
+        <v>3.763</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28925</v>
+        <v>2.27969</v>
       </c>
       <c r="D98" t="n">
-        <v>2.32095</v>
+        <v>2.31332</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.86633</v>
+        <v>3.84651</v>
       </c>
       <c r="C99" t="n">
-        <v>2.35071</v>
+        <v>2.3496</v>
       </c>
       <c r="D99" t="n">
-        <v>2.38386</v>
+        <v>2.36594</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.98335</v>
+        <v>3.99936</v>
       </c>
       <c r="C100" t="n">
-        <v>2.41885</v>
+        <v>2.43805</v>
       </c>
       <c r="D100" t="n">
-        <v>2.42353</v>
+        <v>2.41582</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.10471</v>
+        <v>4.11527</v>
       </c>
       <c r="C101" t="n">
-        <v>2.50543</v>
+        <v>2.50218</v>
       </c>
       <c r="D101" t="n">
-        <v>2.47077</v>
+        <v>2.50044</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.23199</v>
+        <v>4.21936</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57541</v>
+        <v>2.56935</v>
       </c>
       <c r="D102" t="n">
-        <v>2.5232</v>
+        <v>2.51461</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.35021</v>
+        <v>4.33019</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64914</v>
+        <v>2.64132</v>
       </c>
       <c r="D103" t="n">
-        <v>2.57136</v>
+        <v>2.56854</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.44629</v>
+        <v>4.46523</v>
       </c>
       <c r="C104" t="n">
-        <v>2.73352</v>
+        <v>2.7128</v>
       </c>
       <c r="D104" t="n">
-        <v>2.641</v>
+        <v>2.59715</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.55505</v>
+        <v>4.56748</v>
       </c>
       <c r="C105" t="n">
-        <v>2.80879</v>
+        <v>2.8013</v>
       </c>
       <c r="D105" t="n">
-        <v>2.64785</v>
+        <v>2.66399</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.69851</v>
+        <v>4.66576</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88855</v>
+        <v>2.87993</v>
       </c>
       <c r="D106" t="n">
-        <v>2.69006</v>
+        <v>2.67813</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.82619</v>
+        <v>4.79642</v>
       </c>
       <c r="C107" t="n">
-        <v>2.97185</v>
+        <v>2.96309</v>
       </c>
       <c r="D107" t="n">
-        <v>2.72498</v>
+        <v>2.71915</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.95735</v>
+        <v>4.93348</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0807</v>
+        <v>3.06395</v>
       </c>
       <c r="D108" t="n">
-        <v>2.77694</v>
+        <v>2.7963</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.09716</v>
+        <v>5.0656</v>
       </c>
       <c r="C109" t="n">
-        <v>3.17916</v>
+        <v>3.18021</v>
       </c>
       <c r="D109" t="n">
-        <v>2.79365</v>
+        <v>2.78626</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.20919</v>
+        <v>5.21666</v>
       </c>
       <c r="C110" t="n">
-        <v>3.28007</v>
+        <v>3.26597</v>
       </c>
       <c r="D110" t="n">
-        <v>2.8356</v>
+        <v>2.83194</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>5.34351</v>
+        <v>5.3441</v>
       </c>
       <c r="C111" t="n">
-        <v>2.87469</v>
+        <v>2.86006</v>
       </c>
       <c r="D111" t="n">
-        <v>2.96337</v>
+        <v>2.98914</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>5.02066</v>
+        <v>4.99195</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9525</v>
+        <v>2.93867</v>
       </c>
       <c r="D112" t="n">
-        <v>3.0308</v>
+        <v>2.98681</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>5.11037</v>
+        <v>5.09466</v>
       </c>
       <c r="C113" t="n">
-        <v>3.0172</v>
+        <v>2.99675</v>
       </c>
       <c r="D113" t="n">
-        <v>3.03048</v>
+        <v>3.03302</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>5.19115</v>
+        <v>5.19648</v>
       </c>
       <c r="C114" t="n">
-        <v>3.06401</v>
+        <v>3.06349</v>
       </c>
       <c r="D114" t="n">
-        <v>3.05024</v>
+        <v>3.05084</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.29508</v>
+        <v>5.29091</v>
       </c>
       <c r="C115" t="n">
-        <v>3.15096</v>
+        <v>3.1273</v>
       </c>
       <c r="D115" t="n">
-        <v>3.10938</v>
+        <v>3.10708</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.3998</v>
+        <v>5.40162</v>
       </c>
       <c r="C116" t="n">
-        <v>3.21996</v>
+        <v>3.21687</v>
       </c>
       <c r="D116" t="n">
-        <v>3.12364</v>
+        <v>3.11292</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>5.49859</v>
+        <v>5.4931</v>
       </c>
       <c r="C117" t="n">
-        <v>3.29347</v>
+        <v>3.28653</v>
       </c>
       <c r="D117" t="n">
-        <v>3.16333</v>
+        <v>3.12267</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.59968</v>
+        <v>5.59224</v>
       </c>
       <c r="C118" t="n">
-        <v>3.37756</v>
+        <v>3.37109</v>
       </c>
       <c r="D118" t="n">
-        <v>3.19377</v>
+        <v>3.14658</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.70002</v>
+        <v>5.70457</v>
       </c>
       <c r="C119" t="n">
-        <v>3.4613</v>
+        <v>3.45501</v>
       </c>
       <c r="D119" t="n">
-        <v>3.19538</v>
+        <v>3.16978</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>41.3874</v>
+        <v>41.2778</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4501</v>
+        <v>18.2243</v>
       </c>
       <c r="D2" t="n">
-        <v>25.804</v>
+        <v>25.1232</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>41.8296</v>
+        <v>41.457</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7568</v>
+        <v>18.6706</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4609</v>
+        <v>25.7745</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>42.3721</v>
+        <v>41.9992</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0538</v>
+        <v>18.9614</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9271</v>
+        <v>26.2949</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>42.8043</v>
+        <v>42.5188</v>
       </c>
       <c r="C5" t="n">
-        <v>19.351</v>
+        <v>19.2578</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3378</v>
+        <v>26.7652</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>43.3649</v>
+        <v>43.0241</v>
       </c>
       <c r="C6" t="n">
-        <v>19.7383</v>
+        <v>19.5922</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0115</v>
+        <v>27.4853</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>44.0119</v>
+        <v>43.594</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0831</v>
+        <v>18.0145</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5435</v>
+        <v>28.3629</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>41.4196</v>
+        <v>41.5801</v>
       </c>
       <c r="C8" t="n">
-        <v>18.3094</v>
+        <v>18.2525</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7841</v>
+        <v>28.638</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>41.8583</v>
+        <v>41.8874</v>
       </c>
       <c r="C9" t="n">
-        <v>18.5</v>
+        <v>18.4435</v>
       </c>
       <c r="D9" t="n">
-        <v>29.4895</v>
+        <v>29.0886</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>42.6698</v>
+        <v>42.3131</v>
       </c>
       <c r="C10" t="n">
-        <v>18.6997</v>
+        <v>18.673</v>
       </c>
       <c r="D10" t="n">
-        <v>29.6818</v>
+        <v>29.8292</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>42.8043</v>
+        <v>42.8924</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8838</v>
+        <v>18.835</v>
       </c>
       <c r="D11" t="n">
-        <v>30.5177</v>
+        <v>30.2627</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>43.6381</v>
+        <v>43.5834</v>
       </c>
       <c r="C12" t="n">
-        <v>19.1041</v>
+        <v>19.0606</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7189</v>
+        <v>30.6897</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>43.82</v>
+        <v>43.9646</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3713</v>
+        <v>19.3066</v>
       </c>
       <c r="D13" t="n">
-        <v>31.2421</v>
+        <v>31.0995</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>44.4912</v>
+        <v>44.4611</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6121</v>
+        <v>19.5424</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9607</v>
+        <v>31.999</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>45.0092</v>
+        <v>45.1264</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8712</v>
+        <v>19.8296</v>
       </c>
       <c r="D15" t="n">
-        <v>32.6826</v>
+        <v>32.6397</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>45.7747</v>
+        <v>45.6768</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1566</v>
+        <v>20.1078</v>
       </c>
       <c r="D16" t="n">
-        <v>32.9407</v>
+        <v>32.8815</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1889</v>
+        <v>46.2056</v>
       </c>
       <c r="C17" t="n">
-        <v>20.3909</v>
+        <v>20.3224</v>
       </c>
       <c r="D17" t="n">
-        <v>33.7476</v>
+        <v>33.6144</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>46.8594</v>
+        <v>46.8237</v>
       </c>
       <c r="C18" t="n">
-        <v>20.6904</v>
+        <v>20.6199</v>
       </c>
       <c r="D18" t="n">
-        <v>34.1142</v>
+        <v>34.0591</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>47.2997</v>
+        <v>47.3224</v>
       </c>
       <c r="C19" t="n">
-        <v>20.9636</v>
+        <v>20.8786</v>
       </c>
       <c r="D19" t="n">
-        <v>34.8509</v>
+        <v>34.7772</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>48.23</v>
+        <v>48.1194</v>
       </c>
       <c r="C20" t="n">
-        <v>21.2571</v>
+        <v>21.1676</v>
       </c>
       <c r="D20" t="n">
-        <v>35.4474</v>
+        <v>35.4031</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>48.5212</v>
+        <v>48.5217</v>
       </c>
       <c r="C21" t="n">
-        <v>19.0758</v>
+        <v>19.0511</v>
       </c>
       <c r="D21" t="n">
-        <v>35.5936</v>
+        <v>35.8884</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>46.6512</v>
+        <v>46.4539</v>
       </c>
       <c r="C22" t="n">
-        <v>19.2655</v>
+        <v>19.2399</v>
       </c>
       <c r="D22" t="n">
-        <v>36.1423</v>
+        <v>36.485</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>47.2116</v>
+        <v>47.0403</v>
       </c>
       <c r="C23" t="n">
-        <v>19.453</v>
+        <v>19.4313</v>
       </c>
       <c r="D23" t="n">
-        <v>36.5733</v>
+        <v>36.8546</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>47.4958</v>
+        <v>47.3563</v>
       </c>
       <c r="C24" t="n">
-        <v>19.6623</v>
+        <v>19.6396</v>
       </c>
       <c r="D24" t="n">
-        <v>36.9255</v>
+        <v>37.1975</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>48.0771</v>
+        <v>47.8709</v>
       </c>
       <c r="C25" t="n">
-        <v>19.8694</v>
+        <v>19.8167</v>
       </c>
       <c r="D25" t="n">
-        <v>37.2465</v>
+        <v>37.5796</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>48.5822</v>
+        <v>48.4001</v>
       </c>
       <c r="C26" t="n">
-        <v>20.0762</v>
+        <v>20.0556</v>
       </c>
       <c r="D26" t="n">
-        <v>37.7128</v>
+        <v>38.0387</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>48.8894</v>
+        <v>48.6</v>
       </c>
       <c r="C27" t="n">
-        <v>20.2886</v>
+        <v>20.2533</v>
       </c>
       <c r="D27" t="n">
-        <v>37.9346</v>
+        <v>38.3068</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>49.2581</v>
+        <v>49.2578</v>
       </c>
       <c r="C28" t="n">
-        <v>20.5247</v>
+        <v>20.4984</v>
       </c>
       <c r="D28" t="n">
-        <v>38.3022</v>
+        <v>38.7426</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>49.7552</v>
+        <v>49.7079</v>
       </c>
       <c r="C29" t="n">
-        <v>20.7538</v>
+        <v>20.723</v>
       </c>
       <c r="D29" t="n">
-        <v>38.6527</v>
+        <v>39.0366</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>50.0283</v>
+        <v>49.8275</v>
       </c>
       <c r="C30" t="n">
-        <v>21.0343</v>
+        <v>20.9801</v>
       </c>
       <c r="D30" t="n">
-        <v>39.0133</v>
+        <v>39.4829</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>50.5827</v>
+        <v>50.3422</v>
       </c>
       <c r="C31" t="n">
-        <v>21.2478</v>
+        <v>21.2138</v>
       </c>
       <c r="D31" t="n">
-        <v>39.5051</v>
+        <v>39.8847</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>50.985</v>
+        <v>51.0094</v>
       </c>
       <c r="C32" t="n">
-        <v>21.4839</v>
+        <v>21.4566</v>
       </c>
       <c r="D32" t="n">
-        <v>39.8152</v>
+        <v>40.1085</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>51.5768</v>
+        <v>51.5244</v>
       </c>
       <c r="C33" t="n">
-        <v>21.7588</v>
+        <v>21.7045</v>
       </c>
       <c r="D33" t="n">
-        <v>40.0851</v>
+        <v>40.4629</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>52.1208</v>
+        <v>52.1423</v>
       </c>
       <c r="C34" t="n">
-        <v>21.992</v>
+        <v>21.9502</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3587</v>
+        <v>40.8882</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>52.5751</v>
+        <v>52.3668</v>
       </c>
       <c r="C35" t="n">
-        <v>19.5053</v>
+        <v>19.4681</v>
       </c>
       <c r="D35" t="n">
-        <v>40.3645</v>
+        <v>40.889</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>50.13</v>
+        <v>49.6779</v>
       </c>
       <c r="C36" t="n">
-        <v>19.6532</v>
+        <v>19.6356</v>
       </c>
       <c r="D36" t="n">
-        <v>40.6027</v>
+        <v>41.1778</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>50.3877</v>
+        <v>50.1654</v>
       </c>
       <c r="C37" t="n">
-        <v>19.8671</v>
+        <v>19.8612</v>
       </c>
       <c r="D37" t="n">
-        <v>40.9849</v>
+        <v>41.3555</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>50.5938</v>
+        <v>50.516</v>
       </c>
       <c r="C38" t="n">
-        <v>20.0964</v>
+        <v>20.0749</v>
       </c>
       <c r="D38" t="n">
-        <v>41.0168</v>
+        <v>41.5047</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>50.9906</v>
+        <v>50.8207</v>
       </c>
       <c r="C39" t="n">
-        <v>20.2867</v>
+        <v>20.254</v>
       </c>
       <c r="D39" t="n">
-        <v>41.2861</v>
+        <v>41.879</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>51.2893</v>
+        <v>51.1574</v>
       </c>
       <c r="C40" t="n">
-        <v>20.498</v>
+        <v>20.4512</v>
       </c>
       <c r="D40" t="n">
-        <v>41.5572</v>
+        <v>42.0493</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>51.5229</v>
+        <v>51.4282</v>
       </c>
       <c r="C41" t="n">
-        <v>20.6592</v>
+        <v>20.6249</v>
       </c>
       <c r="D41" t="n">
-        <v>41.7401</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>51.8396</v>
+        <v>51.7701</v>
       </c>
       <c r="C42" t="n">
-        <v>20.9138</v>
+        <v>20.8708</v>
       </c>
       <c r="D42" t="n">
-        <v>42.0247</v>
+        <v>42.4687</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>51.7859</v>
+        <v>52.0751</v>
       </c>
       <c r="C43" t="n">
-        <v>21.0593</v>
+        <v>21.0775</v>
       </c>
       <c r="D43" t="n">
-        <v>42.2305</v>
+        <v>42.6802</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>52.5186</v>
+        <v>52.3954</v>
       </c>
       <c r="C44" t="n">
-        <v>21.3215</v>
+        <v>21.3056</v>
       </c>
       <c r="D44" t="n">
-        <v>42.558</v>
+        <v>42.9573</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>52.945</v>
+        <v>52.9138</v>
       </c>
       <c r="C45" t="n">
-        <v>21.5704</v>
+        <v>21.5788</v>
       </c>
       <c r="D45" t="n">
-        <v>42.5879</v>
+        <v>43.1545</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>53.3286</v>
+        <v>53.3542</v>
       </c>
       <c r="C46" t="n">
-        <v>21.8406</v>
+        <v>21.8107</v>
       </c>
       <c r="D46" t="n">
-        <v>42.8914</v>
+        <v>43.4079</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>53.8518</v>
+        <v>53.794</v>
       </c>
       <c r="C47" t="n">
-        <v>22.1053</v>
+        <v>22.0993</v>
       </c>
       <c r="D47" t="n">
-        <v>43.4253</v>
+        <v>43.53</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>54.2096</v>
+        <v>54.2312</v>
       </c>
       <c r="C48" t="n">
-        <v>22.5484</v>
+        <v>22.3202</v>
       </c>
       <c r="D48" t="n">
-        <v>43.6654</v>
+        <v>43.8473</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>54.7182</v>
+        <v>54.6727</v>
       </c>
       <c r="C49" t="n">
-        <v>22.7916</v>
+        <v>22.6561</v>
       </c>
       <c r="D49" t="n">
-        <v>43.653</v>
+        <v>44.1077</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>55.0888</v>
+        <v>55.0993</v>
       </c>
       <c r="C50" t="n">
-        <v>20.0704</v>
+        <v>20.0265</v>
       </c>
       <c r="D50" t="n">
-        <v>43.2603</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>52.0828</v>
+        <v>52.0333</v>
       </c>
       <c r="C51" t="n">
-        <v>20.3736</v>
+        <v>20.4879</v>
       </c>
       <c r="D51" t="n">
-        <v>43.2659</v>
+        <v>43.9395</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>52.2656</v>
+        <v>52.2317</v>
       </c>
       <c r="C52" t="n">
-        <v>20.4122</v>
+        <v>20.6799</v>
       </c>
       <c r="D52" t="n">
-        <v>43.4517</v>
+        <v>44.1049</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>52.5151</v>
+        <v>52.5067</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7368</v>
+        <v>20.6042</v>
       </c>
       <c r="D53" t="n">
-        <v>43.5059</v>
+        <v>44.2181</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>52.8071</v>
+        <v>52.7903</v>
       </c>
       <c r="C54" t="n">
-        <v>20.9876</v>
+        <v>21.0981</v>
       </c>
       <c r="D54" t="n">
-        <v>43.74</v>
+        <v>44.3315</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>52.998</v>
+        <v>53.0333</v>
       </c>
       <c r="C55" t="n">
-        <v>21.4583</v>
+        <v>21.4512</v>
       </c>
       <c r="D55" t="n">
-        <v>43.8744</v>
+        <v>44.5373</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>53.3127</v>
+        <v>53.3468</v>
       </c>
       <c r="C56" t="n">
-        <v>21.9854</v>
+        <v>21.721</v>
       </c>
       <c r="D56" t="n">
-        <v>44.0745</v>
+        <v>44.6713</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>53.6079</v>
+        <v>53.666</v>
       </c>
       <c r="C57" t="n">
-        <v>22.8976</v>
+        <v>22.6496</v>
       </c>
       <c r="D57" t="n">
-        <v>44.7185</v>
+        <v>44.8943</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>54.1808</v>
+        <v>54.0415</v>
       </c>
       <c r="C58" t="n">
-        <v>22.8778</v>
+        <v>22.9481</v>
       </c>
       <c r="D58" t="n">
-        <v>44.6314</v>
+        <v>45.3322</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>54.4486</v>
+        <v>54.3518</v>
       </c>
       <c r="C59" t="n">
-        <v>23.7541</v>
+        <v>23.4428</v>
       </c>
       <c r="D59" t="n">
-        <v>44.6987</v>
+        <v>45.5768</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>54.7835</v>
+        <v>55.0738</v>
       </c>
       <c r="C60" t="n">
-        <v>23.7871</v>
+        <v>24.3378</v>
       </c>
       <c r="D60" t="n">
-        <v>45.3176</v>
+        <v>46.2964</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>55.4136</v>
+        <v>55.1713</v>
       </c>
       <c r="C61" t="n">
-        <v>25.6826</v>
+        <v>24.6766</v>
       </c>
       <c r="D61" t="n">
-        <v>45.8294</v>
+        <v>46.0168</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>56.269</v>
+        <v>56.0774</v>
       </c>
       <c r="C62" t="n">
-        <v>26.7191</v>
+        <v>25.6671</v>
       </c>
       <c r="D62" t="n">
-        <v>46.1712</v>
+        <v>46.7987</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>57.0178</v>
+        <v>56.1363</v>
       </c>
       <c r="C63" t="n">
-        <v>27.364</v>
+        <v>26.3336</v>
       </c>
       <c r="D63" t="n">
-        <v>46.9073</v>
+        <v>46.4444</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>57.7955</v>
+        <v>56.8421</v>
       </c>
       <c r="C64" t="n">
-        <v>31.9676</v>
+        <v>31.421</v>
       </c>
       <c r="D64" t="n">
-        <v>50.9703</v>
+        <v>50.6581</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>61.3965</v>
+        <v>60.9871</v>
       </c>
       <c r="C65" t="n">
-        <v>33.1514</v>
+        <v>33.8056</v>
       </c>
       <c r="D65" t="n">
-        <v>50.5223</v>
+        <v>52.0235</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>62.1205</v>
+        <v>63.6853</v>
       </c>
       <c r="C66" t="n">
-        <v>35.1912</v>
+        <v>35.5452</v>
       </c>
       <c r="D66" t="n">
-        <v>53.2474</v>
+        <v>53.2915</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>64.8858</v>
+        <v>64.562</v>
       </c>
       <c r="C67" t="n">
-        <v>37.3558</v>
+        <v>38.0849</v>
       </c>
       <c r="D67" t="n">
-        <v>53.5208</v>
+        <v>55.3323</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>65.8085</v>
+        <v>67.08450000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>38.2909</v>
+        <v>40.1992</v>
       </c>
       <c r="D68" t="n">
-        <v>54.9376</v>
+        <v>56.9162</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>67.5977</v>
+        <v>69.5665</v>
       </c>
       <c r="C69" t="n">
-        <v>41.8155</v>
+        <v>42.0089</v>
       </c>
       <c r="D69" t="n">
-        <v>56.12</v>
+        <v>57.6826</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>69.45740000000001</v>
+        <v>71.04689999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>44.0556</v>
+        <v>43.8794</v>
       </c>
       <c r="D70" t="n">
-        <v>59.5549</v>
+        <v>61.4974</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>72.9188</v>
+        <v>73.94159999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>46.3253</v>
+        <v>46.6224</v>
       </c>
       <c r="D71" t="n">
-        <v>62.0658</v>
+        <v>65.30200000000001</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>75.6979</v>
+        <v>75.69199999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>48.4201</v>
+        <v>48.302</v>
       </c>
       <c r="D72" t="n">
-        <v>64.44110000000001</v>
+        <v>66.0635</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>78.4282</v>
+        <v>79.1165</v>
       </c>
       <c r="C73" t="n">
-        <v>51.1326</v>
+        <v>50.6664</v>
       </c>
       <c r="D73" t="n">
-        <v>67.563</v>
+        <v>68.1143</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>83.6495</v>
+        <v>83.06310000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>53.7721</v>
+        <v>52.936</v>
       </c>
       <c r="D74" t="n">
-        <v>72.414</v>
+        <v>70.0784</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>89.5603</v>
+        <v>86.4834</v>
       </c>
       <c r="C75" t="n">
-        <v>56.0847</v>
+        <v>54.7288</v>
       </c>
       <c r="D75" t="n">
-        <v>74.7894</v>
+        <v>74.3503</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>92.1127</v>
+        <v>91.0628</v>
       </c>
       <c r="C76" t="n">
-        <v>58.3164</v>
+        <v>57.0352</v>
       </c>
       <c r="D76" t="n">
-        <v>79.2115</v>
+        <v>77.99720000000001</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>98.7159</v>
+        <v>96.09690000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>60.3787</v>
+        <v>59.3539</v>
       </c>
       <c r="D77" t="n">
-        <v>84.2679</v>
+        <v>83.0299</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>104.331</v>
+        <v>102.643</v>
       </c>
       <c r="C78" t="n">
-        <v>71.8567</v>
+        <v>70.181</v>
       </c>
       <c r="D78" t="n">
-        <v>114.986</v>
+        <v>113.476</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>138.772</v>
+        <v>136.466</v>
       </c>
       <c r="C79" t="n">
-        <v>73.3604</v>
+        <v>71.5522</v>
       </c>
       <c r="D79" t="n">
-        <v>122.067</v>
+        <v>119.026</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>146.467</v>
+        <v>141.815</v>
       </c>
       <c r="C80" t="n">
-        <v>74.9093</v>
+        <v>72.9063</v>
       </c>
       <c r="D80" t="n">
-        <v>126.083</v>
+        <v>124.645</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>152.523</v>
+        <v>149</v>
       </c>
       <c r="C81" t="n">
-        <v>76.3028</v>
+        <v>74.3728</v>
       </c>
       <c r="D81" t="n">
-        <v>132.501</v>
+        <v>130.992</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>159.24</v>
+        <v>155.659</v>
       </c>
       <c r="C82" t="n">
-        <v>77.7654</v>
+        <v>75.74379999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>137.433</v>
+        <v>136.283</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>164.316</v>
+        <v>161.002</v>
       </c>
       <c r="C83" t="n">
-        <v>79.0046</v>
+        <v>77.10080000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>143.876</v>
+        <v>142.303</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>171.419</v>
+        <v>167.13</v>
       </c>
       <c r="C84" t="n">
-        <v>80.4756</v>
+        <v>78.28570000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>149.409</v>
+        <v>147.291</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>176.864</v>
+        <v>173.37</v>
       </c>
       <c r="C85" t="n">
-        <v>81.6795</v>
+        <v>79.7248</v>
       </c>
       <c r="D85" t="n">
-        <v>154.12</v>
+        <v>152.959</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>183.302</v>
+        <v>178.768</v>
       </c>
       <c r="C86" t="n">
-        <v>83.1636</v>
+        <v>81.1247</v>
       </c>
       <c r="D86" t="n">
-        <v>160.005</v>
+        <v>158.82</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>189.151</v>
+        <v>184.704</v>
       </c>
       <c r="C87" t="n">
-        <v>84.2637</v>
+        <v>82.4353</v>
       </c>
       <c r="D87" t="n">
-        <v>165.516</v>
+        <v>163.953</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>194.599</v>
+        <v>190.551</v>
       </c>
       <c r="C88" t="n">
-        <v>85.50190000000001</v>
+        <v>83.88679999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>170.212</v>
+        <v>169.772</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>199.384</v>
+        <v>196.365</v>
       </c>
       <c r="C89" t="n">
-        <v>86.82550000000001</v>
+        <v>85.0972</v>
       </c>
       <c r="D89" t="n">
-        <v>175.65</v>
+        <v>175.13</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>205.866</v>
+        <v>201.404</v>
       </c>
       <c r="C90" t="n">
-        <v>88.61239999999999</v>
+        <v>86.50530000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>181.205</v>
+        <v>180.07</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>210.653</v>
+        <v>207.02</v>
       </c>
       <c r="C91" t="n">
-        <v>90.0759</v>
+        <v>88.14109999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>185.919</v>
+        <v>185.009</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>216.116</v>
+        <v>212.15</v>
       </c>
       <c r="C92" t="n">
-        <v>90.2854</v>
+        <v>88.5243</v>
       </c>
       <c r="D92" t="n">
-        <v>210.127</v>
+        <v>209.343</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>240.689</v>
+        <v>237.523</v>
       </c>
       <c r="C93" t="n">
-        <v>90.7054</v>
+        <v>89.404</v>
       </c>
       <c r="D93" t="n">
-        <v>212.639</v>
+        <v>212.582</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>244.605</v>
+        <v>241.221</v>
       </c>
       <c r="C94" t="n">
-        <v>91.49939999999999</v>
+        <v>90.3194</v>
       </c>
       <c r="D94" t="n">
-        <v>214.832</v>
+        <v>215.828</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>248.697</v>
+        <v>244.206</v>
       </c>
       <c r="C95" t="n">
-        <v>92.6121</v>
+        <v>91.3098</v>
       </c>
       <c r="D95" t="n">
-        <v>220.595</v>
+        <v>218.915</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>251.472</v>
+        <v>248.233</v>
       </c>
       <c r="C96" t="n">
-        <v>93.41840000000001</v>
+        <v>92.0896</v>
       </c>
       <c r="D96" t="n">
-        <v>223.472</v>
+        <v>221.908</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>254.586</v>
+        <v>251.143</v>
       </c>
       <c r="C97" t="n">
-        <v>94.5175</v>
+        <v>92.9358</v>
       </c>
       <c r="D97" t="n">
-        <v>225.684</v>
+        <v>223.569</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>258.544</v>
+        <v>254.119</v>
       </c>
       <c r="C98" t="n">
-        <v>95.5232</v>
+        <v>93.8724</v>
       </c>
       <c r="D98" t="n">
-        <v>229.144</v>
+        <v>228.205</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>261.527</v>
+        <v>257.031</v>
       </c>
       <c r="C99" t="n">
-        <v>96.94750000000001</v>
+        <v>94.9053</v>
       </c>
       <c r="D99" t="n">
-        <v>234.004</v>
+        <v>229.291</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>265.952</v>
+        <v>259.768</v>
       </c>
       <c r="C100" t="n">
-        <v>98.2381</v>
+        <v>95.7831</v>
       </c>
       <c r="D100" t="n">
-        <v>236.3</v>
+        <v>233.968</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>268.728</v>
+        <v>263.557</v>
       </c>
       <c r="C101" t="n">
-        <v>99.1345</v>
+        <v>97.0085</v>
       </c>
       <c r="D101" t="n">
-        <v>238.534</v>
+        <v>236.79</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>271.995</v>
+        <v>266.704</v>
       </c>
       <c r="C102" t="n">
-        <v>100.123</v>
+        <v>98.30549999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>241.896</v>
+        <v>239.306</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>274.951</v>
+        <v>269.406</v>
       </c>
       <c r="C103" t="n">
-        <v>100.853</v>
+        <v>99.2705</v>
       </c>
       <c r="D103" t="n">
-        <v>242.462</v>
+        <v>242.329</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>276.616</v>
+        <v>272.978</v>
       </c>
       <c r="C104" t="n">
-        <v>102.072</v>
+        <v>100.647</v>
       </c>
       <c r="D104" t="n">
-        <v>247.339</v>
+        <v>244.674</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>280.869</v>
+        <v>276.167</v>
       </c>
       <c r="C105" t="n">
-        <v>103.539</v>
+        <v>101.898</v>
       </c>
       <c r="D105" t="n">
-        <v>249.613</v>
+        <v>248.068</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>284.1</v>
+        <v>279.16</v>
       </c>
       <c r="C106" t="n">
-        <v>104.945</v>
+        <v>103.337</v>
       </c>
       <c r="D106" t="n">
-        <v>252.344</v>
+        <v>250.752</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>293.102</v>
+        <v>289.268</v>
       </c>
       <c r="C107" t="n">
-        <v>98.3563</v>
+        <v>97.3154</v>
       </c>
       <c r="D107" t="n">
-        <v>262.715</v>
+        <v>260.993</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>294.064</v>
+        <v>290.535</v>
       </c>
       <c r="C108" t="n">
-        <v>99.2658</v>
+        <v>98.1382</v>
       </c>
       <c r="D108" t="n">
-        <v>263.521</v>
+        <v>263.825</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>295.207</v>
+        <v>293.347</v>
       </c>
       <c r="C109" t="n">
-        <v>99.8557</v>
+        <v>99.2225</v>
       </c>
       <c r="D109" t="n">
-        <v>265.778</v>
+        <v>264.63</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>297.161</v>
+        <v>295.1</v>
       </c>
       <c r="C110" t="n">
-        <v>100.778</v>
+        <v>100.022</v>
       </c>
       <c r="D110" t="n">
-        <v>266.672</v>
+        <v>264.757</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>298.99</v>
+        <v>296.461</v>
       </c>
       <c r="C111" t="n">
-        <v>101.509</v>
+        <v>100.846</v>
       </c>
       <c r="D111" t="n">
-        <v>266.856</v>
+        <v>266.4</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>300.22</v>
+        <v>297.541</v>
       </c>
       <c r="C112" t="n">
-        <v>102.441</v>
+        <v>101.608</v>
       </c>
       <c r="D112" t="n">
-        <v>268.699</v>
+        <v>269.224</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>302.304</v>
+        <v>299.248</v>
       </c>
       <c r="C113" t="n">
-        <v>103.205</v>
+        <v>102.609</v>
       </c>
       <c r="D113" t="n">
-        <v>269.928</v>
+        <v>270.491</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>304.72</v>
+        <v>302.025</v>
       </c>
       <c r="C114" t="n">
-        <v>104.748</v>
+        <v>103.582</v>
       </c>
       <c r="D114" t="n">
-        <v>272.249</v>
+        <v>271.815</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>306.113</v>
+        <v>303.744</v>
       </c>
       <c r="C115" t="n">
-        <v>105.582</v>
+        <v>104.648</v>
       </c>
       <c r="D115" t="n">
-        <v>274.625</v>
+        <v>273.283</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>308.321</v>
+        <v>305.494</v>
       </c>
       <c r="C116" t="n">
-        <v>106.671</v>
+        <v>105.483</v>
       </c>
       <c r="D116" t="n">
-        <v>275.704</v>
+        <v>275.452</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>309.708</v>
+        <v>307.795</v>
       </c>
       <c r="C117" t="n">
-        <v>107.473</v>
+        <v>106.836</v>
       </c>
       <c r="D117" t="n">
-        <v>277.347</v>
+        <v>277.265</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>311.784</v>
+        <v>310.071</v>
       </c>
       <c r="C118" t="n">
-        <v>108.76</v>
+        <v>108.293</v>
       </c>
       <c r="D118" t="n">
-        <v>279.113</v>
+        <v>278.147</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>313.709</v>
+        <v>312.488</v>
       </c>
       <c r="C119" t="n">
-        <v>109.949</v>
+        <v>109.424</v>
       </c>
       <c r="D119" t="n">
-        <v>281.361</v>
+        <v>280.52</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>55.6775</v>
+        <v>54.4105</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5575</v>
+        <v>32.1918</v>
       </c>
       <c r="D2" t="n">
-        <v>36.574</v>
+        <v>36.0935</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>56.7415</v>
+        <v>55.4561</v>
       </c>
       <c r="C3" t="n">
-        <v>33.2427</v>
+        <v>32.9902</v>
       </c>
       <c r="D3" t="n">
-        <v>37.3758</v>
+        <v>36.4816</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>57.551</v>
+        <v>56.442</v>
       </c>
       <c r="C4" t="n">
-        <v>33.5181</v>
+        <v>33.5712</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6141</v>
+        <v>36.8077</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>58.2202</v>
+        <v>56.9576</v>
       </c>
       <c r="C5" t="n">
-        <v>33.8277</v>
+        <v>34.0682</v>
       </c>
       <c r="D5" t="n">
-        <v>37.7274</v>
+        <v>36.7595</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>58.3358</v>
+        <v>57.2523</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8334</v>
+        <v>34.8003</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2723</v>
+        <v>37.4425</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>59.1925</v>
+        <v>57.8139</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4387</v>
+        <v>35.5532</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1619</v>
+        <v>38.7773</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>59.7459</v>
+        <v>59.0337</v>
       </c>
       <c r="C8" t="n">
-        <v>35.9418</v>
+        <v>35.9475</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7553</v>
+        <v>39.4072</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>60.5994</v>
+        <v>59.6207</v>
       </c>
       <c r="C9" t="n">
-        <v>35.9924</v>
+        <v>36.1574</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0618</v>
+        <v>39.9902</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>61.3661</v>
+        <v>61.1089</v>
       </c>
       <c r="C10" t="n">
-        <v>36.7651</v>
+        <v>36.9894</v>
       </c>
       <c r="D10" t="n">
-        <v>40.6544</v>
+        <v>40.6489</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>62.237</v>
+        <v>62.2188</v>
       </c>
       <c r="C11" t="n">
-        <v>36.7329</v>
+        <v>36.8978</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0417</v>
+        <v>40.8368</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>62.7196</v>
+        <v>62.0369</v>
       </c>
       <c r="C12" t="n">
-        <v>37.3462</v>
+        <v>37.5727</v>
       </c>
       <c r="D12" t="n">
-        <v>41.966</v>
+        <v>41.8729</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>64.15949999999999</v>
+        <v>63.611</v>
       </c>
       <c r="C13" t="n">
-        <v>37.5941</v>
+        <v>37.7222</v>
       </c>
       <c r="D13" t="n">
-        <v>42.0212</v>
+        <v>42.0056</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>64.4704</v>
+        <v>63.8598</v>
       </c>
       <c r="C14" t="n">
-        <v>37.5549</v>
+        <v>37.8053</v>
       </c>
       <c r="D14" t="n">
-        <v>42.8243</v>
+        <v>42.6534</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>65.7308</v>
+        <v>64.9756</v>
       </c>
       <c r="C15" t="n">
-        <v>38.6129</v>
+        <v>38.7878</v>
       </c>
       <c r="D15" t="n">
-        <v>43.167</v>
+        <v>43.161</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>65.8497</v>
+        <v>65.15260000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>38.9186</v>
+        <v>39.1059</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0776</v>
+        <v>43.7537</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>67.4919</v>
+        <v>66.4435</v>
       </c>
       <c r="C17" t="n">
-        <v>39.2286</v>
+        <v>39.3776</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1416</v>
+        <v>44.1167</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>67.30880000000001</v>
+        <v>66.95189999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>39.8529</v>
+        <v>39.9676</v>
       </c>
       <c r="D18" t="n">
-        <v>44.9924</v>
+        <v>44.7451</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>68.7029</v>
+        <v>67.7642</v>
       </c>
       <c r="C19" t="n">
-        <v>39.9322</v>
+        <v>40.1739</v>
       </c>
       <c r="D19" t="n">
-        <v>45.3073</v>
+        <v>45.2064</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>69.4649</v>
+        <v>69.0074</v>
       </c>
       <c r="C20" t="n">
-        <v>40.8577</v>
+        <v>40.9555</v>
       </c>
       <c r="D20" t="n">
-        <v>45.9968</v>
+        <v>45.6401</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>70.24079999999999</v>
+        <v>69.63549999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>40.9918</v>
+        <v>41.0609</v>
       </c>
       <c r="D21" t="n">
-        <v>46.9181</v>
+        <v>46.8801</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>70.9533</v>
+        <v>70.0001</v>
       </c>
       <c r="C22" t="n">
-        <v>41.444</v>
+        <v>41.4218</v>
       </c>
       <c r="D22" t="n">
-        <v>47.1801</v>
+        <v>47.0256</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>72.2817</v>
+        <v>71.1738</v>
       </c>
       <c r="C23" t="n">
-        <v>41.5913</v>
+        <v>41.5635</v>
       </c>
       <c r="D23" t="n">
-        <v>48.3069</v>
+        <v>48.011</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>72.82129999999999</v>
+        <v>71.7144</v>
       </c>
       <c r="C24" t="n">
-        <v>42.2543</v>
+        <v>42.1026</v>
       </c>
       <c r="D24" t="n">
-        <v>48.6089</v>
+        <v>48.088</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>74.0303</v>
+        <v>72.9671</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2605</v>
+        <v>43.1527</v>
       </c>
       <c r="D25" t="n">
-        <v>49.1785</v>
+        <v>48.4434</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>74.2298</v>
+        <v>73.07940000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>43.0456</v>
+        <v>43.0042</v>
       </c>
       <c r="D26" t="n">
-        <v>49.6708</v>
+        <v>49.0237</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>74.673</v>
+        <v>73.6604</v>
       </c>
       <c r="C27" t="n">
-        <v>43.6171</v>
+        <v>43.4786</v>
       </c>
       <c r="D27" t="n">
-        <v>50.141</v>
+        <v>49.5464</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>75.1816</v>
+        <v>74.7645</v>
       </c>
       <c r="C28" t="n">
-        <v>43.9246</v>
+        <v>43.8557</v>
       </c>
       <c r="D28" t="n">
-        <v>50.282</v>
+        <v>49.7091</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>76.0639</v>
+        <v>75.1707</v>
       </c>
       <c r="C29" t="n">
-        <v>44.6104</v>
+        <v>44.5678</v>
       </c>
       <c r="D29" t="n">
-        <v>50.9107</v>
+        <v>50.3841</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>77.00749999999999</v>
+        <v>76.10599999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>45.1548</v>
+        <v>44.9808</v>
       </c>
       <c r="D30" t="n">
-        <v>51.435</v>
+        <v>50.8444</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>77.8686</v>
+        <v>76.7839</v>
       </c>
       <c r="C31" t="n">
-        <v>45.3727</v>
+        <v>45.07</v>
       </c>
       <c r="D31" t="n">
-        <v>51.7599</v>
+        <v>51.0478</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>78.1116</v>
+        <v>76.9982</v>
       </c>
       <c r="C32" t="n">
-        <v>45.8653</v>
+        <v>45.621</v>
       </c>
       <c r="D32" t="n">
-        <v>52.169</v>
+        <v>51.4324</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>78.97539999999999</v>
+        <v>78.21769999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>46.2666</v>
+        <v>46.0517</v>
       </c>
       <c r="D33" t="n">
-        <v>52.3425</v>
+        <v>51.6207</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>79.6698</v>
+        <v>79.3784</v>
       </c>
       <c r="C34" t="n">
-        <v>46.3829</v>
+        <v>46.4348</v>
       </c>
       <c r="D34" t="n">
-        <v>52.6651</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>80.06959999999999</v>
+        <v>79.8567</v>
       </c>
       <c r="C35" t="n">
-        <v>44.1166</v>
+        <v>44.0411</v>
       </c>
       <c r="D35" t="n">
-        <v>52.9883</v>
+        <v>52.6949</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>79.7328</v>
+        <v>79.71850000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>44.4972</v>
+        <v>44.4871</v>
       </c>
       <c r="D36" t="n">
-        <v>53.1101</v>
+        <v>52.8087</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>80.5796</v>
+        <v>80.289</v>
       </c>
       <c r="C37" t="n">
-        <v>44.7893</v>
+        <v>44.7449</v>
       </c>
       <c r="D37" t="n">
-        <v>53.6781</v>
+        <v>53.4575</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>80.77379999999999</v>
+        <v>80.7111</v>
       </c>
       <c r="C38" t="n">
-        <v>45.0322</v>
+        <v>45.0524</v>
       </c>
       <c r="D38" t="n">
-        <v>53.9242</v>
+        <v>53.4694</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>81.4299</v>
+        <v>81.2641</v>
       </c>
       <c r="C39" t="n">
-        <v>45.3767</v>
+        <v>45.4155</v>
       </c>
       <c r="D39" t="n">
-        <v>54.2184</v>
+        <v>53.6604</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>82.0211</v>
+        <v>81.9436</v>
       </c>
       <c r="C40" t="n">
-        <v>45.8109</v>
+        <v>45.8324</v>
       </c>
       <c r="D40" t="n">
-        <v>54.6776</v>
+        <v>54.2564</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>82.8429</v>
+        <v>82.7307</v>
       </c>
       <c r="C41" t="n">
-        <v>46.0396</v>
+        <v>46.037</v>
       </c>
       <c r="D41" t="n">
-        <v>54.777</v>
+        <v>54.4017</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>82.7902</v>
+        <v>82.7178</v>
       </c>
       <c r="C42" t="n">
-        <v>46.4028</v>
+        <v>46.3352</v>
       </c>
       <c r="D42" t="n">
-        <v>55.0025</v>
+        <v>54.8976</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>83.43989999999999</v>
+        <v>83.39749999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>46.6198</v>
+        <v>46.471</v>
       </c>
       <c r="D43" t="n">
-        <v>55.2684</v>
+        <v>55.2399</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>83.70780000000001</v>
+        <v>83.5245</v>
       </c>
       <c r="C44" t="n">
-        <v>46.4983</v>
+        <v>46.5666</v>
       </c>
       <c r="D44" t="n">
-        <v>55.589</v>
+        <v>55.5488</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>84.1592</v>
+        <v>84.0735</v>
       </c>
       <c r="C45" t="n">
-        <v>47.1579</v>
+        <v>47.1253</v>
       </c>
       <c r="D45" t="n">
-        <v>55.6485</v>
+        <v>55.199</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>84.6444</v>
+        <v>84.5617</v>
       </c>
       <c r="C46" t="n">
-        <v>47.1526</v>
+        <v>47.154</v>
       </c>
       <c r="D46" t="n">
-        <v>55.9278</v>
+        <v>55.8308</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>85.48309999999999</v>
+        <v>85.41930000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>47.5719</v>
+        <v>47.5942</v>
       </c>
       <c r="D47" t="n">
-        <v>56.1799</v>
+        <v>56.0635</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>85.7983</v>
+        <v>85.6786</v>
       </c>
       <c r="C48" t="n">
-        <v>48.0478</v>
+        <v>48.0549</v>
       </c>
       <c r="D48" t="n">
-        <v>56.299</v>
+        <v>56.297</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>86.3019</v>
+        <v>86.1998</v>
       </c>
       <c r="C49" t="n">
-        <v>48.0918</v>
+        <v>48.0763</v>
       </c>
       <c r="D49" t="n">
-        <v>56.51</v>
+        <v>56.5143</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>86.93049999999999</v>
+        <v>86.8121</v>
       </c>
       <c r="C50" t="n">
-        <v>46.9079</v>
+        <v>46.9339</v>
       </c>
       <c r="D50" t="n">
-        <v>56.5705</v>
+        <v>56.3329</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>84.9871</v>
+        <v>84.726</v>
       </c>
       <c r="C51" t="n">
-        <v>47.2291</v>
+        <v>47.1951</v>
       </c>
       <c r="D51" t="n">
-        <v>56.8813</v>
+        <v>56.8611</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>85.1133</v>
+        <v>85.0675</v>
       </c>
       <c r="C52" t="n">
-        <v>47.6627</v>
+        <v>47.7808</v>
       </c>
       <c r="D52" t="n">
-        <v>57.0078</v>
+        <v>56.9254</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>85.6267</v>
+        <v>85.6146</v>
       </c>
       <c r="C53" t="n">
-        <v>47.7642</v>
+        <v>48.008</v>
       </c>
       <c r="D53" t="n">
-        <v>57.0203</v>
+        <v>56.6823</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>86.0724</v>
+        <v>86.0227</v>
       </c>
       <c r="C54" t="n">
-        <v>48.2787</v>
+        <v>48.0853</v>
       </c>
       <c r="D54" t="n">
-        <v>57.363</v>
+        <v>57.2305</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>86.4157</v>
+        <v>86.3721</v>
       </c>
       <c r="C55" t="n">
-        <v>48.4778</v>
+        <v>48.4841</v>
       </c>
       <c r="D55" t="n">
-        <v>57.6152</v>
+        <v>57.4908</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>86.58369999999999</v>
+        <v>86.58029999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>48.5548</v>
+        <v>49.1768</v>
       </c>
       <c r="D56" t="n">
-        <v>57.6234</v>
+        <v>57.3724</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>86.9401</v>
+        <v>86.9456</v>
       </c>
       <c r="C57" t="n">
-        <v>49.3134</v>
+        <v>49.2533</v>
       </c>
       <c r="D57" t="n">
-        <v>57.8446</v>
+        <v>57.8165</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>87.37949999999999</v>
+        <v>87.2877</v>
       </c>
       <c r="C58" t="n">
-        <v>50.1674</v>
+        <v>49.8592</v>
       </c>
       <c r="D58" t="n">
-        <v>58.0468</v>
+        <v>58.1541</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>87.7242</v>
+        <v>87.8116</v>
       </c>
       <c r="C59" t="n">
-        <v>50.8131</v>
+        <v>50.6341</v>
       </c>
       <c r="D59" t="n">
-        <v>58.1783</v>
+        <v>58.0649</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>88.364</v>
+        <v>88.2526</v>
       </c>
       <c r="C60" t="n">
-        <v>51.0018</v>
+        <v>51.3077</v>
       </c>
       <c r="D60" t="n">
-        <v>58.4633</v>
+        <v>58.5514</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>88.4769</v>
+        <v>88.4216</v>
       </c>
       <c r="C61" t="n">
-        <v>51.8958</v>
+        <v>51.8782</v>
       </c>
       <c r="D61" t="n">
-        <v>58.6868</v>
+        <v>58.3795</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>89.5758</v>
+        <v>89.0438</v>
       </c>
       <c r="C62" t="n">
-        <v>52.5005</v>
+        <v>52.4877</v>
       </c>
       <c r="D62" t="n">
-        <v>58.9352</v>
+        <v>58.712</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>89.96810000000001</v>
+        <v>89.6611</v>
       </c>
       <c r="C63" t="n">
-        <v>53.5229</v>
+        <v>53.7573</v>
       </c>
       <c r="D63" t="n">
-        <v>59.2903</v>
+        <v>59.3526</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>90.74809999999999</v>
+        <v>90.91630000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>59.1068</v>
+        <v>59.0471</v>
       </c>
       <c r="D64" t="n">
-        <v>62.9811</v>
+        <v>62.8183</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>94.5043</v>
+        <v>94.2916</v>
       </c>
       <c r="C65" t="n">
-        <v>60.0049</v>
+        <v>60.5327</v>
       </c>
       <c r="D65" t="n">
-        <v>63.9839</v>
+        <v>64.4325</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>96.721</v>
+        <v>96.03870000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>62.2555</v>
+        <v>61.9843</v>
       </c>
       <c r="D66" t="n">
-        <v>65.23099999999999</v>
+        <v>64.5159</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>99.7589</v>
+        <v>98.58969999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>65.2522</v>
+        <v>64.4038</v>
       </c>
       <c r="D67" t="n">
-        <v>67.33029999999999</v>
+        <v>65.8342</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>101.755</v>
+        <v>100.468</v>
       </c>
       <c r="C68" t="n">
-        <v>68.55970000000001</v>
+        <v>67.791</v>
       </c>
       <c r="D68" t="n">
-        <v>69.07850000000001</v>
+        <v>68.1575</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>104.886</v>
+        <v>103.738</v>
       </c>
       <c r="C69" t="n">
-        <v>70.5188</v>
+        <v>69.5792</v>
       </c>
       <c r="D69" t="n">
-        <v>70.02970000000001</v>
+        <v>68.1203</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>106.485</v>
+        <v>104.408</v>
       </c>
       <c r="C70" t="n">
-        <v>74.2478</v>
+        <v>72.3352</v>
       </c>
       <c r="D70" t="n">
-        <v>73.4318</v>
+        <v>70.5224</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>112.499</v>
+        <v>108.444</v>
       </c>
       <c r="C71" t="n">
-        <v>77.8674</v>
+        <v>77.0437</v>
       </c>
       <c r="D71" t="n">
-        <v>74.0487</v>
+        <v>73.14019999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>113.639</v>
+        <v>112.824</v>
       </c>
       <c r="C72" t="n">
-        <v>80.1581</v>
+        <v>80.2175</v>
       </c>
       <c r="D72" t="n">
-        <v>76.5595</v>
+        <v>75.366</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>118.698</v>
+        <v>117.536</v>
       </c>
       <c r="C73" t="n">
-        <v>85.6675</v>
+        <v>84.4889</v>
       </c>
       <c r="D73" t="n">
-        <v>80.28100000000001</v>
+        <v>78.7167</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>124.49</v>
+        <v>123.304</v>
       </c>
       <c r="C74" t="n">
-        <v>87.96639999999999</v>
+        <v>87.2119</v>
       </c>
       <c r="D74" t="n">
-        <v>82.2885</v>
+        <v>81.51519999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>127.715</v>
+        <v>127.288</v>
       </c>
       <c r="C75" t="n">
-        <v>92.1558</v>
+        <v>91.408</v>
       </c>
       <c r="D75" t="n">
-        <v>86.8079</v>
+        <v>85.47199999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>134.97</v>
+        <v>132.733</v>
       </c>
       <c r="C76" t="n">
-        <v>97.38630000000001</v>
+        <v>95.8965</v>
       </c>
       <c r="D76" t="n">
-        <v>88.0579</v>
+        <v>89.1812</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>138.168</v>
+        <v>139.002</v>
       </c>
       <c r="C77" t="n">
-        <v>100.789</v>
+        <v>100.533</v>
       </c>
       <c r="D77" t="n">
-        <v>93.52630000000001</v>
+        <v>94.6892</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>147.227</v>
+        <v>147.917</v>
       </c>
       <c r="C78" t="n">
-        <v>120.304</v>
+        <v>119.284</v>
       </c>
       <c r="D78" t="n">
-        <v>110.533</v>
+        <v>111.967</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>172.877</v>
+        <v>173.294</v>
       </c>
       <c r="C79" t="n">
-        <v>125.124</v>
+        <v>124.129</v>
       </c>
       <c r="D79" t="n">
-        <v>116.138</v>
+        <v>117.067</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>181.167</v>
+        <v>180.23</v>
       </c>
       <c r="C80" t="n">
-        <v>129.901</v>
+        <v>128.734</v>
       </c>
       <c r="D80" t="n">
-        <v>123.169</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>192.991</v>
+        <v>191.254</v>
       </c>
       <c r="C81" t="n">
-        <v>134.628</v>
+        <v>132.931</v>
       </c>
       <c r="D81" t="n">
-        <v>130.72</v>
+        <v>129.923</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>203.916</v>
+        <v>202.711</v>
       </c>
       <c r="C82" t="n">
-        <v>139.292</v>
+        <v>137.795</v>
       </c>
       <c r="D82" t="n">
-        <v>137.505</v>
+        <v>138.199</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>215.59</v>
+        <v>214.711</v>
       </c>
       <c r="C83" t="n">
-        <v>144.574</v>
+        <v>143.065</v>
       </c>
       <c r="D83" t="n">
-        <v>143.912</v>
+        <v>143.963</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>225.869</v>
+        <v>224.782</v>
       </c>
       <c r="C84" t="n">
-        <v>149.294</v>
+        <v>147.712</v>
       </c>
       <c r="D84" t="n">
-        <v>151.891</v>
+        <v>150.563</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>236.909</v>
+        <v>234.929</v>
       </c>
       <c r="C85" t="n">
-        <v>154.439</v>
+        <v>152.087</v>
       </c>
       <c r="D85" t="n">
-        <v>159.221</v>
+        <v>157.23</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>248.51</v>
+        <v>246.516</v>
       </c>
       <c r="C86" t="n">
-        <v>158.851</v>
+        <v>156.816</v>
       </c>
       <c r="D86" t="n">
-        <v>166.435</v>
+        <v>164.062</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>258.968</v>
+        <v>256.501</v>
       </c>
       <c r="C87" t="n">
-        <v>164.158</v>
+        <v>161.641</v>
       </c>
       <c r="D87" t="n">
-        <v>173.161</v>
+        <v>170.797</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>271.635</v>
+        <v>267.596</v>
       </c>
       <c r="C88" t="n">
-        <v>169.406</v>
+        <v>166.546</v>
       </c>
       <c r="D88" t="n">
-        <v>180.519</v>
+        <v>177.511</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>282.127</v>
+        <v>276.921</v>
       </c>
       <c r="C89" t="n">
-        <v>174.366</v>
+        <v>170.982</v>
       </c>
       <c r="D89" t="n">
-        <v>187.58</v>
+        <v>184.271</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>293.095</v>
+        <v>288.706</v>
       </c>
       <c r="C90" t="n">
-        <v>178.958</v>
+        <v>175.807</v>
       </c>
       <c r="D90" t="n">
-        <v>194.468</v>
+        <v>190.558</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>303.154</v>
+        <v>298.288</v>
       </c>
       <c r="C91" t="n">
-        <v>184.424</v>
+        <v>180.618</v>
       </c>
       <c r="D91" t="n">
-        <v>200.817</v>
+        <v>197.103</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>314.522</v>
+        <v>307.974</v>
       </c>
       <c r="C92" t="n">
-        <v>195.366</v>
+        <v>190.759</v>
       </c>
       <c r="D92" t="n">
-        <v>215.658</v>
+        <v>211.727</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>337.412</v>
+        <v>330.926</v>
       </c>
       <c r="C93" t="n">
-        <v>198.899</v>
+        <v>194.98</v>
       </c>
       <c r="D93" t="n">
-        <v>223.076</v>
+        <v>216.41</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>345.604</v>
+        <v>338.369</v>
       </c>
       <c r="C94" t="n">
-        <v>202.717</v>
+        <v>198.489</v>
       </c>
       <c r="D94" t="n">
-        <v>228.147</v>
+        <v>223.923</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>353.662</v>
+        <v>346.975</v>
       </c>
       <c r="C95" t="n">
-        <v>206.523</v>
+        <v>203.076</v>
       </c>
       <c r="D95" t="n">
-        <v>232.636</v>
+        <v>229.815</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>361.877</v>
+        <v>355.22</v>
       </c>
       <c r="C96" t="n">
-        <v>210.687</v>
+        <v>206.747</v>
       </c>
       <c r="D96" t="n">
-        <v>238.565</v>
+        <v>235.935</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>371.219</v>
+        <v>363.278</v>
       </c>
       <c r="C97" t="n">
-        <v>213.45</v>
+        <v>209.427</v>
       </c>
       <c r="D97" t="n">
-        <v>244.251</v>
+        <v>241.504</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>378.9</v>
+        <v>372.663</v>
       </c>
       <c r="C98" t="n">
-        <v>217.112</v>
+        <v>213.597</v>
       </c>
       <c r="D98" t="n">
-        <v>250.031</v>
+        <v>245.821</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>386.297</v>
+        <v>379.328</v>
       </c>
       <c r="C99" t="n">
-        <v>221.146</v>
+        <v>218.843</v>
       </c>
       <c r="D99" t="n">
-        <v>254.222</v>
+        <v>250.827</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>393.335</v>
+        <v>387.7</v>
       </c>
       <c r="C100" t="n">
-        <v>224.458</v>
+        <v>222.133</v>
       </c>
       <c r="D100" t="n">
-        <v>259.828</v>
+        <v>254.995</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>400.276</v>
+        <v>394.161</v>
       </c>
       <c r="C101" t="n">
-        <v>227.945</v>
+        <v>224.262</v>
       </c>
       <c r="D101" t="n">
-        <v>265.811</v>
+        <v>259.858</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>406.821</v>
+        <v>402.446</v>
       </c>
       <c r="C102" t="n">
-        <v>231.095</v>
+        <v>228.087</v>
       </c>
       <c r="D102" t="n">
-        <v>268.892</v>
+        <v>265.04</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>413.619</v>
+        <v>408.173</v>
       </c>
       <c r="C103" t="n">
-        <v>234.316</v>
+        <v>231.131</v>
       </c>
       <c r="D103" t="n">
-        <v>272.009</v>
+        <v>267.872</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>422.023</v>
+        <v>416.014</v>
       </c>
       <c r="C104" t="n">
-        <v>238.262</v>
+        <v>235.006</v>
       </c>
       <c r="D104" t="n">
-        <v>276.63</v>
+        <v>273.053</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>429.427</v>
+        <v>423.682</v>
       </c>
       <c r="C105" t="n">
-        <v>241.974</v>
+        <v>239.046</v>
       </c>
       <c r="D105" t="n">
-        <v>279.942</v>
+        <v>276.175</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>437.096</v>
+        <v>430.51</v>
       </c>
       <c r="C106" t="n">
-        <v>245.802</v>
+        <v>241.921</v>
       </c>
       <c r="D106" t="n">
-        <v>284.342</v>
+        <v>280.727</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>440.577</v>
+        <v>434.865</v>
       </c>
       <c r="C107" t="n">
-        <v>244.254</v>
+        <v>240.621</v>
       </c>
       <c r="D107" t="n">
-        <v>293.504</v>
+        <v>289.435</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>445.137</v>
+        <v>437.888</v>
       </c>
       <c r="C108" t="n">
-        <v>246.408</v>
+        <v>242.732</v>
       </c>
       <c r="D108" t="n">
-        <v>294.998</v>
+        <v>293.113</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>451.024</v>
+        <v>444.177</v>
       </c>
       <c r="C109" t="n">
-        <v>249.989</v>
+        <v>247.543</v>
       </c>
       <c r="D109" t="n">
-        <v>301.798</v>
+        <v>294.548</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>456.811</v>
+        <v>450.752</v>
       </c>
       <c r="C110" t="n">
-        <v>253.82</v>
+        <v>250.513</v>
       </c>
       <c r="D110" t="n">
-        <v>303.103</v>
+        <v>297.81</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>463.454</v>
+        <v>456.665</v>
       </c>
       <c r="C111" t="n">
-        <v>255.617</v>
+        <v>253.583</v>
       </c>
       <c r="D111" t="n">
-        <v>304.839</v>
+        <v>301.258</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>468.103</v>
+        <v>462.04</v>
       </c>
       <c r="C112" t="n">
-        <v>258.463</v>
+        <v>254.657</v>
       </c>
       <c r="D112" t="n">
-        <v>309.215</v>
+        <v>305.804</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>473.937</v>
+        <v>466.702</v>
       </c>
       <c r="C113" t="n">
-        <v>260.836</v>
+        <v>258.093</v>
       </c>
       <c r="D113" t="n">
-        <v>313.216</v>
+        <v>307.432</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>479.509</v>
+        <v>473.656</v>
       </c>
       <c r="C114" t="n">
-        <v>264.922</v>
+        <v>260.813</v>
       </c>
       <c r="D114" t="n">
-        <v>313.405</v>
+        <v>310.645</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>484.2</v>
+        <v>478.147</v>
       </c>
       <c r="C115" t="n">
-        <v>266.619</v>
+        <v>265.232</v>
       </c>
       <c r="D115" t="n">
-        <v>311.971</v>
+        <v>314.189</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>481.1</v>
+        <v>484.209</v>
       </c>
       <c r="C116" t="n">
-        <v>265.368</v>
+        <v>267.501</v>
       </c>
       <c r="D116" t="n">
-        <v>314.41</v>
+        <v>316.991</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>484.83</v>
+        <v>488.578</v>
       </c>
       <c r="C117" t="n">
-        <v>268.17</v>
+        <v>269.216</v>
       </c>
       <c r="D117" t="n">
-        <v>317.294</v>
+        <v>319.088</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>489.643</v>
+        <v>493.893</v>
       </c>
       <c r="C118" t="n">
-        <v>271.88</v>
+        <v>274.022</v>
       </c>
       <c r="D118" t="n">
-        <v>320.199</v>
+        <v>323.051</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>496.019</v>
+        <v>499.594</v>
       </c>
       <c r="C119" t="n">
-        <v>274.943</v>
+        <v>277.54</v>
       </c>
       <c r="D119" t="n">
-        <v>324.097</v>
+        <v>324.24</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>59.9697</v>
+        <v>58.0444</v>
       </c>
       <c r="C2" t="n">
-        <v>35.1383</v>
+        <v>34.2052</v>
       </c>
       <c r="D2" t="n">
-        <v>36.5764</v>
+        <v>35.5728</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>60.6031</v>
+        <v>58.7438</v>
       </c>
       <c r="C3" t="n">
-        <v>35.6761</v>
+        <v>34.788</v>
       </c>
       <c r="D3" t="n">
-        <v>36.9306</v>
+        <v>35.9667</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>61.34</v>
+        <v>59.867</v>
       </c>
       <c r="C4" t="n">
-        <v>35.9536</v>
+        <v>35.4551</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4032</v>
+        <v>36.6761</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>61.7624</v>
+        <v>60.271</v>
       </c>
       <c r="C5" t="n">
-        <v>36.8739</v>
+        <v>36.2208</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6379</v>
+        <v>36.8322</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>62.5516</v>
+        <v>61.5189</v>
       </c>
       <c r="C6" t="n">
-        <v>36.8834</v>
+        <v>36.5101</v>
       </c>
       <c r="D6" t="n">
-        <v>37.6353</v>
+        <v>37.0646</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>62.755</v>
+        <v>62.0475</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7015</v>
+        <v>37.5553</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0938</v>
+        <v>37.8008</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>63.5533</v>
+        <v>63.3908</v>
       </c>
       <c r="C8" t="n">
-        <v>38.7572</v>
+        <v>38.685</v>
       </c>
       <c r="D8" t="n">
-        <v>38.383</v>
+        <v>38.3094</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>64.4182</v>
+        <v>64.12260000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>39.2778</v>
+        <v>39.1867</v>
       </c>
       <c r="D9" t="n">
-        <v>38.7564</v>
+        <v>38.6946</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>65.8107</v>
+        <v>65.5031</v>
       </c>
       <c r="C10" t="n">
-        <v>40.3592</v>
+        <v>40.285</v>
       </c>
       <c r="D10" t="n">
-        <v>39.2741</v>
+        <v>39.3034</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>66.4117</v>
+        <v>66.06010000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>38.839</v>
+        <v>38.7056</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7594</v>
+        <v>39.789</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>64.5056</v>
+        <v>64.2649</v>
       </c>
       <c r="C12" t="n">
-        <v>39.3988</v>
+        <v>39.2722</v>
       </c>
       <c r="D12" t="n">
-        <v>40.496</v>
+        <v>40.4642</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>65.7063</v>
+        <v>65.41330000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>40.2223</v>
+        <v>39.931</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1792</v>
+        <v>41.0881</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>66.4384</v>
+        <v>66.4282</v>
       </c>
       <c r="C14" t="n">
-        <v>40.7602</v>
+        <v>40.7168</v>
       </c>
       <c r="D14" t="n">
-        <v>41.429</v>
+        <v>41.5582</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>67.94289999999999</v>
+        <v>67.5615</v>
       </c>
       <c r="C15" t="n">
-        <v>41.9572</v>
+        <v>41.5368</v>
       </c>
       <c r="D15" t="n">
-        <v>42.3923</v>
+        <v>42.2589</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>68.6802</v>
+        <v>68.2645</v>
       </c>
       <c r="C16" t="n">
-        <v>42.7329</v>
+        <v>42.5344</v>
       </c>
       <c r="D16" t="n">
-        <v>42.891</v>
+        <v>42.7691</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>70.17059999999999</v>
+        <v>69.9889</v>
       </c>
       <c r="C17" t="n">
-        <v>43.2779</v>
+        <v>43.1278</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2098</v>
+        <v>43.1153</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>71.75449999999999</v>
+        <v>71.37179999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>43.6091</v>
+        <v>43.4647</v>
       </c>
       <c r="D18" t="n">
-        <v>44.0005</v>
+        <v>43.984</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>72.8288</v>
+        <v>72.3854</v>
       </c>
       <c r="C19" t="n">
-        <v>45.2415</v>
+        <v>44.9472</v>
       </c>
       <c r="D19" t="n">
-        <v>44.5139</v>
+        <v>44.3699</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>74.2176</v>
+        <v>73.949</v>
       </c>
       <c r="C20" t="n">
-        <v>46.2128</v>
+        <v>46.1119</v>
       </c>
       <c r="D20" t="n">
-        <v>45.1108</v>
+        <v>45.0595</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>74.9286</v>
+        <v>74.7002</v>
       </c>
       <c r="C21" t="n">
-        <v>47.43</v>
+        <v>47.2341</v>
       </c>
       <c r="D21" t="n">
-        <v>45.4887</v>
+        <v>45.3877</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>76.03530000000001</v>
+        <v>75.68380000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>47.999</v>
+        <v>47.8781</v>
       </c>
       <c r="D22" t="n">
-        <v>46.0505</v>
+        <v>45.9672</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>78.4598</v>
+        <v>77.9597</v>
       </c>
       <c r="C23" t="n">
-        <v>49.0731</v>
+        <v>48.9211</v>
       </c>
       <c r="D23" t="n">
-        <v>46.862</v>
+        <v>46.7362</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>79.75839999999999</v>
+        <v>79.1857</v>
       </c>
       <c r="C24" t="n">
-        <v>50.0918</v>
+        <v>49.8451</v>
       </c>
       <c r="D24" t="n">
-        <v>47.3025</v>
+        <v>47.0515</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>80.8329</v>
+        <v>80.476</v>
       </c>
       <c r="C25" t="n">
-        <v>51.711</v>
+        <v>51.5619</v>
       </c>
       <c r="D25" t="n">
-        <v>48.0082</v>
+        <v>47.7288</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>82.5774</v>
+        <v>82.2214</v>
       </c>
       <c r="C26" t="n">
-        <v>45.6261</v>
+        <v>45.824</v>
       </c>
       <c r="D26" t="n">
-        <v>48.576</v>
+        <v>48.6109</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>78.9474</v>
+        <v>78.7655</v>
       </c>
       <c r="C27" t="n">
-        <v>46.5023</v>
+        <v>46.7544</v>
       </c>
       <c r="D27" t="n">
-        <v>49.2424</v>
+        <v>49.2808</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>79.82810000000001</v>
+        <v>79.59180000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>46.9962</v>
+        <v>47.1674</v>
       </c>
       <c r="D28" t="n">
-        <v>49.4097</v>
+        <v>49.387</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>81.01179999999999</v>
+        <v>81.0348</v>
       </c>
       <c r="C29" t="n">
-        <v>47.5182</v>
+        <v>47.7557</v>
       </c>
       <c r="D29" t="n">
-        <v>49.9792</v>
+        <v>49.9965</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>81.9666</v>
+        <v>82.27889999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>48.5674</v>
+        <v>48.5427</v>
       </c>
       <c r="D30" t="n">
-        <v>50.4706</v>
+        <v>50.5176</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>83.5402</v>
+        <v>83.2427</v>
       </c>
       <c r="C31" t="n">
-        <v>49.1969</v>
+        <v>49.2727</v>
       </c>
       <c r="D31" t="n">
-        <v>51.0371</v>
+        <v>51.0075</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>84.6202</v>
+        <v>84.4713</v>
       </c>
       <c r="C32" t="n">
-        <v>50.1696</v>
+        <v>50.1287</v>
       </c>
       <c r="D32" t="n">
-        <v>51.3194</v>
+        <v>51.2501</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>85.5158</v>
+        <v>85.53060000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>50.9508</v>
+        <v>50.8464</v>
       </c>
       <c r="D33" t="n">
-        <v>51.7636</v>
+        <v>51.7719</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>86.9761</v>
+        <v>86.9277</v>
       </c>
       <c r="C34" t="n">
-        <v>51.844</v>
+        <v>51.7018</v>
       </c>
       <c r="D34" t="n">
-        <v>52.0696</v>
+        <v>52.1284</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>88.15260000000001</v>
+        <v>87.92400000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>52.8246</v>
+        <v>52.9024</v>
       </c>
       <c r="D35" t="n">
-        <v>52.4123</v>
+        <v>52.2349</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>89.5996</v>
+        <v>89.491</v>
       </c>
       <c r="C36" t="n">
-        <v>54.0631</v>
+        <v>54.0205</v>
       </c>
       <c r="D36" t="n">
-        <v>52.6107</v>
+        <v>52.5083</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>90.9984</v>
+        <v>90.87260000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>55.1492</v>
+        <v>55.0006</v>
       </c>
       <c r="D37" t="n">
-        <v>52.9926</v>
+        <v>52.9183</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>92.28740000000001</v>
+        <v>92.2437</v>
       </c>
       <c r="C38" t="n">
-        <v>56.0201</v>
+        <v>56.0864</v>
       </c>
       <c r="D38" t="n">
-        <v>53.3125</v>
+        <v>53.4409</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>93.3832</v>
+        <v>93.3694</v>
       </c>
       <c r="C39" t="n">
-        <v>57.2944</v>
+        <v>57.3584</v>
       </c>
       <c r="D39" t="n">
-        <v>53.5624</v>
+        <v>53.525</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>94.82389999999999</v>
+        <v>94.71729999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>52.1043</v>
+        <v>52.1354</v>
       </c>
       <c r="D40" t="n">
-        <v>54.1735</v>
+        <v>54.1446</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>88.4289</v>
+        <v>88.55159999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>52.5789</v>
+        <v>52.6146</v>
       </c>
       <c r="D41" t="n">
-        <v>54.6489</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>89.4898</v>
+        <v>89.60039999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>53.5697</v>
+        <v>53.5619</v>
       </c>
       <c r="D42" t="n">
-        <v>54.9499</v>
+        <v>54.9715</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>90.3724</v>
+        <v>90.5322</v>
       </c>
       <c r="C43" t="n">
-        <v>54.0498</v>
+        <v>54.0266</v>
       </c>
       <c r="D43" t="n">
-        <v>55.2344</v>
+        <v>55.2185</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>90.9696</v>
+        <v>91.0151</v>
       </c>
       <c r="C44" t="n">
-        <v>54.9367</v>
+        <v>54.853</v>
       </c>
       <c r="D44" t="n">
-        <v>55.5216</v>
+        <v>55.4417</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>92.2015</v>
+        <v>92.20659999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>55.4984</v>
+        <v>55.4999</v>
       </c>
       <c r="D45" t="n">
-        <v>55.7412</v>
+        <v>55.6904</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>92.8793</v>
+        <v>92.91800000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>56.52</v>
+        <v>56.5599</v>
       </c>
       <c r="D46" t="n">
-        <v>55.9939</v>
+        <v>55.8583</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>93.9444</v>
+        <v>93.7482</v>
       </c>
       <c r="C47" t="n">
-        <v>57.336</v>
+        <v>56.9648</v>
       </c>
       <c r="D47" t="n">
-        <v>56.0466</v>
+        <v>55.4042</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>95.0985</v>
+        <v>94.9063</v>
       </c>
       <c r="C48" t="n">
-        <v>58.1717</v>
+        <v>57.9788</v>
       </c>
       <c r="D48" t="n">
-        <v>56.2068</v>
+        <v>55.5272</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>95.77630000000001</v>
+        <v>95.4633</v>
       </c>
       <c r="C49" t="n">
-        <v>58.9957</v>
+        <v>58.9287</v>
       </c>
       <c r="D49" t="n">
-        <v>56.5429</v>
+        <v>55.9996</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>97.22239999999999</v>
+        <v>96.95440000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>59.9149</v>
+        <v>59.6338</v>
       </c>
       <c r="D50" t="n">
-        <v>56.8821</v>
+        <v>56.3963</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>97.9383</v>
+        <v>97.6511</v>
       </c>
       <c r="C51" t="n">
-        <v>61.1562</v>
+        <v>61.1036</v>
       </c>
       <c r="D51" t="n">
-        <v>56.8563</v>
+        <v>56.136</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>99.31399999999999</v>
+        <v>99.08759999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>62.2316</v>
+        <v>61.9887</v>
       </c>
       <c r="D52" t="n">
-        <v>57.2164</v>
+        <v>56.8283</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>100.231</v>
+        <v>99.9425</v>
       </c>
       <c r="C53" t="n">
-        <v>62.9577</v>
+        <v>62.8442</v>
       </c>
       <c r="D53" t="n">
-        <v>56.9822</v>
+        <v>56.3554</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>101.338</v>
+        <v>101.428</v>
       </c>
       <c r="C54" t="n">
-        <v>56.5571</v>
+        <v>56.3795</v>
       </c>
       <c r="D54" t="n">
-        <v>57.4966</v>
+        <v>56.8916</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>94.22020000000001</v>
+        <v>93.7441</v>
       </c>
       <c r="C55" t="n">
-        <v>56.8234</v>
+        <v>56.7789</v>
       </c>
       <c r="D55" t="n">
-        <v>57.8358</v>
+        <v>57.4481</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>94.98009999999999</v>
+        <v>94.6572</v>
       </c>
       <c r="C56" t="n">
-        <v>57.7218</v>
+        <v>57.6455</v>
       </c>
       <c r="D56" t="n">
-        <v>57.8032</v>
+        <v>57.3116</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>95.8107</v>
+        <v>95.4007</v>
       </c>
       <c r="C57" t="n">
-        <v>58.5286</v>
+        <v>58.7022</v>
       </c>
       <c r="D57" t="n">
-        <v>57.9776</v>
+        <v>57.6024</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>96.69070000000001</v>
+        <v>96.18210000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>59.2659</v>
+        <v>59.6507</v>
       </c>
       <c r="D58" t="n">
-        <v>58.1258</v>
+        <v>57.8891</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>97.56950000000001</v>
+        <v>97.23569999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>59.984</v>
+        <v>60.5793</v>
       </c>
       <c r="D59" t="n">
-        <v>58.4281</v>
+        <v>58.0807</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>98.2432</v>
+        <v>97.94750000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>60.8713</v>
+        <v>61.6614</v>
       </c>
       <c r="D60" t="n">
-        <v>58.3907</v>
+        <v>57.9465</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>99.081</v>
+        <v>98.96899999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>61.8737</v>
+        <v>62.617</v>
       </c>
       <c r="D61" t="n">
-        <v>58.774</v>
+        <v>58.4963</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>100.267</v>
+        <v>100.345</v>
       </c>
       <c r="C62" t="n">
-        <v>62.9766</v>
+        <v>63.695</v>
       </c>
       <c r="D62" t="n">
-        <v>58.7012</v>
+        <v>58.7577</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>101.281</v>
+        <v>101.341</v>
       </c>
       <c r="C63" t="n">
-        <v>64.524</v>
+        <v>65.05970000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>58.8362</v>
+        <v>58.995</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>101.884</v>
+        <v>102.194</v>
       </c>
       <c r="C64" t="n">
-        <v>65.61539999999999</v>
+        <v>66.32299999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>59.035</v>
+        <v>59.2338</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>103.073</v>
+        <v>103.539</v>
       </c>
       <c r="C65" t="n">
-        <v>67.3626</v>
+        <v>68.1631</v>
       </c>
       <c r="D65" t="n">
-        <v>59.2097</v>
+        <v>59.6543</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>104.035</v>
+        <v>104.633</v>
       </c>
       <c r="C66" t="n">
-        <v>68.59</v>
+        <v>69.45699999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>59.4889</v>
+        <v>59.9421</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>105.679</v>
+        <v>106.499</v>
       </c>
       <c r="C67" t="n">
-        <v>70.6294</v>
+        <v>71.73220000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>59.6252</v>
+        <v>60.2603</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>107.084</v>
+        <v>108.436</v>
       </c>
       <c r="C68" t="n">
-        <v>64.58320000000001</v>
+        <v>64.3569</v>
       </c>
       <c r="D68" t="n">
-        <v>62.0688</v>
+        <v>61.6935</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>102.815</v>
+        <v>102.996</v>
       </c>
       <c r="C69" t="n">
-        <v>67.02760000000001</v>
+        <v>66.8142</v>
       </c>
       <c r="D69" t="n">
-        <v>62.7094</v>
+        <v>62.7298</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>105.291</v>
+        <v>105.384</v>
       </c>
       <c r="C70" t="n">
-        <v>69.6853</v>
+        <v>70.1006</v>
       </c>
       <c r="D70" t="n">
-        <v>64.44580000000001</v>
+        <v>64.93899999999999</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>107.979</v>
+        <v>108.219</v>
       </c>
       <c r="C71" t="n">
-        <v>72.9161</v>
+        <v>73.41589999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>65.866</v>
+        <v>66.4843</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>111.469</v>
+        <v>112.174</v>
       </c>
       <c r="C72" t="n">
-        <v>76.3614</v>
+        <v>76.8896</v>
       </c>
       <c r="D72" t="n">
-        <v>67.75749999999999</v>
+        <v>68.8421</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>115.309</v>
+        <v>116.112</v>
       </c>
       <c r="C73" t="n">
-        <v>80.833</v>
+        <v>81.23009999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>69.8202</v>
+        <v>71.1099</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>119.214</v>
+        <v>120.084</v>
       </c>
       <c r="C74" t="n">
-        <v>85.3578</v>
+        <v>85.18989999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>72.37179999999999</v>
+        <v>73.3913</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>123.812</v>
+        <v>124.239</v>
       </c>
       <c r="C75" t="n">
-        <v>89.898</v>
+        <v>88.74290000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>74.8282</v>
+        <v>75.8145</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>128.767</v>
+        <v>128.908</v>
       </c>
       <c r="C76" t="n">
-        <v>94.0817</v>
+        <v>92.806</v>
       </c>
       <c r="D76" t="n">
-        <v>77.33799999999999</v>
+        <v>78.1489</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>134.006</v>
+        <v>135.287</v>
       </c>
       <c r="C77" t="n">
-        <v>99.1173</v>
+        <v>98.0273</v>
       </c>
       <c r="D77" t="n">
-        <v>80.279</v>
+        <v>81.57510000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>140.481</v>
+        <v>141.798</v>
       </c>
       <c r="C78" t="n">
-        <v>103.63</v>
+        <v>103.071</v>
       </c>
       <c r="D78" t="n">
-        <v>84.044</v>
+        <v>85.1095</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>148.655</v>
+        <v>149.355</v>
       </c>
       <c r="C79" t="n">
-        <v>109.53</v>
+        <v>109.636</v>
       </c>
       <c r="D79" t="n">
-        <v>88.6601</v>
+        <v>89.6887</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>156.891</v>
+        <v>157.511</v>
       </c>
       <c r="C80" t="n">
-        <v>115.295</v>
+        <v>115.409</v>
       </c>
       <c r="D80" t="n">
-        <v>93.21080000000001</v>
+        <v>94.10339999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>166.728</v>
+        <v>166.611</v>
       </c>
       <c r="C81" t="n">
-        <v>121.676</v>
+        <v>122.069</v>
       </c>
       <c r="D81" t="n">
-        <v>98.70869999999999</v>
+        <v>98.92789999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>175.818</v>
+        <v>176.029</v>
       </c>
       <c r="C82" t="n">
-        <v>127.829</v>
+        <v>128.724</v>
       </c>
       <c r="D82" t="n">
-        <v>103.588</v>
+        <v>104.314</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>187.232</v>
+        <v>188.405</v>
       </c>
       <c r="C83" t="n">
-        <v>127.235</v>
+        <v>128.664</v>
       </c>
       <c r="D83" t="n">
-        <v>117.317</v>
+        <v>118.701</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>193.531</v>
+        <v>195.116</v>
       </c>
       <c r="C84" t="n">
-        <v>134.104</v>
+        <v>135.396</v>
       </c>
       <c r="D84" t="n">
-        <v>124.531</v>
+        <v>125.578</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>205.72</v>
+        <v>206.772</v>
       </c>
       <c r="C85" t="n">
-        <v>140.896</v>
+        <v>141.551</v>
       </c>
       <c r="D85" t="n">
-        <v>131.297</v>
+        <v>131.983</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>218.121</v>
+        <v>219.307</v>
       </c>
       <c r="C86" t="n">
-        <v>148.526</v>
+        <v>149.374</v>
       </c>
       <c r="D86" t="n">
-        <v>138.552</v>
+        <v>139.099</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>230.719</v>
+        <v>232.914</v>
       </c>
       <c r="C87" t="n">
-        <v>155.472</v>
+        <v>157.202</v>
       </c>
       <c r="D87" t="n">
-        <v>145.791</v>
+        <v>146.768</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>243.083</v>
+        <v>244.727</v>
       </c>
       <c r="C88" t="n">
-        <v>163.941</v>
+        <v>165.588</v>
       </c>
       <c r="D88" t="n">
-        <v>153.366</v>
+        <v>154.429</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>258.904</v>
+        <v>260.376</v>
       </c>
       <c r="C89" t="n">
-        <v>172.155</v>
+        <v>174.334</v>
       </c>
       <c r="D89" t="n">
-        <v>160.076</v>
+        <v>160.845</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>273.168</v>
+        <v>274.448</v>
       </c>
       <c r="C90" t="n">
-        <v>181.297</v>
+        <v>181.812</v>
       </c>
       <c r="D90" t="n">
-        <v>167.116</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>287.558</v>
+        <v>288.468</v>
       </c>
       <c r="C91" t="n">
-        <v>190.953</v>
+        <v>191.598</v>
       </c>
       <c r="D91" t="n">
-        <v>173.817</v>
+        <v>175.035</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>301.431</v>
+        <v>303.583</v>
       </c>
       <c r="C92" t="n">
-        <v>199.52</v>
+        <v>200.961</v>
       </c>
       <c r="D92" t="n">
-        <v>180.515</v>
+        <v>181.308</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>317.786</v>
+        <v>318.729</v>
       </c>
       <c r="C93" t="n">
-        <v>209.193</v>
+        <v>210.545</v>
       </c>
       <c r="D93" t="n">
-        <v>186.692</v>
+        <v>188.086</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>331.955</v>
+        <v>334.18</v>
       </c>
       <c r="C94" t="n">
-        <v>219.096</v>
+        <v>221.55</v>
       </c>
       <c r="D94" t="n">
-        <v>193.092</v>
+        <v>194.115</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>348.965</v>
+        <v>350.383</v>
       </c>
       <c r="C95" t="n">
-        <v>229.096</v>
+        <v>230.99</v>
       </c>
       <c r="D95" t="n">
-        <v>198.987</v>
+        <v>200.979</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>362.79</v>
+        <v>364.098</v>
       </c>
       <c r="C96" t="n">
-        <v>241.594</v>
+        <v>243.834</v>
       </c>
       <c r="D96" t="n">
-        <v>204.645</v>
+        <v>205.912</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>378.286</v>
+        <v>382.696</v>
       </c>
       <c r="C97" t="n">
-        <v>217.502</v>
+        <v>217.814</v>
       </c>
       <c r="D97" t="n">
-        <v>223.656</v>
+        <v>224.826</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>368.815</v>
+        <v>369.866</v>
       </c>
       <c r="C98" t="n">
-        <v>225.22</v>
+        <v>224.77</v>
       </c>
       <c r="D98" t="n">
-        <v>227.886</v>
+        <v>228.423</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>382.528</v>
+        <v>380.093</v>
       </c>
       <c r="C99" t="n">
-        <v>229.651</v>
+        <v>232.58</v>
       </c>
       <c r="D99" t="n">
-        <v>232.568</v>
+        <v>233.644</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>390.202</v>
+        <v>393.368</v>
       </c>
       <c r="C100" t="n">
-        <v>237.405</v>
+        <v>240.613</v>
       </c>
       <c r="D100" t="n">
-        <v>236.661</v>
+        <v>238.599</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>401.875</v>
+        <v>404.889</v>
       </c>
       <c r="C101" t="n">
-        <v>243.945</v>
+        <v>245.315</v>
       </c>
       <c r="D101" t="n">
-        <v>241.967</v>
+        <v>246.599</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>415.707</v>
+        <v>417.041</v>
       </c>
       <c r="C102" t="n">
-        <v>251.657</v>
+        <v>253.9</v>
       </c>
       <c r="D102" t="n">
-        <v>246.488</v>
+        <v>248.303</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>425.094</v>
+        <v>428.509</v>
       </c>
       <c r="C103" t="n">
-        <v>258.986</v>
+        <v>261.352</v>
       </c>
       <c r="D103" t="n">
-        <v>251.946</v>
+        <v>253.125</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>437.293</v>
+        <v>438.628</v>
       </c>
       <c r="C104" t="n">
-        <v>267.335</v>
+        <v>269.546</v>
       </c>
       <c r="D104" t="n">
-        <v>255.153</v>
+        <v>259.186</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>449.965</v>
+        <v>449.781</v>
       </c>
       <c r="C105" t="n">
-        <v>274.886</v>
+        <v>276.987</v>
       </c>
       <c r="D105" t="n">
-        <v>259.718</v>
+        <v>260.895</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>461.773</v>
+        <v>461.313</v>
       </c>
       <c r="C106" t="n">
-        <v>284.19</v>
+        <v>285.287</v>
       </c>
       <c r="D106" t="n">
-        <v>264.191</v>
+        <v>264.426</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>471.434</v>
+        <v>477.894</v>
       </c>
       <c r="C107" t="n">
-        <v>290.337</v>
+        <v>296.081</v>
       </c>
       <c r="D107" t="n">
-        <v>267.171</v>
+        <v>270.343</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>484.486</v>
+        <v>487.492</v>
       </c>
       <c r="C108" t="n">
-        <v>301.66</v>
+        <v>303.473</v>
       </c>
       <c r="D108" t="n">
-        <v>270.88</v>
+        <v>273.48</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>497.365</v>
+        <v>502.527</v>
       </c>
       <c r="C109" t="n">
-        <v>312.152</v>
+        <v>314.396</v>
       </c>
       <c r="D109" t="n">
-        <v>273.823</v>
+        <v>275.704</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>510.599</v>
+        <v>516.278</v>
       </c>
       <c r="C110" t="n">
-        <v>320.435</v>
+        <v>322.734</v>
       </c>
       <c r="D110" t="n">
-        <v>276.436</v>
+        <v>280.215</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>524.755</v>
+        <v>530.5890000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>280.685</v>
+        <v>284.296</v>
       </c>
       <c r="D111" t="n">
-        <v>289.702</v>
+        <v>291.543</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>490.594</v>
+        <v>495.595</v>
       </c>
       <c r="C112" t="n">
-        <v>288.412</v>
+        <v>292.158</v>
       </c>
       <c r="D112" t="n">
-        <v>294.285</v>
+        <v>294.319</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>499.328</v>
+        <v>504.622</v>
       </c>
       <c r="C113" t="n">
-        <v>294.447</v>
+        <v>298.119</v>
       </c>
       <c r="D113" t="n">
-        <v>295.752</v>
+        <v>297.275</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>508.148</v>
+        <v>514.732</v>
       </c>
       <c r="C114" t="n">
-        <v>299.481</v>
+        <v>303.178</v>
       </c>
       <c r="D114" t="n">
-        <v>298.037</v>
+        <v>300.471</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>518.636</v>
+        <v>524.6079999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>307.864</v>
+        <v>309.941</v>
       </c>
       <c r="D115" t="n">
-        <v>303.019</v>
+        <v>305.435</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>529.138</v>
+        <v>535.092</v>
       </c>
       <c r="C116" t="n">
-        <v>315.11</v>
+        <v>318.7</v>
       </c>
       <c r="D116" t="n">
-        <v>304.975</v>
+        <v>306.526</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>539.054</v>
+        <v>544.314</v>
       </c>
       <c r="C117" t="n">
-        <v>321.603</v>
+        <v>324.991</v>
       </c>
       <c r="D117" t="n">
-        <v>308.316</v>
+        <v>307.671</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>549.3200000000001</v>
+        <v>554.71</v>
       </c>
       <c r="C118" t="n">
-        <v>330.604</v>
+        <v>334.031</v>
       </c>
       <c r="D118" t="n">
-        <v>311.097</v>
+        <v>310.332</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>559.239</v>
+        <v>564.623</v>
       </c>
       <c r="C119" t="n">
-        <v>338.964</v>
+        <v>341.886</v>
       </c>
       <c r="D119" t="n">
-        <v>312.169</v>
+        <v>312.209</v>
       </c>
     </row>
   </sheetData>
